--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B48621-1129-41E1-BAD0-949502B3563A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F08BA2-60AB-45A2-B3F1-8ED222CB940E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="435" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="605">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -1836,6 +1836,9 @@
   </si>
   <si>
     <t>M 3228 Духовка электрическая (мини печь)</t>
+  </si>
+  <si>
+    <t>не наше</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3529,7 @@
   <dimension ref="A1:N256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3723,7 +3726,7 @@
         <v>599</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>224</v>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F08BA2-60AB-45A2-B3F1-8ED222CB940E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -19,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$2:$G$262</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="607">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -1839,45 +1838,51 @@
   </si>
   <si>
     <t>не наше</t>
+  </si>
+  <si>
+    <t>инст.нет</t>
+  </si>
+  <si>
+    <t>нет инструкции</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="30">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="0000000"/>
-    <numFmt numFmtId="176" formatCode="General_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0000000"/>
+    <numFmt numFmtId="178" formatCode="General_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#,##0.0"/>
+    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2285,6 +2290,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -2661,20 +2679,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2682,25 +2700,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2708,16 +2726,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2728,30 +2746,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2784,15 +2802,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2804,8 +2822,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2819,8 +2837,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2858,9 +2876,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2882,11 +2900,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2904,32 +2922,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2982,9 +3000,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="58" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2997,157 +3012,170 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="175" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="175" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
+    <cellStyle name="Calc Currency (0)" xfId="28"/>
+    <cellStyle name="Calc Currency (2)" xfId="29"/>
+    <cellStyle name="Calc Percent (0)" xfId="30"/>
+    <cellStyle name="Calc Percent (1)" xfId="31"/>
+    <cellStyle name="Calc Percent (2)" xfId="32"/>
+    <cellStyle name="Calc Units (0)" xfId="33"/>
+    <cellStyle name="Calc Units (1)" xfId="34"/>
+    <cellStyle name="Calc Units (2)" xfId="35"/>
+    <cellStyle name="category" xfId="36"/>
+    <cellStyle name="Comma [00]" xfId="37"/>
+    <cellStyle name="comma zerodec" xfId="38"/>
+    <cellStyle name="Currency [00]" xfId="39"/>
+    <cellStyle name="Currency1" xfId="40"/>
+    <cellStyle name="Date Short" xfId="41"/>
+    <cellStyle name="DELTA" xfId="42"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44"/>
+    <cellStyle name="Eingabefeld" xfId="45"/>
+    <cellStyle name="Eingaben" xfId="46"/>
+    <cellStyle name="EingabenWr" xfId="47"/>
+    <cellStyle name="Enter Currency (0)" xfId="48"/>
+    <cellStyle name="Enter Currency (2)" xfId="49"/>
+    <cellStyle name="Enter Units (0)" xfId="50"/>
+    <cellStyle name="Enter Units (1)" xfId="51"/>
+    <cellStyle name="Enter Units (2)" xfId="52"/>
+    <cellStyle name="Ergebnisse" xfId="53"/>
+    <cellStyle name="Euro" xfId="54"/>
+    <cellStyle name="Grey" xfId="55"/>
+    <cellStyle name="HEADER" xfId="56"/>
+    <cellStyle name="Header1" xfId="57"/>
+    <cellStyle name="Header2" xfId="58"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
+    <cellStyle name="iles|_x0005_h" xfId="70"/>
+    <cellStyle name="Input [yellow]" xfId="71"/>
+    <cellStyle name="les" xfId="72"/>
+    <cellStyle name="Link Currency (0)" xfId="73"/>
+    <cellStyle name="Link Currency (2)" xfId="74"/>
+    <cellStyle name="Link Units (0)" xfId="75"/>
+    <cellStyle name="Link Units (1)" xfId="76"/>
+    <cellStyle name="Link Units (2)" xfId="77"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79"/>
+    <cellStyle name="Model" xfId="80"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
+    <cellStyle name="Normal - Style1" xfId="83"/>
+    <cellStyle name="Normal 11" xfId="84"/>
+    <cellStyle name="Normal 133" xfId="85"/>
+    <cellStyle name="Normal 2" xfId="86"/>
+    <cellStyle name="Normal 2 2" xfId="87"/>
+    <cellStyle name="Normal 2 2 2" xfId="88"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
+    <cellStyle name="Normal 2 2 3" xfId="91"/>
+    <cellStyle name="Normal 2 3" xfId="92"/>
+    <cellStyle name="Normal 2 3 2" xfId="93"/>
+    <cellStyle name="Normal 2 3 3" xfId="94"/>
+    <cellStyle name="Normal 2 4" xfId="95"/>
+    <cellStyle name="Normal 2 4 2" xfId="96"/>
+    <cellStyle name="Normal 2 5" xfId="97"/>
+    <cellStyle name="Normal 3" xfId="98"/>
+    <cellStyle name="Normal 3 2" xfId="99"/>
+    <cellStyle name="Normal 3 2 2" xfId="100"/>
+    <cellStyle name="Normal 3 3" xfId="101"/>
+    <cellStyle name="Normal 3 3 2" xfId="102"/>
+    <cellStyle name="Normal 3 3 3" xfId="103"/>
+    <cellStyle name="Normal 3 4" xfId="104"/>
+    <cellStyle name="Normal 3 4 2" xfId="105"/>
+    <cellStyle name="Normal 3 4 3" xfId="106"/>
+    <cellStyle name="Normal 4" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 6" xfId="109"/>
+    <cellStyle name="Normal 7" xfId="110"/>
+    <cellStyle name="Normal 7 2" xfId="111"/>
+    <cellStyle name="Normal 8" xfId="112"/>
+    <cellStyle name="Normal 9" xfId="113"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
+    <cellStyle name="ParaBirimi 2" xfId="115"/>
+    <cellStyle name="Percent [0]" xfId="116"/>
+    <cellStyle name="Percent [00]" xfId="117"/>
+    <cellStyle name="Percent [2]" xfId="118"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120"/>
+    <cellStyle name="PrePop Units (0)" xfId="121"/>
+    <cellStyle name="PrePop Units (1)" xfId="122"/>
+    <cellStyle name="PrePop Units (2)" xfId="123"/>
+    <cellStyle name="Prozent 2" xfId="124"/>
+    <cellStyle name="R?" xfId="125"/>
+    <cellStyle name="sche|_x0005_" xfId="126"/>
+    <cellStyle name="Standard 2" xfId="127"/>
+    <cellStyle name="Standard 2 2" xfId="128"/>
+    <cellStyle name="Standard 3" xfId="129"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
+    <cellStyle name="subhead" xfId="131"/>
+    <cellStyle name="Text Indent A" xfId="132"/>
+    <cellStyle name="Text Indent B" xfId="133"/>
+    <cellStyle name="Text Indent C" xfId="134"/>
+    <cellStyle name="Ueberschriften" xfId="135"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
+    <cellStyle name="Yüzde 2" xfId="137"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3157,98 +3185,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Гиперссылка 2" xfId="147"/>
+    <cellStyle name="Денежный 2" xfId="148"/>
+    <cellStyle name="Денежный 3" xfId="149"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Название 2" xfId="156"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Обычный 10" xfId="158"/>
+    <cellStyle name="Обычный 10 2" xfId="159"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160"/>
+    <cellStyle name="Обычный 14" xfId="161"/>
+    <cellStyle name="Обычный 15" xfId="162"/>
+    <cellStyle name="Обычный 2" xfId="163"/>
+    <cellStyle name="Обычный 2 2" xfId="164"/>
+    <cellStyle name="Обычный 2 3" xfId="165"/>
+    <cellStyle name="Обычный 2 4" xfId="166"/>
+    <cellStyle name="Обычный 3" xfId="167"/>
+    <cellStyle name="Обычный 3 2" xfId="168"/>
+    <cellStyle name="Обычный 3 3" xfId="169"/>
+    <cellStyle name="Обычный 4" xfId="170"/>
+    <cellStyle name="Обычный 4 2" xfId="171"/>
+    <cellStyle name="Обычный 4 3" xfId="172"/>
+    <cellStyle name="Обычный 5" xfId="173"/>
+    <cellStyle name="Обычный 5 2" xfId="174"/>
+    <cellStyle name="Обычный_0" xfId="175"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Примечание 2" xfId="179"/>
+    <cellStyle name="Процентный 2" xfId="180"/>
+    <cellStyle name="Процентный 3" xfId="181"/>
+    <cellStyle name="Процентный 3 2" xfId="182"/>
+    <cellStyle name="Процентный 3 3" xfId="183"/>
+    <cellStyle name="Процентный 4" xfId="184"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Финансовый 2" xfId="187"/>
+    <cellStyle name="Финансовый 3" xfId="188"/>
+    <cellStyle name="Финансовый 9" xfId="189"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
+    <cellStyle name="백분율 2" xfId="199"/>
+    <cellStyle name="백분율 3" xfId="200"/>
+    <cellStyle name="백분율 3 2" xfId="201"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
+    <cellStyle name="스타일 1" xfId="207"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
+    <cellStyle name="콤마_0009-1" xfId="210"/>
+    <cellStyle name="표준 2" xfId="211"/>
+    <cellStyle name="표준 2 2" xfId="212"/>
+    <cellStyle name="표준 3" xfId="213"/>
+    <cellStyle name="표준 3 2" xfId="214"/>
+    <cellStyle name="一般_家樂福" xfId="215"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216"/>
+    <cellStyle name="千分位_laroux" xfId="217"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
+    <cellStyle name="常规_Sheet1" xfId="229"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
+    <cellStyle name="貨幣_laroux" xfId="234"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3525,11 +3553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3581,7 +3609,7 @@
       <c r="B3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3635,7 +3663,7 @@
       <c r="B5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3689,7 +3717,7 @@
       <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="24" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3716,13 +3744,13 @@
       <c r="B8" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>7000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>599</v>
       </c>
       <c r="F8" s="15" t="s">
@@ -3745,7 +3773,7 @@
       <c r="B9" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="27">
         <v>6007</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3768,13 +3796,13 @@
       <c r="B10" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="26" t="s">
         <v>533</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="15"/>
       <c r="G10" s="9" t="s">
         <v>548</v>
@@ -3787,13 +3815,13 @@
       <c r="B11" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="26" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>599</v>
       </c>
       <c r="F11" s="15"/>
@@ -3808,13 +3836,13 @@
       <c r="B12" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="26" t="s">
         <v>513</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>599</v>
       </c>
       <c r="F12" s="15"/>
@@ -3829,7 +3857,7 @@
       <c r="B13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3850,7 +3878,7 @@
       <c r="B14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3871,7 +3899,7 @@
       <c r="B15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3892,7 +3920,7 @@
       <c r="B16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3913,7 +3941,7 @@
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3934,7 +3962,7 @@
       <c r="B18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3955,7 +3983,7 @@
       <c r="B19" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3976,7 +4004,7 @@
       <c r="B20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="28" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3997,7 +4025,7 @@
       <c r="B21" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="28" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4018,7 +4046,7 @@
       <c r="B22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4039,7 +4067,7 @@
       <c r="B23" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4060,7 +4088,7 @@
       <c r="B24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4081,7 +4109,7 @@
       <c r="B25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4102,7 +4130,7 @@
       <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4123,7 +4151,7 @@
       <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="28" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4144,7 +4172,7 @@
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4165,7 +4193,7 @@
       <c r="B29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4186,7 +4214,7 @@
       <c r="B30" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="28" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4207,7 +4235,7 @@
       <c r="B31" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="28" t="s">
         <v>515</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4228,7 +4256,7 @@
       <c r="B32" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4249,7 +4277,7 @@
       <c r="B33" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="28" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4270,7 +4298,7 @@
       <c r="B34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="28" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4291,7 +4319,7 @@
       <c r="B35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4312,7 +4340,7 @@
       <c r="B36" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="28" t="s">
         <v>440</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -4333,7 +4361,7 @@
       <c r="B37" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="28" t="s">
         <v>442</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -4354,7 +4382,7 @@
       <c r="B38" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="28" t="s">
         <v>433</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -4375,7 +4403,7 @@
       <c r="B39" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="28" t="s">
         <v>435</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -4396,7 +4424,7 @@
       <c r="B40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="28" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4417,7 +4445,7 @@
       <c r="B41" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4438,13 +4466,13 @@
       <c r="B42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="28" t="s">
         <v>181</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F42" s="15"/>
@@ -4459,7 +4487,7 @@
       <c r="B43" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="28" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4480,7 +4508,7 @@
       <c r="B44" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4501,7 +4529,7 @@
       <c r="B45" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4522,7 +4550,7 @@
       <c r="B46" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4543,13 +4571,13 @@
       <c r="B47" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="28" t="s">
         <v>373</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F47" s="15"/>
@@ -4564,13 +4592,13 @@
       <c r="B48" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="28" t="s">
         <v>374</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F48" s="15"/>
@@ -4585,13 +4613,13 @@
       <c r="B49" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="28" t="s">
         <v>419</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F49" s="15"/>
@@ -4606,7 +4634,7 @@
       <c r="B50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="28" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4627,7 +4655,7 @@
       <c r="B51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="28" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4648,13 +4676,13 @@
       <c r="B52" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="28" t="s">
         <v>388</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F52" s="15"/>
@@ -4669,7 +4697,7 @@
       <c r="B53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="28" t="s">
         <v>412</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4690,7 +4718,7 @@
       <c r="B54" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="28" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4711,13 +4739,13 @@
       <c r="B55" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="28" t="s">
         <v>538</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F55" s="15"/>
@@ -4732,13 +4760,13 @@
       <c r="B56" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="28" t="s">
         <v>480</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F56" s="15"/>
@@ -4753,7 +4781,7 @@
       <c r="B57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="28" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4774,7 +4802,7 @@
       <c r="B58" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="28" t="s">
         <v>137</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4793,13 +4821,13 @@
       <c r="B59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="28" t="s">
         <v>186</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F59" s="15"/>
@@ -4812,7 +4840,7 @@
       <c r="B60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4831,7 +4859,7 @@
       <c r="B61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4850,13 +4878,13 @@
       <c r="B62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="28" t="s">
         <v>188</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F62" s="15"/>
@@ -4871,13 +4899,13 @@
       <c r="B63" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="28" t="s">
         <v>189</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F63" s="15"/>
@@ -4892,7 +4920,7 @@
       <c r="B64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4913,7 +4941,7 @@
       <c r="B65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4934,7 +4962,7 @@
       <c r="B66" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4955,7 +4983,7 @@
       <c r="B67" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4976,7 +5004,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="28" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4997,7 +5025,7 @@
       <c r="B69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5018,7 +5046,7 @@
       <c r="B70" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="28" t="s">
         <v>274</v>
       </c>
       <c r="D70" s="18" t="s">
@@ -5039,7 +5067,7 @@
       <c r="B71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5060,7 +5088,7 @@
       <c r="B72" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="28" t="s">
         <v>292</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -5079,7 +5107,7 @@
       <c r="B73" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="28" t="s">
         <v>293</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -5098,13 +5126,13 @@
       <c r="B74" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="28" t="s">
         <v>298</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F74" s="15"/>
@@ -5119,7 +5147,7 @@
       <c r="B75" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5140,7 +5168,7 @@
       <c r="B76" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="28" t="s">
         <v>456</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -5161,7 +5189,7 @@
       <c r="B77" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="28" t="s">
         <v>458</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5182,7 +5210,7 @@
       <c r="B78" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="28" t="s">
         <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -5203,7 +5231,7 @@
       <c r="B79" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5224,7 +5252,7 @@
       <c r="B80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="28" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5245,7 +5273,7 @@
       <c r="B81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="28" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5266,7 +5294,7 @@
       <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="28" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5287,7 +5315,7 @@
       <c r="B83" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="28" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5308,7 +5336,7 @@
       <c r="B84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5329,7 +5357,7 @@
       <c r="B85" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="28" t="s">
         <v>327</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5350,7 +5378,7 @@
       <c r="B86" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="28" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5371,7 +5399,7 @@
       <c r="B87" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="28" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5389,7 +5417,7 @@
       <c r="B88" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="28" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5410,7 +5438,7 @@
       <c r="B89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="28" t="s">
         <v>326</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5431,13 +5459,13 @@
       <c r="B90" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="28" t="s">
         <v>378</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F90" s="15"/>
@@ -5452,13 +5480,13 @@
       <c r="B91" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="28" t="s">
         <v>511</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F91" s="15"/>
@@ -5473,13 +5501,13 @@
       <c r="B92" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="28" t="s">
         <v>198</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F92" s="15"/>
@@ -5494,13 +5522,13 @@
       <c r="B93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="28" t="s">
         <v>200</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F93" s="15"/>
@@ -5515,7 +5543,7 @@
       <c r="B94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5536,7 +5564,7 @@
       <c r="B95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5557,7 +5585,7 @@
       <c r="B96" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5578,7 +5606,7 @@
       <c r="B97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5599,7 +5627,7 @@
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5620,7 +5648,7 @@
       <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5641,7 +5669,7 @@
       <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -5662,7 +5690,7 @@
       <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5683,7 +5711,7 @@
       <c r="B102" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5704,7 +5732,7 @@
       <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -5725,7 +5753,7 @@
       <c r="B104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -5743,7 +5771,7 @@
       <c r="B105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="28" t="s">
         <v>309</v>
       </c>
       <c r="D105" s="18" t="s">
@@ -5759,7 +5787,7 @@
       <c r="B106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="28" t="s">
         <v>311</v>
       </c>
       <c r="D106" s="18" t="s">
@@ -5775,13 +5803,13 @@
       <c r="B107" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="28" t="s">
         <v>322</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="E107" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F107" s="15"/>
@@ -5793,7 +5821,7 @@
       <c r="B108" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="28" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -5811,7 +5839,7 @@
       <c r="B109" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -5829,13 +5857,13 @@
       <c r="B110" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="28" t="s">
         <v>138</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="24" t="s">
+      <c r="E110" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F110" s="15"/>
@@ -5847,13 +5875,13 @@
       <c r="B111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="28" t="s">
         <v>209</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E111" s="24" t="s">
+      <c r="E111" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F111" s="15"/>
@@ -5865,7 +5893,7 @@
       <c r="B112" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="28" t="s">
         <v>504</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -5883,13 +5911,13 @@
       <c r="B113" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="28" t="s">
         <v>294</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="E113" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F113" s="15"/>
@@ -5901,7 +5929,7 @@
       <c r="B114" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C114" s="19" t="s">
+      <c r="C114" s="28" t="s">
         <v>414</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -5919,7 +5947,7 @@
       <c r="B115" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="28" t="s">
         <v>212</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -5937,7 +5965,7 @@
       <c r="B116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C116" s="19" t="s">
+      <c r="C116" s="28" t="s">
         <v>380</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -5955,7 +5983,7 @@
       <c r="B117" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="28" t="s">
         <v>289</v>
       </c>
       <c r="D117" s="18" t="s">
@@ -5971,7 +5999,7 @@
       <c r="B118" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="28" t="s">
         <v>214</v>
       </c>
       <c r="D118" s="18" t="s">
@@ -5987,7 +6015,7 @@
       <c r="B119" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -6005,7 +6033,7 @@
       <c r="B120" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="28" t="s">
         <v>529</v>
       </c>
       <c r="D120" s="18" t="s">
@@ -6021,7 +6049,7 @@
       <c r="B121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -6039,7 +6067,7 @@
       <c r="B122" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="28" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -6057,7 +6085,7 @@
       <c r="B123" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6075,7 +6103,7 @@
       <c r="B124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -6093,7 +6121,7 @@
       <c r="B125" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -6111,7 +6139,7 @@
       <c r="B126" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="28" t="s">
         <v>217</v>
       </c>
       <c r="D126" s="18" t="s">
@@ -6127,7 +6155,7 @@
       <c r="B127" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -6145,7 +6173,7 @@
       <c r="B128" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C128" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -6163,7 +6191,7 @@
       <c r="B129" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -6181,7 +6209,7 @@
       <c r="B130" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -6199,7 +6227,7 @@
       <c r="B131" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="28" t="s">
         <v>218</v>
       </c>
       <c r="D131" s="18" t="s">
@@ -6215,7 +6243,7 @@
       <c r="B132" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C132" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -6233,7 +6261,7 @@
       <c r="B133" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -6251,7 +6279,7 @@
       <c r="B134" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="28" t="s">
         <v>219</v>
       </c>
       <c r="D134" s="18" t="s">
@@ -6267,7 +6295,7 @@
       <c r="B135" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="29" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -6285,7 +6313,7 @@
       <c r="B136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -6303,7 +6331,7 @@
       <c r="B137" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="28" t="s">
         <v>220</v>
       </c>
       <c r="D137" s="18" t="s">
@@ -6319,7 +6347,7 @@
       <c r="B138" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="28" t="s">
         <v>222</v>
       </c>
       <c r="D138" s="18" t="s">
@@ -6335,7 +6363,7 @@
       <c r="B139" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="28" t="s">
         <v>301</v>
       </c>
       <c r="D139" s="18" t="s">
@@ -6351,7 +6379,7 @@
       <c r="B140" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="28" t="s">
         <v>278</v>
       </c>
       <c r="D140" s="18" t="s">
@@ -6367,7 +6395,7 @@
       <c r="B141" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -6385,7 +6413,7 @@
       <c r="B142" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -6403,7 +6431,7 @@
       <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -6421,7 +6449,7 @@
       <c r="B144" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D144" s="18" t="s">
@@ -6437,7 +6465,7 @@
       <c r="B145" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D145" s="18" t="s">
@@ -6453,7 +6481,7 @@
       <c r="B146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="28" t="s">
         <v>287</v>
       </c>
       <c r="D146" s="18" t="s">
@@ -6469,7 +6497,7 @@
       <c r="B147" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -6487,7 +6515,7 @@
       <c r="B148" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="28" t="s">
         <v>443</v>
       </c>
       <c r="D148" s="18" t="s">
@@ -6503,13 +6531,13 @@
       <c r="B149" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="28" t="s">
         <v>471</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E149" s="15" t="s">
+      <c r="E149" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F149" s="15"/>
@@ -6521,7 +6549,7 @@
       <c r="B150" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C150" s="19" t="s">
+      <c r="C150" s="28" t="s">
         <v>473</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -6539,7 +6567,7 @@
       <c r="B151" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="30" t="s">
         <v>475</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -6557,13 +6585,13 @@
       <c r="B152" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="28" t="s">
         <v>477</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F152" s="15"/>
@@ -6575,7 +6603,7 @@
       <c r="B153" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="28" t="s">
         <v>143</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -6584,7 +6612,9 @@
       <c r="E153" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F153" s="15"/>
+      <c r="F153" s="15" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1">
       <c r="A154" s="6">
@@ -6593,7 +6623,7 @@
       <c r="B154" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C154" s="28" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6602,7 +6632,9 @@
       <c r="E154" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F154" s="15"/>
+      <c r="F154" s="15" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1">
       <c r="A155" s="6">
@@ -6611,7 +6643,7 @@
       <c r="B155" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="28" t="s">
         <v>148</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -6629,7 +6661,7 @@
       <c r="B156" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="28" t="s">
         <v>329</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -6647,7 +6679,7 @@
       <c r="B157" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="28" t="s">
         <v>139</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -6665,7 +6697,7 @@
       <c r="B158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C158" s="28" t="s">
         <v>140</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -6683,7 +6715,7 @@
       <c r="B159" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="28" t="s">
         <v>141</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -6701,7 +6733,7 @@
       <c r="B160" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="28" t="s">
         <v>142</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -6719,7 +6751,7 @@
       <c r="B161" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="28" t="s">
         <v>382</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -6737,7 +6769,7 @@
       <c r="B162" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="28" t="s">
         <v>464</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -6755,7 +6787,7 @@
       <c r="B163" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="28" t="s">
         <v>228</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -6764,7 +6796,9 @@
       <c r="E163" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F163" s="15"/>
+      <c r="F163" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="164" spans="1:6" ht="30" customHeight="1">
       <c r="A164" s="6">
@@ -6773,7 +6807,7 @@
       <c r="B164" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="28" t="s">
         <v>233</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -6791,7 +6825,7 @@
       <c r="B165" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="28" t="s">
         <v>149</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -6809,7 +6843,7 @@
       <c r="B166" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C166" s="19" t="s">
+      <c r="C166" s="28" t="s">
         <v>150</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -6827,7 +6861,7 @@
       <c r="B167" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="28" t="s">
         <v>146</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -6845,7 +6879,7 @@
       <c r="B168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C168" s="19" t="s">
+      <c r="C168" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -6863,7 +6897,7 @@
       <c r="B169" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="28" t="s">
         <v>235</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -6881,7 +6915,7 @@
       <c r="B170" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="28" t="s">
         <v>152</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -6890,7 +6924,9 @@
       <c r="E170" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F170" s="15"/>
+      <c r="F170" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="6">
@@ -6899,7 +6935,7 @@
       <c r="B171" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="28" t="s">
         <v>151</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -6908,7 +6944,9 @@
       <c r="E171" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F171" s="15"/>
+      <c r="F171" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
       <c r="A172" s="6">
@@ -6917,7 +6955,7 @@
       <c r="B172" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="28" t="s">
         <v>147</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -6935,7 +6973,7 @@
       <c r="B173" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="28" t="s">
         <v>330</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -6953,7 +6991,7 @@
       <c r="B174" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="19" t="s">
+      <c r="C174" s="28" t="s">
         <v>271</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -6971,7 +7009,7 @@
       <c r="B175" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -6989,7 +7027,7 @@
       <c r="B176" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C176" s="19" t="s">
+      <c r="C176" s="28" t="s">
         <v>273</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -6998,7 +7036,9 @@
       <c r="E176" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F176" s="15"/>
+      <c r="F176" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1">
       <c r="A177" s="6">
@@ -7007,7 +7047,7 @@
       <c r="B177" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="28" t="s">
         <v>415</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -7025,7 +7065,7 @@
       <c r="B178" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="28" t="s">
         <v>416</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -7043,7 +7083,7 @@
       <c r="B179" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C179" s="21">
+      <c r="C179" s="31">
         <v>5500</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -7061,7 +7101,7 @@
       <c r="B180" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="28" t="s">
         <v>314</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -7079,7 +7119,7 @@
       <c r="B181" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="28" t="s">
         <v>241</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -7097,7 +7137,7 @@
       <c r="B182" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C182" s="19" t="s">
+      <c r="C182" s="28" t="s">
         <v>406</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -7115,7 +7155,7 @@
       <c r="B183" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="28" t="s">
         <v>407</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -7133,7 +7173,7 @@
       <c r="B184" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C184" s="19" t="s">
+      <c r="C184" s="28" t="s">
         <v>408</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -7142,7 +7182,9 @@
       <c r="E184" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F184" s="15"/>
+      <c r="F184" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1">
       <c r="A185" s="6">
@@ -7151,7 +7193,7 @@
       <c r="B185" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="28" t="s">
         <v>507</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -7160,7 +7202,9 @@
       <c r="E185" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="F185" s="15"/>
+      <c r="F185" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1">
       <c r="A186" s="6">
@@ -7169,7 +7213,7 @@
       <c r="B186" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="28" t="s">
         <v>97</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -7187,7 +7231,7 @@
       <c r="B187" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -7205,7 +7249,7 @@
       <c r="B188" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -7223,7 +7267,7 @@
       <c r="B189" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -7241,7 +7285,7 @@
       <c r="B190" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="28" t="s">
         <v>72</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -7259,7 +7303,7 @@
       <c r="B191" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -7277,7 +7321,7 @@
       <c r="B192" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C192" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -7295,7 +7339,7 @@
       <c r="B193" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="28" t="s">
         <v>99</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -7313,7 +7357,7 @@
       <c r="B194" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="28" t="s">
         <v>462</v>
       </c>
       <c r="D194" s="18" t="s">
@@ -7329,7 +7373,7 @@
       <c r="B195" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="28" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -7347,7 +7391,7 @@
       <c r="B196" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C196" s="19" t="s">
+      <c r="C196" s="28" t="s">
         <v>100</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -7365,7 +7409,7 @@
       <c r="B197" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="28" t="s">
         <v>423</v>
       </c>
       <c r="D197" s="18" t="s">
@@ -7381,7 +7425,7 @@
       <c r="B198" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="28" t="s">
         <v>490</v>
       </c>
       <c r="D198" s="18" t="s">
@@ -7397,7 +7441,7 @@
       <c r="B199" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -7415,7 +7459,7 @@
       <c r="B200" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -7431,7 +7475,7 @@
       <c r="B201" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="28" t="s">
         <v>540</v>
       </c>
       <c r="D201" s="18" t="s">
@@ -7447,7 +7491,7 @@
       <c r="B202" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="28" t="s">
         <v>518</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -7465,7 +7509,7 @@
       <c r="B203" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="28" t="s">
         <v>460</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -7483,7 +7527,7 @@
       <c r="B204" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="28" t="s">
         <v>249</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -7501,7 +7545,7 @@
       <c r="B205" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="28" t="s">
         <v>545</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -7519,7 +7563,7 @@
       <c r="B206" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C206" s="28" t="s">
         <v>112</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -7537,7 +7581,7 @@
       <c r="B207" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="28" t="s">
         <v>111</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -7555,7 +7599,7 @@
       <c r="B208" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -7573,7 +7617,7 @@
       <c r="B209" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C209" s="28" t="s">
         <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -7591,7 +7635,7 @@
       <c r="B210" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="28" t="s">
         <v>119</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -7609,7 +7653,7 @@
       <c r="B211" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -7627,7 +7671,7 @@
       <c r="B212" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="19" t="s">
+      <c r="C212" s="28" t="s">
         <v>126</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -7645,7 +7689,7 @@
       <c r="B213" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C213" s="19" t="s">
+      <c r="C213" s="28" t="s">
         <v>117</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -7663,7 +7707,7 @@
       <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C214" s="26" t="s">
+      <c r="C214" s="29" t="s">
         <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -7681,7 +7725,7 @@
       <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C215" s="26" t="s">
+      <c r="C215" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -7699,7 +7743,7 @@
       <c r="B216" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C216" s="19" t="s">
+      <c r="C216" s="28" t="s">
         <v>256</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -7717,7 +7761,7 @@
       <c r="B217" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C217" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -7735,7 +7779,7 @@
       <c r="B218" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C218" s="19" t="s">
+      <c r="C218" s="28" t="s">
         <v>108</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -7753,7 +7797,7 @@
       <c r="B219" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="26" t="s">
+      <c r="C219" s="29" t="s">
         <v>316</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -7771,7 +7815,7 @@
       <c r="B220" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="28" t="s">
         <v>129</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -7789,7 +7833,7 @@
       <c r="B221" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="28" t="s">
         <v>542</v>
       </c>
       <c r="D221" s="18" t="s">
@@ -7805,7 +7849,7 @@
       <c r="B222" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="28" t="s">
         <v>494</v>
       </c>
       <c r="D222" s="18" t="s">
@@ -7821,7 +7865,7 @@
       <c r="B223" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="28" t="s">
         <v>448</v>
       </c>
       <c r="D223" s="18" t="s">
@@ -7837,7 +7881,7 @@
       <c r="B224" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="28" t="s">
         <v>450</v>
       </c>
       <c r="D224" s="18" t="s">
@@ -7853,7 +7897,7 @@
       <c r="B225" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="28" t="s">
         <v>132</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -7871,7 +7915,7 @@
       <c r="B226" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -7889,7 +7933,7 @@
       <c r="B227" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="28" t="s">
         <v>131</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -7907,7 +7951,7 @@
       <c r="B228" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C228" s="28" t="s">
         <v>291</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -7925,7 +7969,7 @@
       <c r="B229" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -7943,7 +7987,7 @@
       <c r="B230" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C230" s="19" t="s">
+      <c r="C230" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -7961,7 +8005,7 @@
       <c r="B231" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C231" s="19" t="s">
+      <c r="C231" s="28" t="s">
         <v>121</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -7979,13 +8023,13 @@
       <c r="B232" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C232" s="19" t="s">
+      <c r="C232" s="28" t="s">
         <v>260</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="24" t="s">
+      <c r="E232" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F232" s="15"/>
@@ -7997,7 +8041,7 @@
       <c r="B233" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C233" s="27" t="s">
+      <c r="C233" s="30" t="s">
         <v>261</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -8015,13 +8059,13 @@
       <c r="B234" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="28" t="s">
         <v>262</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E234" s="24" t="s">
+      <c r="E234" s="23" t="s">
         <v>600</v>
       </c>
       <c r="F234" s="15"/>
@@ -8033,7 +8077,7 @@
       <c r="B235" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C235" s="26" t="s">
+      <c r="C235" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -8051,7 +8095,7 @@
       <c r="B236" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="28" t="s">
         <v>134</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -8069,7 +8113,7 @@
       <c r="B237" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C237" s="26" t="s">
+      <c r="C237" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -8087,7 +8131,7 @@
       <c r="B238" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="28" t="s">
         <v>409</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -8105,7 +8149,7 @@
       <c r="B239" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="28" t="s">
         <v>130</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -8123,7 +8167,7 @@
       <c r="B240" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C240" s="26" t="s">
+      <c r="C240" s="29" t="s">
         <v>328</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -8141,7 +8185,7 @@
       <c r="B241" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="28" t="s">
         <v>320</v>
       </c>
       <c r="D241" s="18" t="s">
@@ -8157,7 +8201,7 @@
       <c r="B242" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C242" s="20" t="s">
+      <c r="C242" s="29" t="s">
         <v>110</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -8175,13 +8219,13 @@
       <c r="B243" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C243" s="19" t="s">
+      <c r="C243" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E243" s="23" t="s">
+      <c r="E243" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F243" s="15"/>
@@ -8193,7 +8237,7 @@
       <c r="B244" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C244" s="19" t="s">
+      <c r="C244" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -8211,7 +8255,7 @@
       <c r="B245" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="19" t="s">
+      <c r="C245" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -8229,13 +8273,13 @@
       <c r="B246" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C246" s="19" t="s">
+      <c r="C246" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E246" s="23" t="s">
+      <c r="E246" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F246" s="15"/>
@@ -8247,7 +8291,7 @@
       <c r="B247" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C247" s="19" t="s">
+      <c r="C247" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -8265,7 +8309,7 @@
       <c r="B248" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C248" s="19" t="s">
+      <c r="C248" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -8283,7 +8327,7 @@
       <c r="B249" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -8301,7 +8345,7 @@
       <c r="B250" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="28" t="s">
         <v>268</v>
       </c>
       <c r="D250" s="18" t="s">
@@ -8317,7 +8361,7 @@
       <c r="B251" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C251" s="19" t="s">
+      <c r="C251" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -8335,7 +8379,7 @@
       <c r="B252" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="28" t="s">
         <v>428</v>
       </c>
       <c r="D252" s="18" t="s">
@@ -8351,7 +8395,7 @@
       <c r="B253" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C253" s="19" t="s">
+      <c r="C253" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -8369,7 +8413,7 @@
       <c r="B254" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C254" s="19" t="s">
+      <c r="C254" s="28" t="s">
         <v>28</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -8387,7 +8431,7 @@
       <c r="B255" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C255" s="19" t="s">
+      <c r="C255" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -8405,7 +8449,7 @@
       <c r="B256" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="28" t="s">
         <v>321</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -8414,15 +8458,21 @@
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
     </row>
+    <row r="257" spans="3:3">
+      <c r="C257" s="32"/>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258" s="32"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:G262"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="609">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -1844,6 +1844,12 @@
   </si>
   <si>
     <t>нет инструкции</t>
+  </si>
+  <si>
+    <t>не нашел(добавил)</t>
+  </si>
+  <si>
+    <t>потом ещё раз, дождавшись ответа от руслана</t>
   </si>
 </sst>
 </file>
@@ -2947,7 +2953,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3019,9 +3025,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3334,7 +3337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3369,7 +3372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3556,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3565,7 +3568,8 @@
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="6" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="8" max="10" width="9.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" customWidth="1"/>
@@ -3751,7 +3755,7 @@
         <v>160</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>604</v>
@@ -3773,7 +3777,7 @@
       <c r="B9" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="20">
         <v>6007</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3857,7 +3861,7 @@
       <c r="B13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3878,7 +3882,7 @@
       <c r="B14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3899,7 +3903,7 @@
       <c r="B15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3920,7 +3924,7 @@
       <c r="B16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3941,7 +3945,7 @@
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3950,7 +3954,9 @@
       <c r="E17" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="23" t="s">
+        <v>608</v>
+      </c>
       <c r="G17" s="9" t="s">
         <v>176</v>
       </c>
@@ -3962,7 +3968,7 @@
       <c r="B18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3983,7 +3989,7 @@
       <c r="B19" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4004,7 +4010,7 @@
       <c r="B20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4025,7 +4031,7 @@
       <c r="B21" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4046,7 +4052,7 @@
       <c r="B22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4067,7 +4073,7 @@
       <c r="B23" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4088,7 +4094,7 @@
       <c r="B24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4109,7 +4115,7 @@
       <c r="B25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4130,7 +4136,7 @@
       <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4151,7 +4157,7 @@
       <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4172,7 +4178,7 @@
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4193,7 +4199,7 @@
       <c r="B29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4214,7 +4220,7 @@
       <c r="B30" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4235,7 +4241,7 @@
       <c r="B31" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>515</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4256,7 +4262,7 @@
       <c r="B32" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4277,7 +4283,7 @@
       <c r="B33" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4298,7 +4304,7 @@
       <c r="B34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4319,7 +4325,7 @@
       <c r="B35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4340,7 +4346,7 @@
       <c r="B36" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>440</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -4361,7 +4367,7 @@
       <c r="B37" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>442</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -4382,7 +4388,7 @@
       <c r="B38" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>433</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -4403,7 +4409,7 @@
       <c r="B39" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>435</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -4424,7 +4430,7 @@
       <c r="B40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4445,7 +4451,7 @@
       <c r="B41" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="27" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4466,7 +4472,7 @@
       <c r="B42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="27" t="s">
         <v>181</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -4487,7 +4493,7 @@
       <c r="B43" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4508,7 +4514,7 @@
       <c r="B44" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4529,7 +4535,7 @@
       <c r="B45" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4550,7 +4556,7 @@
       <c r="B46" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4571,7 +4577,7 @@
       <c r="B47" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="27" t="s">
         <v>373</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -4592,7 +4598,7 @@
       <c r="B48" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="27" t="s">
         <v>374</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4613,7 +4619,7 @@
       <c r="B49" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>419</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -4634,7 +4640,7 @@
       <c r="B50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="27" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4655,7 +4661,7 @@
       <c r="B51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4676,7 +4682,7 @@
       <c r="B52" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="27" t="s">
         <v>388</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -4697,7 +4703,7 @@
       <c r="B53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="27" t="s">
         <v>412</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4718,7 +4724,7 @@
       <c r="B54" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4739,7 +4745,7 @@
       <c r="B55" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>538</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4760,7 +4766,7 @@
       <c r="B56" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="27" t="s">
         <v>480</v>
       </c>
       <c r="D56" s="18" t="s">
@@ -4781,7 +4787,7 @@
       <c r="B57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4802,7 +4808,7 @@
       <c r="B58" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4821,7 +4827,7 @@
       <c r="B59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="27" t="s">
         <v>186</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4840,7 +4846,7 @@
       <c r="B60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4859,7 +4865,7 @@
       <c r="B61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4878,7 +4884,7 @@
       <c r="B62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="27" t="s">
         <v>188</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4899,7 +4905,7 @@
       <c r="B63" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="27" t="s">
         <v>189</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4920,7 +4926,7 @@
       <c r="B64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4941,7 +4947,7 @@
       <c r="B65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4962,7 +4968,7 @@
       <c r="B66" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4983,7 +4989,7 @@
       <c r="B67" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5004,7 +5010,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5025,7 +5031,7 @@
       <c r="B69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5046,7 +5052,7 @@
       <c r="B70" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="27" t="s">
         <v>274</v>
       </c>
       <c r="D70" s="18" t="s">
@@ -5067,7 +5073,7 @@
       <c r="B71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5088,7 +5094,7 @@
       <c r="B72" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="27" t="s">
         <v>292</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -5107,7 +5113,7 @@
       <c r="B73" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="27" t="s">
         <v>293</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -5126,7 +5132,7 @@
       <c r="B74" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="27" t="s">
         <v>298</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -5147,7 +5153,7 @@
       <c r="B75" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5168,7 +5174,7 @@
       <c r="B76" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="27" t="s">
         <v>456</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -5189,7 +5195,7 @@
       <c r="B77" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="27" t="s">
         <v>458</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5210,7 +5216,7 @@
       <c r="B78" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="27" t="s">
         <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -5231,7 +5237,7 @@
       <c r="B79" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5252,7 +5258,7 @@
       <c r="B80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5273,7 +5279,7 @@
       <c r="B81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5294,7 +5300,7 @@
       <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="27" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5315,7 +5321,7 @@
       <c r="B83" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5336,7 +5342,7 @@
       <c r="B84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5357,7 +5363,7 @@
       <c r="B85" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="27" t="s">
         <v>327</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5378,7 +5384,7 @@
       <c r="B86" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5399,7 +5405,7 @@
       <c r="B87" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5417,7 +5423,7 @@
       <c r="B88" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="27" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5438,7 +5444,7 @@
       <c r="B89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="27" t="s">
         <v>326</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5459,7 +5465,7 @@
       <c r="B90" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="27" t="s">
         <v>378</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5480,7 +5486,7 @@
       <c r="B91" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="27" t="s">
         <v>511</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -5501,7 +5507,7 @@
       <c r="B92" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="27" t="s">
         <v>198</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -5522,7 +5528,7 @@
       <c r="B93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="27" t="s">
         <v>200</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -5543,7 +5549,7 @@
       <c r="B94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5564,7 +5570,7 @@
       <c r="B95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5585,7 +5591,7 @@
       <c r="B96" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5606,7 +5612,7 @@
       <c r="B97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5627,7 +5633,7 @@
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5648,7 +5654,7 @@
       <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5669,7 +5675,7 @@
       <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -5690,7 +5696,7 @@
       <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5711,7 +5717,7 @@
       <c r="B102" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5732,7 +5738,7 @@
       <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -5753,7 +5759,7 @@
       <c r="B104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -5771,7 +5777,7 @@
       <c r="B105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="27" t="s">
         <v>309</v>
       </c>
       <c r="D105" s="18" t="s">
@@ -5787,7 +5793,7 @@
       <c r="B106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="27" t="s">
         <v>311</v>
       </c>
       <c r="D106" s="18" t="s">
@@ -5803,7 +5809,7 @@
       <c r="B107" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="27" t="s">
         <v>322</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -5821,7 +5827,7 @@
       <c r="B108" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -5839,7 +5845,7 @@
       <c r="B109" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="27" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -5857,7 +5863,7 @@
       <c r="B110" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -5875,7 +5881,7 @@
       <c r="B111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="27" t="s">
         <v>209</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -5893,7 +5899,7 @@
       <c r="B112" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="27" t="s">
         <v>504</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -5911,7 +5917,7 @@
       <c r="B113" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="27" t="s">
         <v>294</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -5929,7 +5935,7 @@
       <c r="B114" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="27" t="s">
         <v>414</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -5947,7 +5953,7 @@
       <c r="B115" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="27" t="s">
         <v>212</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -5965,7 +5971,7 @@
       <c r="B116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="27" t="s">
         <v>380</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -5983,7 +5989,7 @@
       <c r="B117" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="27" t="s">
         <v>289</v>
       </c>
       <c r="D117" s="18" t="s">
@@ -5999,7 +6005,7 @@
       <c r="B118" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="27" t="s">
         <v>214</v>
       </c>
       <c r="D118" s="18" t="s">
@@ -6015,7 +6021,7 @@
       <c r="B119" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="27" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -6033,7 +6039,7 @@
       <c r="B120" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="27" t="s">
         <v>529</v>
       </c>
       <c r="D120" s="18" t="s">
@@ -6049,7 +6055,7 @@
       <c r="B121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -6067,7 +6073,7 @@
       <c r="B122" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="27" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -6085,7 +6091,7 @@
       <c r="B123" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6103,7 +6109,7 @@
       <c r="B124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="27" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -6121,7 +6127,7 @@
       <c r="B125" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -6139,7 +6145,7 @@
       <c r="B126" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D126" s="18" t="s">
@@ -6155,7 +6161,7 @@
       <c r="B127" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -6173,7 +6179,7 @@
       <c r="B128" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -6191,7 +6197,7 @@
       <c r="B129" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -6209,7 +6215,7 @@
       <c r="B130" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="C130" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -6227,7 +6233,7 @@
       <c r="B131" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D131" s="18" t="s">
@@ -6243,7 +6249,7 @@
       <c r="B132" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="C132" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -6261,7 +6267,7 @@
       <c r="B133" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="28" t="s">
+      <c r="C133" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -6279,7 +6285,7 @@
       <c r="B134" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C134" s="28" t="s">
+      <c r="C134" s="27" t="s">
         <v>219</v>
       </c>
       <c r="D134" s="18" t="s">
@@ -6295,7 +6301,7 @@
       <c r="B135" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="28" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -6313,7 +6319,7 @@
       <c r="B136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C136" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -6331,7 +6337,7 @@
       <c r="B137" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="C137" s="27" t="s">
         <v>220</v>
       </c>
       <c r="D137" s="18" t="s">
@@ -6347,7 +6353,7 @@
       <c r="B138" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="28" t="s">
+      <c r="C138" s="27" t="s">
         <v>222</v>
       </c>
       <c r="D138" s="18" t="s">
@@ -6363,7 +6369,7 @@
       <c r="B139" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="27" t="s">
         <v>301</v>
       </c>
       <c r="D139" s="18" t="s">
@@ -6379,7 +6385,7 @@
       <c r="B140" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="28" t="s">
+      <c r="C140" s="27" t="s">
         <v>278</v>
       </c>
       <c r="D140" s="18" t="s">
@@ -6395,7 +6401,7 @@
       <c r="B141" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C141" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -6413,7 +6419,7 @@
       <c r="B142" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C142" s="28" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -6431,7 +6437,7 @@
       <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C143" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -6449,7 +6455,7 @@
       <c r="B144" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D144" s="18" t="s">
@@ -6465,7 +6471,7 @@
       <c r="B145" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D145" s="18" t="s">
@@ -6481,7 +6487,7 @@
       <c r="B146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C146" s="28" t="s">
+      <c r="C146" s="27" t="s">
         <v>287</v>
       </c>
       <c r="D146" s="18" t="s">
@@ -6497,7 +6503,7 @@
       <c r="B147" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -6515,7 +6521,7 @@
       <c r="B148" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C148" s="27" t="s">
         <v>443</v>
       </c>
       <c r="D148" s="18" t="s">
@@ -6531,7 +6537,7 @@
       <c r="B149" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C149" s="28" t="s">
+      <c r="C149" s="27" t="s">
         <v>471</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -6549,7 +6555,7 @@
       <c r="B150" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C150" s="28" t="s">
+      <c r="C150" s="27" t="s">
         <v>473</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -6567,7 +6573,7 @@
       <c r="B151" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C151" s="30" t="s">
+      <c r="C151" s="29" t="s">
         <v>475</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -6585,7 +6591,7 @@
       <c r="B152" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C152" s="28" t="s">
+      <c r="C152" s="27" t="s">
         <v>477</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -6603,7 +6609,7 @@
       <c r="B153" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C153" s="28" t="s">
+      <c r="C153" s="27" t="s">
         <v>143</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -6623,7 +6629,7 @@
       <c r="B154" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="C154" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6643,7 +6649,7 @@
       <c r="B155" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C155" s="28" t="s">
+      <c r="C155" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -6661,7 +6667,7 @@
       <c r="B156" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="C156" s="27" t="s">
         <v>329</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -6679,7 +6685,7 @@
       <c r="B157" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="28" t="s">
+      <c r="C157" s="27" t="s">
         <v>139</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -6697,7 +6703,7 @@
       <c r="B158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="28" t="s">
+      <c r="C158" s="27" t="s">
         <v>140</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -6715,7 +6721,7 @@
       <c r="B159" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C159" s="28" t="s">
+      <c r="C159" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -6733,7 +6739,7 @@
       <c r="B160" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="27" t="s">
         <v>142</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -6751,7 +6757,7 @@
       <c r="B161" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C161" s="28" t="s">
+      <c r="C161" s="27" t="s">
         <v>382</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -6769,7 +6775,7 @@
       <c r="B162" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="27" t="s">
         <v>464</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -6787,7 +6793,7 @@
       <c r="B163" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="27" t="s">
         <v>228</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -6807,7 +6813,7 @@
       <c r="B164" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C164" s="28" t="s">
+      <c r="C164" s="27" t="s">
         <v>233</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -6825,7 +6831,7 @@
       <c r="B165" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C165" s="28" t="s">
+      <c r="C165" s="27" t="s">
         <v>149</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -6843,7 +6849,7 @@
       <c r="B166" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C166" s="28" t="s">
+      <c r="C166" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -6861,7 +6867,7 @@
       <c r="B167" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C167" s="28" t="s">
+      <c r="C167" s="27" t="s">
         <v>146</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -6879,7 +6885,7 @@
       <c r="B168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C168" s="28" t="s">
+      <c r="C168" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -6897,7 +6903,7 @@
       <c r="B169" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="27" t="s">
         <v>235</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -6915,7 +6921,7 @@
       <c r="B170" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -6935,7 +6941,7 @@
       <c r="B171" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C171" s="28" t="s">
+      <c r="C171" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -6955,7 +6961,7 @@
       <c r="B172" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C172" s="27" t="s">
         <v>147</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -6973,7 +6979,7 @@
       <c r="B173" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="28" t="s">
+      <c r="C173" s="27" t="s">
         <v>330</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -6991,7 +6997,7 @@
       <c r="B174" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="28" t="s">
+      <c r="C174" s="27" t="s">
         <v>271</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -7009,7 +7015,7 @@
       <c r="B175" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C175" s="28" t="s">
+      <c r="C175" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -7027,7 +7033,7 @@
       <c r="B176" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C176" s="28" t="s">
+      <c r="C176" s="27" t="s">
         <v>273</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -7047,7 +7053,7 @@
       <c r="B177" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C177" s="28" t="s">
+      <c r="C177" s="27" t="s">
         <v>415</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -7065,7 +7071,7 @@
       <c r="B178" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C178" s="28" t="s">
+      <c r="C178" s="27" t="s">
         <v>416</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -7083,7 +7089,7 @@
       <c r="B179" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C179" s="31">
+      <c r="C179" s="30">
         <v>5500</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -7101,7 +7107,7 @@
       <c r="B180" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C180" s="28" t="s">
+      <c r="C180" s="27" t="s">
         <v>314</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -7119,7 +7125,7 @@
       <c r="B181" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C181" s="28" t="s">
+      <c r="C181" s="27" t="s">
         <v>241</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -7137,7 +7143,7 @@
       <c r="B182" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C182" s="28" t="s">
+      <c r="C182" s="27" t="s">
         <v>406</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -7155,7 +7161,7 @@
       <c r="B183" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C183" s="28" t="s">
+      <c r="C183" s="27" t="s">
         <v>407</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -7173,7 +7179,7 @@
       <c r="B184" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C184" s="28" t="s">
+      <c r="C184" s="27" t="s">
         <v>408</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -7193,7 +7199,7 @@
       <c r="B185" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C185" s="28" t="s">
+      <c r="C185" s="27" t="s">
         <v>507</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -7213,7 +7219,7 @@
       <c r="B186" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="28" t="s">
+      <c r="C186" s="27" t="s">
         <v>97</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -7231,7 +7237,7 @@
       <c r="B187" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C187" s="28" t="s">
+      <c r="C187" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -7249,7 +7255,7 @@
       <c r="B188" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C188" s="28" t="s">
+      <c r="C188" s="27" t="s">
         <v>68</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -7267,7 +7273,7 @@
       <c r="B189" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C189" s="28" t="s">
+      <c r="C189" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -7285,7 +7291,7 @@
       <c r="B190" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -7303,7 +7309,7 @@
       <c r="B191" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C191" s="28" t="s">
+      <c r="C191" s="27" t="s">
         <v>74</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -7321,7 +7327,7 @@
       <c r="B192" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C192" s="28" t="s">
+      <c r="C192" s="27" t="s">
         <v>98</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -7339,7 +7345,7 @@
       <c r="B193" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C193" s="28" t="s">
+      <c r="C193" s="27" t="s">
         <v>99</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -7357,7 +7363,7 @@
       <c r="B194" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C194" s="28" t="s">
+      <c r="C194" s="27" t="s">
         <v>462</v>
       </c>
       <c r="D194" s="18" t="s">
@@ -7373,7 +7379,7 @@
       <c r="B195" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C195" s="28" t="s">
+      <c r="C195" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -7391,7 +7397,7 @@
       <c r="B196" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C196" s="28" t="s">
+      <c r="C196" s="27" t="s">
         <v>100</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -7409,7 +7415,7 @@
       <c r="B197" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="28" t="s">
+      <c r="C197" s="27" t="s">
         <v>423</v>
       </c>
       <c r="D197" s="18" t="s">
@@ -7425,7 +7431,7 @@
       <c r="B198" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C198" s="28" t="s">
+      <c r="C198" s="27" t="s">
         <v>490</v>
       </c>
       <c r="D198" s="18" t="s">
@@ -7441,7 +7447,7 @@
       <c r="B199" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C199" s="28" t="s">
+      <c r="C199" s="27" t="s">
         <v>101</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -7459,7 +7465,7 @@
       <c r="B200" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C200" s="28" t="s">
+      <c r="C200" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -7475,7 +7481,7 @@
       <c r="B201" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C201" s="28" t="s">
+      <c r="C201" s="27" t="s">
         <v>540</v>
       </c>
       <c r="D201" s="18" t="s">
@@ -7491,7 +7497,7 @@
       <c r="B202" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C202" s="28" t="s">
+      <c r="C202" s="27" t="s">
         <v>518</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -7509,7 +7515,7 @@
       <c r="B203" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C203" s="28" t="s">
+      <c r="C203" s="27" t="s">
         <v>460</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -7527,7 +7533,7 @@
       <c r="B204" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C204" s="28" t="s">
+      <c r="C204" s="27" t="s">
         <v>249</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -7545,7 +7551,7 @@
       <c r="B205" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C205" s="28" t="s">
+      <c r="C205" s="27" t="s">
         <v>545</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -7563,7 +7569,7 @@
       <c r="B206" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="28" t="s">
+      <c r="C206" s="27" t="s">
         <v>112</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -7581,7 +7587,7 @@
       <c r="B207" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C207" s="28" t="s">
+      <c r="C207" s="27" t="s">
         <v>111</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -7599,7 +7605,7 @@
       <c r="B208" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C208" s="28" t="s">
+      <c r="C208" s="27" t="s">
         <v>113</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -7617,7 +7623,7 @@
       <c r="B209" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C209" s="28" t="s">
+      <c r="C209" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -7635,7 +7641,7 @@
       <c r="B210" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C210" s="28" t="s">
+      <c r="C210" s="27" t="s">
         <v>119</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -7653,7 +7659,7 @@
       <c r="B211" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C211" s="29" t="s">
+      <c r="C211" s="28" t="s">
         <v>123</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -7671,7 +7677,7 @@
       <c r="B212" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="28" t="s">
+      <c r="C212" s="27" t="s">
         <v>126</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -7689,7 +7695,7 @@
       <c r="B213" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C213" s="28" t="s">
+      <c r="C213" s="27" t="s">
         <v>117</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -7707,7 +7713,7 @@
       <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C214" s="29" t="s">
+      <c r="C214" s="28" t="s">
         <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -7725,7 +7731,7 @@
       <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C215" s="29" t="s">
+      <c r="C215" s="28" t="s">
         <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -7743,7 +7749,7 @@
       <c r="B216" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C216" s="28" t="s">
+      <c r="C216" s="27" t="s">
         <v>256</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -7761,7 +7767,7 @@
       <c r="B217" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C217" s="28" t="s">
+      <c r="C217" s="27" t="s">
         <v>257</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -7779,7 +7785,7 @@
       <c r="B218" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C218" s="28" t="s">
+      <c r="C218" s="27" t="s">
         <v>108</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -7797,7 +7803,7 @@
       <c r="B219" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="29" t="s">
+      <c r="C219" s="28" t="s">
         <v>316</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -7815,7 +7821,7 @@
       <c r="B220" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C220" s="28" t="s">
+      <c r="C220" s="27" t="s">
         <v>129</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -7833,7 +7839,7 @@
       <c r="B221" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C221" s="28" t="s">
+      <c r="C221" s="27" t="s">
         <v>542</v>
       </c>
       <c r="D221" s="18" t="s">
@@ -7849,7 +7855,7 @@
       <c r="B222" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C222" s="28" t="s">
+      <c r="C222" s="27" t="s">
         <v>494</v>
       </c>
       <c r="D222" s="18" t="s">
@@ -7865,7 +7871,7 @@
       <c r="B223" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="27" t="s">
         <v>448</v>
       </c>
       <c r="D223" s="18" t="s">
@@ -7881,7 +7887,7 @@
       <c r="B224" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="27" t="s">
         <v>450</v>
       </c>
       <c r="D224" s="18" t="s">
@@ -7897,7 +7903,7 @@
       <c r="B225" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="27" t="s">
         <v>132</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -7915,7 +7921,7 @@
       <c r="B226" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C226" s="28" t="s">
+      <c r="C226" s="27" t="s">
         <v>116</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -7933,7 +7939,7 @@
       <c r="B227" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C227" s="28" t="s">
+      <c r="C227" s="27" t="s">
         <v>131</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -7951,7 +7957,7 @@
       <c r="B228" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C228" s="28" t="s">
+      <c r="C228" s="27" t="s">
         <v>291</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -7969,7 +7975,7 @@
       <c r="B229" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C229" s="28" t="s">
+      <c r="C229" s="27" t="s">
         <v>109</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -7987,7 +7993,7 @@
       <c r="B230" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C230" s="28" t="s">
+      <c r="C230" s="27" t="s">
         <v>120</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -8005,7 +8011,7 @@
       <c r="B231" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C231" s="28" t="s">
+      <c r="C231" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -8023,7 +8029,7 @@
       <c r="B232" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C232" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -8041,7 +8047,7 @@
       <c r="B233" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C233" s="30" t="s">
+      <c r="C233" s="29" t="s">
         <v>261</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -8059,7 +8065,7 @@
       <c r="B234" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C234" s="28" t="s">
+      <c r="C234" s="27" t="s">
         <v>262</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -8077,7 +8083,7 @@
       <c r="B235" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C235" s="29" t="s">
+      <c r="C235" s="28" t="s">
         <v>135</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -8095,7 +8101,7 @@
       <c r="B236" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C236" s="28" t="s">
+      <c r="C236" s="27" t="s">
         <v>134</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -8113,7 +8119,7 @@
       <c r="B237" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C237" s="29" t="s">
+      <c r="C237" s="28" t="s">
         <v>133</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -8131,7 +8137,7 @@
       <c r="B238" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C238" s="28" t="s">
+      <c r="C238" s="27" t="s">
         <v>409</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -8149,7 +8155,7 @@
       <c r="B239" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="27" t="s">
         <v>130</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -8167,7 +8173,7 @@
       <c r="B240" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C240" s="29" t="s">
+      <c r="C240" s="28" t="s">
         <v>328</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -8185,7 +8191,7 @@
       <c r="B241" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C241" s="28" t="s">
+      <c r="C241" s="27" t="s">
         <v>320</v>
       </c>
       <c r="D241" s="18" t="s">
@@ -8201,7 +8207,7 @@
       <c r="B242" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="C242" s="28" t="s">
         <v>110</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -8219,7 +8225,7 @@
       <c r="B243" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C243" s="28" t="s">
+      <c r="C243" s="27" t="s">
         <v>263</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -8237,7 +8243,7 @@
       <c r="B244" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C244" s="28" t="s">
+      <c r="C244" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -8255,7 +8261,7 @@
       <c r="B245" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="28" t="s">
+      <c r="C245" s="27" t="s">
         <v>265</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -8273,7 +8279,7 @@
       <c r="B246" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C246" s="28" t="s">
+      <c r="C246" s="27" t="s">
         <v>266</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -8291,7 +8297,7 @@
       <c r="B247" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C247" s="28" t="s">
+      <c r="C247" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -8309,7 +8315,7 @@
       <c r="B248" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C248" s="28" t="s">
+      <c r="C248" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -8327,7 +8333,7 @@
       <c r="B249" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C249" s="28" t="s">
+      <c r="C249" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -8345,7 +8351,7 @@
       <c r="B250" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C250" s="28" t="s">
+      <c r="C250" s="27" t="s">
         <v>268</v>
       </c>
       <c r="D250" s="18" t="s">
@@ -8361,7 +8367,7 @@
       <c r="B251" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C251" s="28" t="s">
+      <c r="C251" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -8379,7 +8385,7 @@
       <c r="B252" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C252" s="28" t="s">
+      <c r="C252" s="27" t="s">
         <v>428</v>
       </c>
       <c r="D252" s="18" t="s">
@@ -8395,7 +8401,7 @@
       <c r="B253" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C253" s="28" t="s">
+      <c r="C253" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -8413,7 +8419,7 @@
       <c r="B254" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C254" s="28" t="s">
+      <c r="C254" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -8431,7 +8437,7 @@
       <c r="B255" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C255" s="28" t="s">
+      <c r="C255" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -8449,7 +8455,7 @@
       <c r="B256" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C256" s="28" t="s">
+      <c r="C256" s="27" t="s">
         <v>321</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -8459,10 +8465,10 @@
       <c r="F256" s="15"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="32"/>
+      <c r="C257" s="31"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="32"/>
+      <c r="C258" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G262"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D721CC6-DF92-4CC5-A30A-EFC8894BBF4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -1855,38 +1856,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="30">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0000000"/>
-    <numFmt numFmtId="178" formatCode="General_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0"/>
-    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="0000000"/>
+    <numFmt numFmtId="176" formatCode="General_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.0"/>
+    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -2685,20 +2686,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2706,25 +2707,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2732,16 +2733,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2752,30 +2753,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2808,15 +2809,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2828,8 +2829,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2843,8 +2844,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2882,9 +2883,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2906,11 +2907,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2928,25 +2929,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3042,143 +3043,143 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
-    <cellStyle name="Calc Currency (0)" xfId="28"/>
-    <cellStyle name="Calc Currency (2)" xfId="29"/>
-    <cellStyle name="Calc Percent (0)" xfId="30"/>
-    <cellStyle name="Calc Percent (1)" xfId="31"/>
-    <cellStyle name="Calc Percent (2)" xfId="32"/>
-    <cellStyle name="Calc Units (0)" xfId="33"/>
-    <cellStyle name="Calc Units (1)" xfId="34"/>
-    <cellStyle name="Calc Units (2)" xfId="35"/>
-    <cellStyle name="category" xfId="36"/>
-    <cellStyle name="Comma [00]" xfId="37"/>
-    <cellStyle name="comma zerodec" xfId="38"/>
-    <cellStyle name="Currency [00]" xfId="39"/>
-    <cellStyle name="Currency1" xfId="40"/>
-    <cellStyle name="Date Short" xfId="41"/>
-    <cellStyle name="DELTA" xfId="42"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44"/>
-    <cellStyle name="Eingabefeld" xfId="45"/>
-    <cellStyle name="Eingaben" xfId="46"/>
-    <cellStyle name="EingabenWr" xfId="47"/>
-    <cellStyle name="Enter Currency (0)" xfId="48"/>
-    <cellStyle name="Enter Currency (2)" xfId="49"/>
-    <cellStyle name="Enter Units (0)" xfId="50"/>
-    <cellStyle name="Enter Units (1)" xfId="51"/>
-    <cellStyle name="Enter Units (2)" xfId="52"/>
-    <cellStyle name="Ergebnisse" xfId="53"/>
-    <cellStyle name="Euro" xfId="54"/>
-    <cellStyle name="Grey" xfId="55"/>
-    <cellStyle name="HEADER" xfId="56"/>
-    <cellStyle name="Header1" xfId="57"/>
-    <cellStyle name="Header2" xfId="58"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
-    <cellStyle name="iles|_x0005_h" xfId="70"/>
-    <cellStyle name="Input [yellow]" xfId="71"/>
-    <cellStyle name="les" xfId="72"/>
-    <cellStyle name="Link Currency (0)" xfId="73"/>
-    <cellStyle name="Link Currency (2)" xfId="74"/>
-    <cellStyle name="Link Units (0)" xfId="75"/>
-    <cellStyle name="Link Units (1)" xfId="76"/>
-    <cellStyle name="Link Units (2)" xfId="77"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79"/>
-    <cellStyle name="Model" xfId="80"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
-    <cellStyle name="Normal - Style1" xfId="83"/>
-    <cellStyle name="Normal 11" xfId="84"/>
-    <cellStyle name="Normal 133" xfId="85"/>
-    <cellStyle name="Normal 2" xfId="86"/>
-    <cellStyle name="Normal 2 2" xfId="87"/>
-    <cellStyle name="Normal 2 2 2" xfId="88"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
-    <cellStyle name="Normal 2 2 3" xfId="91"/>
-    <cellStyle name="Normal 2 3" xfId="92"/>
-    <cellStyle name="Normal 2 3 2" xfId="93"/>
-    <cellStyle name="Normal 2 3 3" xfId="94"/>
-    <cellStyle name="Normal 2 4" xfId="95"/>
-    <cellStyle name="Normal 2 4 2" xfId="96"/>
-    <cellStyle name="Normal 2 5" xfId="97"/>
-    <cellStyle name="Normal 3" xfId="98"/>
-    <cellStyle name="Normal 3 2" xfId="99"/>
-    <cellStyle name="Normal 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 3 3" xfId="101"/>
-    <cellStyle name="Normal 3 3 2" xfId="102"/>
-    <cellStyle name="Normal 3 3 3" xfId="103"/>
-    <cellStyle name="Normal 3 4" xfId="104"/>
-    <cellStyle name="Normal 3 4 2" xfId="105"/>
-    <cellStyle name="Normal 3 4 3" xfId="106"/>
-    <cellStyle name="Normal 4" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 6" xfId="109"/>
-    <cellStyle name="Normal 7" xfId="110"/>
-    <cellStyle name="Normal 7 2" xfId="111"/>
-    <cellStyle name="Normal 8" xfId="112"/>
-    <cellStyle name="Normal 9" xfId="113"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
-    <cellStyle name="ParaBirimi 2" xfId="115"/>
-    <cellStyle name="Percent [0]" xfId="116"/>
-    <cellStyle name="Percent [00]" xfId="117"/>
-    <cellStyle name="Percent [2]" xfId="118"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120"/>
-    <cellStyle name="PrePop Units (0)" xfId="121"/>
-    <cellStyle name="PrePop Units (1)" xfId="122"/>
-    <cellStyle name="PrePop Units (2)" xfId="123"/>
-    <cellStyle name="Prozent 2" xfId="124"/>
-    <cellStyle name="R?" xfId="125"/>
-    <cellStyle name="sche|_x0005_" xfId="126"/>
-    <cellStyle name="Standard 2" xfId="127"/>
-    <cellStyle name="Standard 2 2" xfId="128"/>
-    <cellStyle name="Standard 3" xfId="129"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
-    <cellStyle name="subhead" xfId="131"/>
-    <cellStyle name="Text Indent A" xfId="132"/>
-    <cellStyle name="Text Indent B" xfId="133"/>
-    <cellStyle name="Text Indent C" xfId="134"/>
-    <cellStyle name="Ueberschriften" xfId="135"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
-    <cellStyle name="Yüzde 2" xfId="137"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3188,98 +3189,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147"/>
-    <cellStyle name="Денежный 2" xfId="148"/>
-    <cellStyle name="Денежный 3" xfId="149"/>
+    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156"/>
+    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158"/>
-    <cellStyle name="Обычный 10 2" xfId="159"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160"/>
-    <cellStyle name="Обычный 14" xfId="161"/>
-    <cellStyle name="Обычный 15" xfId="162"/>
-    <cellStyle name="Обычный 2" xfId="163"/>
-    <cellStyle name="Обычный 2 2" xfId="164"/>
-    <cellStyle name="Обычный 2 3" xfId="165"/>
-    <cellStyle name="Обычный 2 4" xfId="166"/>
-    <cellStyle name="Обычный 3" xfId="167"/>
-    <cellStyle name="Обычный 3 2" xfId="168"/>
-    <cellStyle name="Обычный 3 3" xfId="169"/>
-    <cellStyle name="Обычный 4" xfId="170"/>
-    <cellStyle name="Обычный 4 2" xfId="171"/>
-    <cellStyle name="Обычный 4 3" xfId="172"/>
-    <cellStyle name="Обычный 5" xfId="173"/>
-    <cellStyle name="Обычный 5 2" xfId="174"/>
-    <cellStyle name="Обычный_0" xfId="175"/>
+    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179"/>
-    <cellStyle name="Процентный 2" xfId="180"/>
-    <cellStyle name="Процентный 3" xfId="181"/>
-    <cellStyle name="Процентный 3 2" xfId="182"/>
-    <cellStyle name="Процентный 3 3" xfId="183"/>
-    <cellStyle name="Процентный 4" xfId="184"/>
+    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187"/>
-    <cellStyle name="Финансовый 3" xfId="188"/>
-    <cellStyle name="Финансовый 9" xfId="189"/>
+    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
-    <cellStyle name="백분율 2" xfId="199"/>
-    <cellStyle name="백분율 3" xfId="200"/>
-    <cellStyle name="백분율 3 2" xfId="201"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
-    <cellStyle name="스타일 1" xfId="207"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
-    <cellStyle name="콤마_0009-1" xfId="210"/>
-    <cellStyle name="표준 2" xfId="211"/>
-    <cellStyle name="표준 2 2" xfId="212"/>
-    <cellStyle name="표준 3" xfId="213"/>
-    <cellStyle name="표준 3 2" xfId="214"/>
-    <cellStyle name="一般_家樂福" xfId="215"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216"/>
-    <cellStyle name="千分位_laroux" xfId="217"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
-    <cellStyle name="常规_Sheet1" xfId="229"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
-    <cellStyle name="貨幣_laroux" xfId="234"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3556,11 +3557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3568,7 +3569,8 @@
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.140625" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
     <col min="8" max="10" width="9.140625" hidden="1" customWidth="1"/>
@@ -4052,7 +4054,7 @@
       <c r="B22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4073,7 +4075,7 @@
       <c r="B23" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4094,7 +4096,7 @@
       <c r="B24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4115,7 +4117,7 @@
       <c r="B25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4136,7 +4138,7 @@
       <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4157,7 +4159,7 @@
       <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4178,7 +4180,7 @@
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4199,7 +4201,7 @@
       <c r="B29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4220,7 +4222,7 @@
       <c r="B30" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4241,7 +4243,7 @@
       <c r="B31" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="19" t="s">
         <v>515</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -8471,14 +8473,14 @@
       <c r="C258" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262"/>
+  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D721CC6-DF92-4CC5-A30A-EFC8894BBF4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD73A4C0-424E-4637-A735-171AC726C6E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$2:$G$262</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2954,7 +2955,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3041,6 +3042,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3560,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4264,7 +4268,7 @@
       <c r="B32" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4285,7 +4289,7 @@
       <c r="B33" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4306,7 +4310,7 @@
       <c r="B34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4327,7 +4331,7 @@
       <c r="B35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4432,7 +4436,7 @@
       <c r="B40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4453,7 +4457,7 @@
       <c r="B41" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4495,7 +4499,7 @@
       <c r="B43" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4516,7 +4520,7 @@
       <c r="B44" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4537,7 +4541,7 @@
       <c r="B45" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4558,7 +4562,7 @@
       <c r="B46" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4642,7 +4646,7 @@
       <c r="B50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4663,7 +4667,7 @@
       <c r="B51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4705,7 +4709,7 @@
       <c r="B53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="19" t="s">
         <v>412</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4848,7 +4852,7 @@
       <c r="B60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4867,7 +4871,7 @@
       <c r="B61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4928,7 +4932,7 @@
       <c r="B64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4949,7 +4953,7 @@
       <c r="B65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4970,7 +4974,7 @@
       <c r="B66" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4991,7 +4995,7 @@
       <c r="B67" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5012,7 +5016,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5033,7 +5037,7 @@
       <c r="B69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5075,7 +5079,7 @@
       <c r="B71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5155,7 +5159,7 @@
       <c r="B75" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD73A4C0-424E-4637-A735-171AC726C6E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -20,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$2:$G$262</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="610">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -1852,43 +1850,46 @@
   </si>
   <si>
     <t>потом ещё раз, дождавшись ответа от руслана</t>
+  </si>
+  <si>
+    <t>Enjxybnm rfrfz le[jdrf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="30">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="0000000"/>
-    <numFmt numFmtId="176" formatCode="General_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0000000"/>
+    <numFmt numFmtId="178" formatCode="General_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#,##0.0"/>
+    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -2687,20 +2688,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2708,25 +2709,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2734,16 +2735,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2754,30 +2755,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2810,15 +2811,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2830,8 +2831,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2845,8 +2846,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2884,9 +2885,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2908,11 +2909,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2930,25 +2931,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3047,143 +3048,143 @@
     </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
+    <cellStyle name="Calc Currency (0)" xfId="28"/>
+    <cellStyle name="Calc Currency (2)" xfId="29"/>
+    <cellStyle name="Calc Percent (0)" xfId="30"/>
+    <cellStyle name="Calc Percent (1)" xfId="31"/>
+    <cellStyle name="Calc Percent (2)" xfId="32"/>
+    <cellStyle name="Calc Units (0)" xfId="33"/>
+    <cellStyle name="Calc Units (1)" xfId="34"/>
+    <cellStyle name="Calc Units (2)" xfId="35"/>
+    <cellStyle name="category" xfId="36"/>
+    <cellStyle name="Comma [00]" xfId="37"/>
+    <cellStyle name="comma zerodec" xfId="38"/>
+    <cellStyle name="Currency [00]" xfId="39"/>
+    <cellStyle name="Currency1" xfId="40"/>
+    <cellStyle name="Date Short" xfId="41"/>
+    <cellStyle name="DELTA" xfId="42"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44"/>
+    <cellStyle name="Eingabefeld" xfId="45"/>
+    <cellStyle name="Eingaben" xfId="46"/>
+    <cellStyle name="EingabenWr" xfId="47"/>
+    <cellStyle name="Enter Currency (0)" xfId="48"/>
+    <cellStyle name="Enter Currency (2)" xfId="49"/>
+    <cellStyle name="Enter Units (0)" xfId="50"/>
+    <cellStyle name="Enter Units (1)" xfId="51"/>
+    <cellStyle name="Enter Units (2)" xfId="52"/>
+    <cellStyle name="Ergebnisse" xfId="53"/>
+    <cellStyle name="Euro" xfId="54"/>
+    <cellStyle name="Grey" xfId="55"/>
+    <cellStyle name="HEADER" xfId="56"/>
+    <cellStyle name="Header1" xfId="57"/>
+    <cellStyle name="Header2" xfId="58"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
+    <cellStyle name="iles|_x0005_h" xfId="70"/>
+    <cellStyle name="Input [yellow]" xfId="71"/>
+    <cellStyle name="les" xfId="72"/>
+    <cellStyle name="Link Currency (0)" xfId="73"/>
+    <cellStyle name="Link Currency (2)" xfId="74"/>
+    <cellStyle name="Link Units (0)" xfId="75"/>
+    <cellStyle name="Link Units (1)" xfId="76"/>
+    <cellStyle name="Link Units (2)" xfId="77"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79"/>
+    <cellStyle name="Model" xfId="80"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
+    <cellStyle name="Normal - Style1" xfId="83"/>
+    <cellStyle name="Normal 11" xfId="84"/>
+    <cellStyle name="Normal 133" xfId="85"/>
+    <cellStyle name="Normal 2" xfId="86"/>
+    <cellStyle name="Normal 2 2" xfId="87"/>
+    <cellStyle name="Normal 2 2 2" xfId="88"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
+    <cellStyle name="Normal 2 2 3" xfId="91"/>
+    <cellStyle name="Normal 2 3" xfId="92"/>
+    <cellStyle name="Normal 2 3 2" xfId="93"/>
+    <cellStyle name="Normal 2 3 3" xfId="94"/>
+    <cellStyle name="Normal 2 4" xfId="95"/>
+    <cellStyle name="Normal 2 4 2" xfId="96"/>
+    <cellStyle name="Normal 2 5" xfId="97"/>
+    <cellStyle name="Normal 3" xfId="98"/>
+    <cellStyle name="Normal 3 2" xfId="99"/>
+    <cellStyle name="Normal 3 2 2" xfId="100"/>
+    <cellStyle name="Normal 3 3" xfId="101"/>
+    <cellStyle name="Normal 3 3 2" xfId="102"/>
+    <cellStyle name="Normal 3 3 3" xfId="103"/>
+    <cellStyle name="Normal 3 4" xfId="104"/>
+    <cellStyle name="Normal 3 4 2" xfId="105"/>
+    <cellStyle name="Normal 3 4 3" xfId="106"/>
+    <cellStyle name="Normal 4" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 6" xfId="109"/>
+    <cellStyle name="Normal 7" xfId="110"/>
+    <cellStyle name="Normal 7 2" xfId="111"/>
+    <cellStyle name="Normal 8" xfId="112"/>
+    <cellStyle name="Normal 9" xfId="113"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
+    <cellStyle name="ParaBirimi 2" xfId="115"/>
+    <cellStyle name="Percent [0]" xfId="116"/>
+    <cellStyle name="Percent [00]" xfId="117"/>
+    <cellStyle name="Percent [2]" xfId="118"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120"/>
+    <cellStyle name="PrePop Units (0)" xfId="121"/>
+    <cellStyle name="PrePop Units (1)" xfId="122"/>
+    <cellStyle name="PrePop Units (2)" xfId="123"/>
+    <cellStyle name="Prozent 2" xfId="124"/>
+    <cellStyle name="R?" xfId="125"/>
+    <cellStyle name="sche|_x0005_" xfId="126"/>
+    <cellStyle name="Standard 2" xfId="127"/>
+    <cellStyle name="Standard 2 2" xfId="128"/>
+    <cellStyle name="Standard 3" xfId="129"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
+    <cellStyle name="subhead" xfId="131"/>
+    <cellStyle name="Text Indent A" xfId="132"/>
+    <cellStyle name="Text Indent B" xfId="133"/>
+    <cellStyle name="Text Indent C" xfId="134"/>
+    <cellStyle name="Ueberschriften" xfId="135"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
+    <cellStyle name="Yüzde 2" xfId="137"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3193,98 +3194,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Гиперссылка 2" xfId="147"/>
+    <cellStyle name="Денежный 2" xfId="148"/>
+    <cellStyle name="Денежный 3" xfId="149"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Название 2" xfId="156"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Обычный 10" xfId="158"/>
+    <cellStyle name="Обычный 10 2" xfId="159"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160"/>
+    <cellStyle name="Обычный 14" xfId="161"/>
+    <cellStyle name="Обычный 15" xfId="162"/>
+    <cellStyle name="Обычный 2" xfId="163"/>
+    <cellStyle name="Обычный 2 2" xfId="164"/>
+    <cellStyle name="Обычный 2 3" xfId="165"/>
+    <cellStyle name="Обычный 2 4" xfId="166"/>
+    <cellStyle name="Обычный 3" xfId="167"/>
+    <cellStyle name="Обычный 3 2" xfId="168"/>
+    <cellStyle name="Обычный 3 3" xfId="169"/>
+    <cellStyle name="Обычный 4" xfId="170"/>
+    <cellStyle name="Обычный 4 2" xfId="171"/>
+    <cellStyle name="Обычный 4 3" xfId="172"/>
+    <cellStyle name="Обычный 5" xfId="173"/>
+    <cellStyle name="Обычный 5 2" xfId="174"/>
+    <cellStyle name="Обычный_0" xfId="175"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Примечание 2" xfId="179"/>
+    <cellStyle name="Процентный 2" xfId="180"/>
+    <cellStyle name="Процентный 3" xfId="181"/>
+    <cellStyle name="Процентный 3 2" xfId="182"/>
+    <cellStyle name="Процентный 3 3" xfId="183"/>
+    <cellStyle name="Процентный 4" xfId="184"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Финансовый 2" xfId="187"/>
+    <cellStyle name="Финансовый 3" xfId="188"/>
+    <cellStyle name="Финансовый 9" xfId="189"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
+    <cellStyle name="백분율 2" xfId="199"/>
+    <cellStyle name="백분율 3" xfId="200"/>
+    <cellStyle name="백분율 3 2" xfId="201"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
+    <cellStyle name="스타일 1" xfId="207"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
+    <cellStyle name="콤마_0009-1" xfId="210"/>
+    <cellStyle name="표준 2" xfId="211"/>
+    <cellStyle name="표준 2 2" xfId="212"/>
+    <cellStyle name="표준 3" xfId="213"/>
+    <cellStyle name="표준 3 2" xfId="214"/>
+    <cellStyle name="一般_家樂福" xfId="215"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216"/>
+    <cellStyle name="千分位_laroux" xfId="217"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
+    <cellStyle name="常规_Sheet1" xfId="229"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
+    <cellStyle name="貨幣_laroux" xfId="234"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3561,11 +3562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5243,7 +5244,7 @@
       <c r="B79" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5264,7 +5265,7 @@
       <c r="B80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5285,7 +5286,7 @@
       <c r="B81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5306,7 +5307,7 @@
       <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5327,7 +5328,7 @@
       <c r="B83" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="19" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5348,7 +5349,7 @@
       <c r="B84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5369,7 +5370,7 @@
       <c r="B85" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5390,7 +5391,7 @@
       <c r="B86" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5411,7 +5412,7 @@
       <c r="B87" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5429,7 +5430,7 @@
       <c r="B88" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5450,7 +5451,7 @@
       <c r="B89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="19" t="s">
         <v>326</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5555,7 +5556,7 @@
       <c r="B94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5576,7 +5577,7 @@
       <c r="B95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5597,7 +5598,7 @@
       <c r="B96" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5618,7 +5619,7 @@
       <c r="B97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5639,7 +5640,7 @@
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5648,7 +5649,9 @@
       <c r="E98" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F98" s="15"/>
+      <c r="F98" s="22" t="s">
+        <v>609</v>
+      </c>
       <c r="G98" s="12" t="s">
         <v>104</v>
       </c>
@@ -5660,7 +5663,7 @@
       <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5681,7 +5684,7 @@
       <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -8477,14 +8480,14 @@
       <c r="C258" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:G262"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1852,7 +1852,7 @@
     <t>потом ещё раз, дождавшись ответа от руслана</t>
   </si>
   <si>
-    <t>Enjxybnm rfrfz le[jdrf</t>
+    <t>Уточнить какая духовка</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1891,7 @@
     <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,6 +2311,33 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2956,7 +2983,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3009,9 +3036,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="58" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="59" fillId="0" borderId="0" xfId="175" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3019,9 +3043,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="175" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="58" fillId="0" borderId="0" xfId="175" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3043,7 +3064,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="63" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3565,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="B74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3620,7 +3653,7 @@
       <c r="B3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="30" t="s">
         <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3647,7 +3680,7 @@
       <c r="B4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3674,7 +3707,7 @@
       <c r="B5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="30" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3701,7 +3734,7 @@
       <c r="B6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="30" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3728,7 +3761,7 @@
       <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3755,13 +3788,13 @@
       <c r="B8" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="32">
         <v>7000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>607</v>
       </c>
       <c r="F8" s="15" t="s">
@@ -3784,7 +3817,7 @@
       <c r="B9" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="32">
         <v>6007</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3807,13 +3840,13 @@
       <c r="B10" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>533</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="15"/>
       <c r="G10" s="9" t="s">
         <v>548</v>
@@ -3826,13 +3859,13 @@
       <c r="B11" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>599</v>
       </c>
       <c r="F11" s="15"/>
@@ -3847,13 +3880,13 @@
       <c r="B12" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>513</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>599</v>
       </c>
       <c r="F12" s="15"/>
@@ -3868,7 +3901,7 @@
       <c r="B13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3889,7 +3922,7 @@
       <c r="B14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3910,7 +3943,7 @@
       <c r="B15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3931,7 +3964,7 @@
       <c r="B16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="30" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3952,7 +3985,7 @@
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3961,7 +3994,7 @@
       <c r="E17" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>608</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -3975,7 +4008,7 @@
       <c r="B18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="30" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3996,7 +4029,7 @@
       <c r="B19" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="30" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4017,7 +4050,7 @@
       <c r="B20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4038,7 +4071,7 @@
       <c r="B21" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="30" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4059,7 +4092,7 @@
       <c r="B22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4080,7 +4113,7 @@
       <c r="B23" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4101,7 +4134,7 @@
       <c r="B24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="30" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4122,7 +4155,7 @@
       <c r="B25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4143,7 +4176,7 @@
       <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="30" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4164,7 +4197,7 @@
       <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4185,7 +4218,7 @@
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4206,7 +4239,7 @@
       <c r="B29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="30" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4227,7 +4260,7 @@
       <c r="B30" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="30" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4248,7 +4281,7 @@
       <c r="B31" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="30" t="s">
         <v>515</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4269,7 +4302,7 @@
       <c r="B32" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4290,7 +4323,7 @@
       <c r="B33" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4311,7 +4344,7 @@
       <c r="B34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4332,7 +4365,7 @@
       <c r="B35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="30" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4353,7 +4386,7 @@
       <c r="B36" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>440</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -4374,7 +4407,7 @@
       <c r="B37" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>442</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -4395,7 +4428,7 @@
       <c r="B38" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>433</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -4416,7 +4449,7 @@
       <c r="B39" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>435</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -4437,7 +4470,7 @@
       <c r="B40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="30" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4458,7 +4491,7 @@
       <c r="B41" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="30" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4479,13 +4512,13 @@
       <c r="B42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>181</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F42" s="15"/>
@@ -4500,7 +4533,7 @@
       <c r="B43" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4521,7 +4554,7 @@
       <c r="B44" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4542,7 +4575,7 @@
       <c r="B45" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4563,7 +4596,7 @@
       <c r="B46" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="30" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4584,13 +4617,13 @@
       <c r="B47" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>373</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F47" s="15"/>
@@ -4605,13 +4638,13 @@
       <c r="B48" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="25" t="s">
         <v>374</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F48" s="15"/>
@@ -4626,13 +4659,13 @@
       <c r="B49" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="25" t="s">
         <v>419</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F49" s="15"/>
@@ -4647,7 +4680,7 @@
       <c r="B50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="30" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4668,7 +4701,7 @@
       <c r="B51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="30" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4689,13 +4722,13 @@
       <c r="B52" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="25" t="s">
         <v>388</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F52" s="15"/>
@@ -4710,7 +4743,7 @@
       <c r="B53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="30" t="s">
         <v>412</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4731,7 +4764,7 @@
       <c r="B54" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="30" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4752,13 +4785,13 @@
       <c r="B55" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="25" t="s">
         <v>538</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F55" s="15"/>
@@ -4773,13 +4806,13 @@
       <c r="B56" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="25" t="s">
         <v>480</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F56" s="15"/>
@@ -4794,7 +4827,7 @@
       <c r="B57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="30" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4815,7 +4848,7 @@
       <c r="B58" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="30" t="s">
         <v>137</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4834,13 +4867,13 @@
       <c r="B59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>186</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F59" s="15"/>
@@ -4853,7 +4886,7 @@
       <c r="B60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4872,7 +4905,7 @@
       <c r="B61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4891,13 +4924,13 @@
       <c r="B62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="25" t="s">
         <v>188</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F62" s="15"/>
@@ -4912,13 +4945,13 @@
       <c r="B63" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="25" t="s">
         <v>189</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F63" s="15"/>
@@ -4933,7 +4966,7 @@
       <c r="B64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4954,7 +4987,7 @@
       <c r="B65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4975,7 +5008,7 @@
       <c r="B66" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4996,7 +5029,7 @@
       <c r="B67" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5017,7 +5050,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5038,7 +5071,7 @@
       <c r="B69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5059,7 +5092,7 @@
       <c r="B70" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D70" s="18" t="s">
@@ -5080,7 +5113,7 @@
       <c r="B71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5101,7 +5134,7 @@
       <c r="B72" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="25" t="s">
         <v>292</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -5120,7 +5153,7 @@
       <c r="B73" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="25" t="s">
         <v>293</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -5139,13 +5172,13 @@
       <c r="B74" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="25" t="s">
         <v>298</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F74" s="15"/>
@@ -5160,7 +5193,7 @@
       <c r="B75" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5181,7 +5214,7 @@
       <c r="B76" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="25" t="s">
         <v>456</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -5202,7 +5235,7 @@
       <c r="B77" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>458</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5223,7 +5256,7 @@
       <c r="B78" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="25" t="s">
         <v>239</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -5244,7 +5277,7 @@
       <c r="B79" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5265,7 +5298,7 @@
       <c r="B80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5286,7 +5319,7 @@
       <c r="B81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="34" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5307,7 +5340,7 @@
       <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5328,7 +5361,7 @@
       <c r="B83" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5349,7 +5382,7 @@
       <c r="B84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="34" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5370,7 +5403,7 @@
       <c r="B85" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="34" t="s">
         <v>327</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5391,7 +5424,7 @@
       <c r="B86" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="34" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5412,7 +5445,7 @@
       <c r="B87" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="34" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5430,7 +5463,7 @@
       <c r="B88" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5451,7 +5484,7 @@
       <c r="B89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="34" t="s">
         <v>326</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5472,13 +5505,13 @@
       <c r="B90" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="25" t="s">
         <v>378</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F90" s="15"/>
@@ -5493,13 +5526,13 @@
       <c r="B91" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="25" t="s">
         <v>511</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F91" s="15"/>
@@ -5514,13 +5547,13 @@
       <c r="B92" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="25" t="s">
         <v>198</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F92" s="15"/>
@@ -5535,13 +5568,13 @@
       <c r="B93" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="25" t="s">
         <v>200</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F93" s="15"/>
@@ -5556,7 +5589,7 @@
       <c r="B94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5577,7 +5610,7 @@
       <c r="B95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5598,7 +5631,7 @@
       <c r="B96" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5619,7 +5652,7 @@
       <c r="B97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5640,7 +5673,7 @@
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5649,7 +5682,7 @@
       <c r="E98" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="F98" s="21" t="s">
         <v>609</v>
       </c>
       <c r="G98" s="12" t="s">
@@ -5663,7 +5696,7 @@
       <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5705,7 +5738,7 @@
       <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5726,7 +5759,7 @@
       <c r="B102" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5747,7 +5780,7 @@
       <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -5768,7 +5801,7 @@
       <c r="B104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -5786,7 +5819,7 @@
       <c r="B105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="25" t="s">
         <v>309</v>
       </c>
       <c r="D105" s="18" t="s">
@@ -5802,7 +5835,7 @@
       <c r="B106" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="25" t="s">
         <v>311</v>
       </c>
       <c r="D106" s="18" t="s">
@@ -5818,13 +5851,13 @@
       <c r="B107" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="25" t="s">
         <v>322</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F107" s="15"/>
@@ -5836,7 +5869,7 @@
       <c r="B108" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -5854,7 +5887,7 @@
       <c r="B109" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -5872,13 +5905,13 @@
       <c r="B110" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F110" s="15"/>
@@ -5890,13 +5923,13 @@
       <c r="B111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F111" s="15"/>
@@ -5908,7 +5941,7 @@
       <c r="B112" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="25" t="s">
         <v>504</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -5926,13 +5959,13 @@
       <c r="B113" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="25" t="s">
         <v>294</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F113" s="15"/>
@@ -5944,7 +5977,7 @@
       <c r="B114" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="25" t="s">
         <v>414</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -5962,7 +5995,7 @@
       <c r="B115" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="25" t="s">
         <v>212</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -5980,7 +6013,7 @@
       <c r="B116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="25" t="s">
         <v>380</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -5998,7 +6031,7 @@
       <c r="B117" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="25" t="s">
         <v>289</v>
       </c>
       <c r="D117" s="18" t="s">
@@ -6014,7 +6047,7 @@
       <c r="B118" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="25" t="s">
         <v>214</v>
       </c>
       <c r="D118" s="18" t="s">
@@ -6030,7 +6063,7 @@
       <c r="B119" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -6048,7 +6081,7 @@
       <c r="B120" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="25" t="s">
         <v>529</v>
       </c>
       <c r="D120" s="18" t="s">
@@ -6064,7 +6097,7 @@
       <c r="B121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -6082,7 +6115,7 @@
       <c r="B122" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -6100,7 +6133,7 @@
       <c r="B123" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6118,7 +6151,7 @@
       <c r="B124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -6136,7 +6169,7 @@
       <c r="B125" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -6154,7 +6187,7 @@
       <c r="B126" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="25" t="s">
         <v>217</v>
       </c>
       <c r="D126" s="18" t="s">
@@ -6170,7 +6203,7 @@
       <c r="B127" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -6188,7 +6221,7 @@
       <c r="B128" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -6206,7 +6239,7 @@
       <c r="B129" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -6224,7 +6257,7 @@
       <c r="B130" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -6242,7 +6275,7 @@
       <c r="B131" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="25" t="s">
         <v>218</v>
       </c>
       <c r="D131" s="18" t="s">
@@ -6258,7 +6291,7 @@
       <c r="B132" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -6276,7 +6309,7 @@
       <c r="B133" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -6294,7 +6327,7 @@
       <c r="B134" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="25" t="s">
         <v>219</v>
       </c>
       <c r="D134" s="18" t="s">
@@ -6310,7 +6343,7 @@
       <c r="B135" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="28" t="s">
+      <c r="C135" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -6328,7 +6361,7 @@
       <c r="B136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -6346,7 +6379,7 @@
       <c r="B137" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="25" t="s">
         <v>220</v>
       </c>
       <c r="D137" s="18" t="s">
@@ -6362,7 +6395,7 @@
       <c r="B138" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="25" t="s">
         <v>222</v>
       </c>
       <c r="D138" s="18" t="s">
@@ -6378,7 +6411,7 @@
       <c r="B139" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="25" t="s">
         <v>301</v>
       </c>
       <c r="D139" s="18" t="s">
@@ -6394,7 +6427,7 @@
       <c r="B140" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="25" t="s">
         <v>278</v>
       </c>
       <c r="D140" s="18" t="s">
@@ -6410,7 +6443,7 @@
       <c r="B141" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -6428,7 +6461,7 @@
       <c r="B142" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="26" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -6446,7 +6479,7 @@
       <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -6464,7 +6497,7 @@
       <c r="B144" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D144" s="18" t="s">
@@ -6480,7 +6513,7 @@
       <c r="B145" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D145" s="18" t="s">
@@ -6496,7 +6529,7 @@
       <c r="B146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="25" t="s">
         <v>287</v>
       </c>
       <c r="D146" s="18" t="s">
@@ -6512,7 +6545,7 @@
       <c r="B147" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -6530,7 +6563,7 @@
       <c r="B148" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="25" t="s">
         <v>443</v>
       </c>
       <c r="D148" s="18" t="s">
@@ -6546,13 +6579,13 @@
       <c r="B149" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F149" s="15"/>
@@ -6564,7 +6597,7 @@
       <c r="B150" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="25" t="s">
         <v>473</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -6582,7 +6615,7 @@
       <c r="B151" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C151" s="29" t="s">
+      <c r="C151" s="27" t="s">
         <v>475</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -6600,13 +6633,13 @@
       <c r="B152" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="25" t="s">
         <v>477</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F152" s="15"/>
@@ -6618,7 +6651,7 @@
       <c r="B153" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="25" t="s">
         <v>143</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -6638,7 +6671,7 @@
       <c r="B154" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="25" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6658,7 +6691,7 @@
       <c r="B155" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="25" t="s">
         <v>148</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -6676,7 +6709,7 @@
       <c r="B156" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="25" t="s">
         <v>329</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -6694,7 +6727,7 @@
       <c r="B157" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="25" t="s">
         <v>139</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -6712,7 +6745,7 @@
       <c r="B158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C158" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -6730,7 +6763,7 @@
       <c r="B159" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="25" t="s">
         <v>141</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -6748,7 +6781,7 @@
       <c r="B160" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="25" t="s">
         <v>142</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -6766,7 +6799,7 @@
       <c r="B161" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="25" t="s">
         <v>382</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -6784,7 +6817,7 @@
       <c r="B162" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="25" t="s">
         <v>464</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -6802,7 +6835,7 @@
       <c r="B163" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C163" s="27" t="s">
+      <c r="C163" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -6822,7 +6855,7 @@
       <c r="B164" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C164" s="27" t="s">
+      <c r="C164" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -6840,7 +6873,7 @@
       <c r="B165" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="25" t="s">
         <v>149</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -6858,7 +6891,7 @@
       <c r="B166" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="25" t="s">
         <v>150</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -6876,7 +6909,7 @@
       <c r="B167" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="25" t="s">
         <v>146</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -6894,7 +6927,7 @@
       <c r="B168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -6912,7 +6945,7 @@
       <c r="B169" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C169" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -6930,7 +6963,7 @@
       <c r="B170" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="25" t="s">
         <v>152</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -6950,7 +6983,7 @@
       <c r="B171" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="25" t="s">
         <v>151</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -6970,7 +7003,7 @@
       <c r="B172" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="25" t="s">
         <v>147</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -6988,7 +7021,7 @@
       <c r="B173" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C173" s="25" t="s">
         <v>330</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -7006,7 +7039,7 @@
       <c r="B174" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="25" t="s">
         <v>271</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -7024,7 +7057,7 @@
       <c r="B175" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C175" s="25" t="s">
         <v>272</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -7042,7 +7075,7 @@
       <c r="B176" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="25" t="s">
         <v>273</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -7062,7 +7095,7 @@
       <c r="B177" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="25" t="s">
         <v>415</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -7080,7 +7113,7 @@
       <c r="B178" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C178" s="27" t="s">
+      <c r="C178" s="25" t="s">
         <v>416</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -7098,7 +7131,7 @@
       <c r="B179" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C179" s="30">
+      <c r="C179" s="28">
         <v>5500</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -7116,7 +7149,7 @@
       <c r="B180" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="25" t="s">
         <v>314</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -7134,7 +7167,7 @@
       <c r="B181" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="25" t="s">
         <v>241</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -7152,7 +7185,7 @@
       <c r="B182" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C182" s="25" t="s">
         <v>406</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -7170,7 +7203,7 @@
       <c r="B183" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C183" s="25" t="s">
         <v>407</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -7188,7 +7221,7 @@
       <c r="B184" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="25" t="s">
         <v>408</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -7208,7 +7241,7 @@
       <c r="B185" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C185" s="25" t="s">
         <v>507</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -7228,7 +7261,7 @@
       <c r="B186" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="27" t="s">
+      <c r="C186" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -7246,7 +7279,7 @@
       <c r="B187" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C187" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -7264,7 +7297,7 @@
       <c r="B188" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C188" s="27" t="s">
+      <c r="C188" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -7282,7 +7315,7 @@
       <c r="B189" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -7300,7 +7333,7 @@
       <c r="B190" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -7318,7 +7351,7 @@
       <c r="B191" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="25" t="s">
         <v>74</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -7336,7 +7369,7 @@
       <c r="B192" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -7354,7 +7387,7 @@
       <c r="B193" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -7372,7 +7405,7 @@
       <c r="B194" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C194" s="27" t="s">
+      <c r="C194" s="25" t="s">
         <v>462</v>
       </c>
       <c r="D194" s="18" t="s">
@@ -7388,7 +7421,7 @@
       <c r="B195" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="25" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -7406,7 +7439,7 @@
       <c r="B196" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="25" t="s">
         <v>100</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -7424,7 +7457,7 @@
       <c r="B197" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="25" t="s">
         <v>423</v>
       </c>
       <c r="D197" s="18" t="s">
@@ -7440,7 +7473,7 @@
       <c r="B198" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="25" t="s">
         <v>490</v>
       </c>
       <c r="D198" s="18" t="s">
@@ -7456,7 +7489,7 @@
       <c r="B199" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="25" t="s">
         <v>101</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -7474,7 +7507,7 @@
       <c r="B200" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -7490,7 +7523,7 @@
       <c r="B201" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="25" t="s">
         <v>540</v>
       </c>
       <c r="D201" s="18" t="s">
@@ -7506,7 +7539,7 @@
       <c r="B202" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="25" t="s">
         <v>518</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -7524,7 +7557,7 @@
       <c r="B203" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C203" s="25" t="s">
         <v>460</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -7542,7 +7575,7 @@
       <c r="B204" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="25" t="s">
         <v>249</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -7560,7 +7593,7 @@
       <c r="B205" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="25" t="s">
         <v>545</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -7578,7 +7611,7 @@
       <c r="B206" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="27" t="s">
+      <c r="C206" s="25" t="s">
         <v>112</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -7596,7 +7629,7 @@
       <c r="B207" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C207" s="25" t="s">
         <v>111</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -7614,7 +7647,7 @@
       <c r="B208" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C208" s="27" t="s">
+      <c r="C208" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -7632,7 +7665,7 @@
       <c r="B209" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="C209" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -7650,7 +7683,7 @@
       <c r="B210" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C210" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -7668,7 +7701,7 @@
       <c r="B211" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C211" s="28" t="s">
+      <c r="C211" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -7686,7 +7719,7 @@
       <c r="B212" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="27" t="s">
+      <c r="C212" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -7704,7 +7737,7 @@
       <c r="B213" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C213" s="27" t="s">
+      <c r="C213" s="25" t="s">
         <v>117</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -7722,7 +7755,7 @@
       <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C214" s="28" t="s">
+      <c r="C214" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -7740,7 +7773,7 @@
       <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C215" s="28" t="s">
+      <c r="C215" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -7758,7 +7791,7 @@
       <c r="B216" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C216" s="25" t="s">
         <v>256</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -7776,7 +7809,7 @@
       <c r="B217" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C217" s="27" t="s">
+      <c r="C217" s="25" t="s">
         <v>257</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -7794,7 +7827,7 @@
       <c r="B218" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C218" s="27" t="s">
+      <c r="C218" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -7812,7 +7845,7 @@
       <c r="B219" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="28" t="s">
+      <c r="C219" s="26" t="s">
         <v>316</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -7830,7 +7863,7 @@
       <c r="B220" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C220" s="27" t="s">
+      <c r="C220" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -7848,7 +7881,7 @@
       <c r="B221" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C221" s="27" t="s">
+      <c r="C221" s="25" t="s">
         <v>542</v>
       </c>
       <c r="D221" s="18" t="s">
@@ -7864,7 +7897,7 @@
       <c r="B222" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C222" s="27" t="s">
+      <c r="C222" s="25" t="s">
         <v>494</v>
       </c>
       <c r="D222" s="18" t="s">
@@ -7880,7 +7913,7 @@
       <c r="B223" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C223" s="27" t="s">
+      <c r="C223" s="25" t="s">
         <v>448</v>
       </c>
       <c r="D223" s="18" t="s">
@@ -7896,7 +7929,7 @@
       <c r="B224" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C224" s="27" t="s">
+      <c r="C224" s="25" t="s">
         <v>450</v>
       </c>
       <c r="D224" s="18" t="s">
@@ -7912,7 +7945,7 @@
       <c r="B225" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C225" s="27" t="s">
+      <c r="C225" s="25" t="s">
         <v>132</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -7930,7 +7963,7 @@
       <c r="B226" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C226" s="27" t="s">
+      <c r="C226" s="25" t="s">
         <v>116</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -7948,7 +7981,7 @@
       <c r="B227" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C227" s="27" t="s">
+      <c r="C227" s="25" t="s">
         <v>131</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -7966,7 +7999,7 @@
       <c r="B228" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C228" s="27" t="s">
+      <c r="C228" s="25" t="s">
         <v>291</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -7984,7 +8017,7 @@
       <c r="B229" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C229" s="27" t="s">
+      <c r="C229" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -8002,7 +8035,7 @@
       <c r="B230" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C230" s="27" t="s">
+      <c r="C230" s="25" t="s">
         <v>120</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -8020,7 +8053,7 @@
       <c r="B231" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C231" s="27" t="s">
+      <c r="C231" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -8038,13 +8071,13 @@
       <c r="B232" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C232" s="27" t="s">
+      <c r="C232" s="25" t="s">
         <v>260</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="23" t="s">
+      <c r="E232" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F232" s="15"/>
@@ -8056,7 +8089,7 @@
       <c r="B233" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C233" s="29" t="s">
+      <c r="C233" s="27" t="s">
         <v>261</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -8074,13 +8107,13 @@
       <c r="B234" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C234" s="27" t="s">
+      <c r="C234" s="25" t="s">
         <v>262</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="E234" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F234" s="15"/>
@@ -8092,7 +8125,7 @@
       <c r="B235" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C235" s="28" t="s">
+      <c r="C235" s="26" t="s">
         <v>135</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -8110,7 +8143,7 @@
       <c r="B236" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C236" s="27" t="s">
+      <c r="C236" s="25" t="s">
         <v>134</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -8128,7 +8161,7 @@
       <c r="B237" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C237" s="28" t="s">
+      <c r="C237" s="26" t="s">
         <v>133</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -8146,7 +8179,7 @@
       <c r="B238" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C238" s="27" t="s">
+      <c r="C238" s="25" t="s">
         <v>409</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -8164,7 +8197,7 @@
       <c r="B239" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C239" s="27" t="s">
+      <c r="C239" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -8182,7 +8215,7 @@
       <c r="B240" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C240" s="28" t="s">
+      <c r="C240" s="26" t="s">
         <v>328</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -8200,7 +8233,7 @@
       <c r="B241" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C241" s="27" t="s">
+      <c r="C241" s="25" t="s">
         <v>320</v>
       </c>
       <c r="D241" s="18" t="s">
@@ -8216,7 +8249,7 @@
       <c r="B242" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C242" s="28" t="s">
+      <c r="C242" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -8234,13 +8267,13 @@
       <c r="B243" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C243" s="27" t="s">
+      <c r="C243" s="25" t="s">
         <v>263</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E243" s="22" t="s">
+      <c r="E243" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F243" s="15"/>
@@ -8252,7 +8285,7 @@
       <c r="B244" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C244" s="27" t="s">
+      <c r="C244" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -8270,7 +8303,7 @@
       <c r="B245" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="27" t="s">
+      <c r="C245" s="25" t="s">
         <v>265</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -8288,13 +8321,13 @@
       <c r="B246" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C246" s="27" t="s">
+      <c r="C246" s="25" t="s">
         <v>266</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E246" s="22" t="s">
+      <c r="E246" s="21" t="s">
         <v>600</v>
       </c>
       <c r="F246" s="15"/>
@@ -8306,7 +8339,7 @@
       <c r="B247" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C247" s="27" t="s">
+      <c r="C247" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -8324,7 +8357,7 @@
       <c r="B248" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C248" s="27" t="s">
+      <c r="C248" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -8342,7 +8375,7 @@
       <c r="B249" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C249" s="27" t="s">
+      <c r="C249" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -8360,7 +8393,7 @@
       <c r="B250" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C250" s="27" t="s">
+      <c r="C250" s="25" t="s">
         <v>268</v>
       </c>
       <c r="D250" s="18" t="s">
@@ -8376,7 +8409,7 @@
       <c r="B251" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C251" s="27" t="s">
+      <c r="C251" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -8394,7 +8427,7 @@
       <c r="B252" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C252" s="27" t="s">
+      <c r="C252" s="25" t="s">
         <v>428</v>
       </c>
       <c r="D252" s="18" t="s">
@@ -8410,7 +8443,7 @@
       <c r="B253" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C253" s="27" t="s">
+      <c r="C253" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -8428,7 +8461,7 @@
       <c r="B254" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C254" s="27" t="s">
+      <c r="C254" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -8446,7 +8479,7 @@
       <c r="B255" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C255" s="27" t="s">
+      <c r="C255" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -8464,7 +8497,7 @@
       <c r="B256" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C256" s="27" t="s">
+      <c r="C256" s="25" t="s">
         <v>321</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -8474,10 +8507,10 @@
       <c r="F256" s="15"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="31"/>
+      <c r="C257" s="29"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="31"/>
+      <c r="C258" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G262"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F5864-8EAE-4F54-AA69-3EF62A4A7DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="16485" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -1858,38 +1859,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="30">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0000000"/>
-    <numFmt numFmtId="178" formatCode="General_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0"/>
-    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="0000000"/>
+    <numFmt numFmtId="176" formatCode="General_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.0"/>
+    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -2715,20 +2716,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2736,25 +2737,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2762,16 +2763,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2782,30 +2783,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2838,15 +2839,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2858,8 +2859,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2873,8 +2874,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2912,9 +2913,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2936,11 +2937,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2958,32 +2959,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3079,145 +3080,148 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
-    <cellStyle name="Calc Currency (0)" xfId="28"/>
-    <cellStyle name="Calc Currency (2)" xfId="29"/>
-    <cellStyle name="Calc Percent (0)" xfId="30"/>
-    <cellStyle name="Calc Percent (1)" xfId="31"/>
-    <cellStyle name="Calc Percent (2)" xfId="32"/>
-    <cellStyle name="Calc Units (0)" xfId="33"/>
-    <cellStyle name="Calc Units (1)" xfId="34"/>
-    <cellStyle name="Calc Units (2)" xfId="35"/>
-    <cellStyle name="category" xfId="36"/>
-    <cellStyle name="Comma [00]" xfId="37"/>
-    <cellStyle name="comma zerodec" xfId="38"/>
-    <cellStyle name="Currency [00]" xfId="39"/>
-    <cellStyle name="Currency1" xfId="40"/>
-    <cellStyle name="Date Short" xfId="41"/>
-    <cellStyle name="DELTA" xfId="42"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44"/>
-    <cellStyle name="Eingabefeld" xfId="45"/>
-    <cellStyle name="Eingaben" xfId="46"/>
-    <cellStyle name="EingabenWr" xfId="47"/>
-    <cellStyle name="Enter Currency (0)" xfId="48"/>
-    <cellStyle name="Enter Currency (2)" xfId="49"/>
-    <cellStyle name="Enter Units (0)" xfId="50"/>
-    <cellStyle name="Enter Units (1)" xfId="51"/>
-    <cellStyle name="Enter Units (2)" xfId="52"/>
-    <cellStyle name="Ergebnisse" xfId="53"/>
-    <cellStyle name="Euro" xfId="54"/>
-    <cellStyle name="Grey" xfId="55"/>
-    <cellStyle name="HEADER" xfId="56"/>
-    <cellStyle name="Header1" xfId="57"/>
-    <cellStyle name="Header2" xfId="58"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
-    <cellStyle name="iles|_x0005_h" xfId="70"/>
-    <cellStyle name="Input [yellow]" xfId="71"/>
-    <cellStyle name="les" xfId="72"/>
-    <cellStyle name="Link Currency (0)" xfId="73"/>
-    <cellStyle name="Link Currency (2)" xfId="74"/>
-    <cellStyle name="Link Units (0)" xfId="75"/>
-    <cellStyle name="Link Units (1)" xfId="76"/>
-    <cellStyle name="Link Units (2)" xfId="77"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79"/>
-    <cellStyle name="Model" xfId="80"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
-    <cellStyle name="Normal - Style1" xfId="83"/>
-    <cellStyle name="Normal 11" xfId="84"/>
-    <cellStyle name="Normal 133" xfId="85"/>
-    <cellStyle name="Normal 2" xfId="86"/>
-    <cellStyle name="Normal 2 2" xfId="87"/>
-    <cellStyle name="Normal 2 2 2" xfId="88"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
-    <cellStyle name="Normal 2 2 3" xfId="91"/>
-    <cellStyle name="Normal 2 3" xfId="92"/>
-    <cellStyle name="Normal 2 3 2" xfId="93"/>
-    <cellStyle name="Normal 2 3 3" xfId="94"/>
-    <cellStyle name="Normal 2 4" xfId="95"/>
-    <cellStyle name="Normal 2 4 2" xfId="96"/>
-    <cellStyle name="Normal 2 5" xfId="97"/>
-    <cellStyle name="Normal 3" xfId="98"/>
-    <cellStyle name="Normal 3 2" xfId="99"/>
-    <cellStyle name="Normal 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 3 3" xfId="101"/>
-    <cellStyle name="Normal 3 3 2" xfId="102"/>
-    <cellStyle name="Normal 3 3 3" xfId="103"/>
-    <cellStyle name="Normal 3 4" xfId="104"/>
-    <cellStyle name="Normal 3 4 2" xfId="105"/>
-    <cellStyle name="Normal 3 4 3" xfId="106"/>
-    <cellStyle name="Normal 4" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 6" xfId="109"/>
-    <cellStyle name="Normal 7" xfId="110"/>
-    <cellStyle name="Normal 7 2" xfId="111"/>
-    <cellStyle name="Normal 8" xfId="112"/>
-    <cellStyle name="Normal 9" xfId="113"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
-    <cellStyle name="ParaBirimi 2" xfId="115"/>
-    <cellStyle name="Percent [0]" xfId="116"/>
-    <cellStyle name="Percent [00]" xfId="117"/>
-    <cellStyle name="Percent [2]" xfId="118"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120"/>
-    <cellStyle name="PrePop Units (0)" xfId="121"/>
-    <cellStyle name="PrePop Units (1)" xfId="122"/>
-    <cellStyle name="PrePop Units (2)" xfId="123"/>
-    <cellStyle name="Prozent 2" xfId="124"/>
-    <cellStyle name="R?" xfId="125"/>
-    <cellStyle name="sche|_x0005_" xfId="126"/>
-    <cellStyle name="Standard 2" xfId="127"/>
-    <cellStyle name="Standard 2 2" xfId="128"/>
-    <cellStyle name="Standard 3" xfId="129"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
-    <cellStyle name="subhead" xfId="131"/>
-    <cellStyle name="Text Indent A" xfId="132"/>
-    <cellStyle name="Text Indent B" xfId="133"/>
-    <cellStyle name="Text Indent C" xfId="134"/>
-    <cellStyle name="Ueberschriften" xfId="135"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
-    <cellStyle name="Yüzde 2" xfId="137"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3227,98 +3231,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147"/>
-    <cellStyle name="Денежный 2" xfId="148"/>
-    <cellStyle name="Денежный 3" xfId="149"/>
+    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156"/>
+    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158"/>
-    <cellStyle name="Обычный 10 2" xfId="159"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160"/>
-    <cellStyle name="Обычный 14" xfId="161"/>
-    <cellStyle name="Обычный 15" xfId="162"/>
-    <cellStyle name="Обычный 2" xfId="163"/>
-    <cellStyle name="Обычный 2 2" xfId="164"/>
-    <cellStyle name="Обычный 2 3" xfId="165"/>
-    <cellStyle name="Обычный 2 4" xfId="166"/>
-    <cellStyle name="Обычный 3" xfId="167"/>
-    <cellStyle name="Обычный 3 2" xfId="168"/>
-    <cellStyle name="Обычный 3 3" xfId="169"/>
-    <cellStyle name="Обычный 4" xfId="170"/>
-    <cellStyle name="Обычный 4 2" xfId="171"/>
-    <cellStyle name="Обычный 4 3" xfId="172"/>
-    <cellStyle name="Обычный 5" xfId="173"/>
-    <cellStyle name="Обычный 5 2" xfId="174"/>
-    <cellStyle name="Обычный_0" xfId="175"/>
+    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179"/>
-    <cellStyle name="Процентный 2" xfId="180"/>
-    <cellStyle name="Процентный 3" xfId="181"/>
-    <cellStyle name="Процентный 3 2" xfId="182"/>
-    <cellStyle name="Процентный 3 3" xfId="183"/>
-    <cellStyle name="Процентный 4" xfId="184"/>
+    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187"/>
-    <cellStyle name="Финансовый 3" xfId="188"/>
-    <cellStyle name="Финансовый 9" xfId="189"/>
+    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
-    <cellStyle name="백분율 2" xfId="199"/>
-    <cellStyle name="백분율 3" xfId="200"/>
-    <cellStyle name="백분율 3 2" xfId="201"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
-    <cellStyle name="스타일 1" xfId="207"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
-    <cellStyle name="콤마_0009-1" xfId="210"/>
-    <cellStyle name="표준 2" xfId="211"/>
-    <cellStyle name="표준 2 2" xfId="212"/>
-    <cellStyle name="표준 3" xfId="213"/>
-    <cellStyle name="표준 3 2" xfId="214"/>
-    <cellStyle name="一般_家樂福" xfId="215"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216"/>
-    <cellStyle name="千分位_laroux" xfId="217"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
-    <cellStyle name="常规_Sheet1" xfId="229"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
-    <cellStyle name="貨幣_laroux" xfId="234"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3595,11 +3599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="B140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5738,7 +5742,7 @@
       <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -5759,7 +5763,7 @@
       <c r="B102" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -5780,7 +5784,7 @@
       <c r="B103" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -5801,7 +5805,7 @@
       <c r="B104" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -5869,7 +5873,7 @@
       <c r="B108" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -5887,7 +5891,7 @@
       <c r="B109" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -5941,7 +5945,7 @@
       <c r="B112" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="19" t="s">
         <v>504</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -5977,7 +5981,7 @@
       <c r="B114" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="19" t="s">
         <v>414</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -5995,7 +5999,7 @@
       <c r="B115" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="19" t="s">
         <v>212</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -6013,7 +6017,7 @@
       <c r="B116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="19" t="s">
         <v>380</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -6063,7 +6067,7 @@
       <c r="B119" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -6097,7 +6101,7 @@
       <c r="B121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -6115,7 +6119,7 @@
       <c r="B122" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -6133,7 +6137,7 @@
       <c r="B123" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -6151,7 +6155,7 @@
       <c r="B124" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -6203,7 +6207,7 @@
       <c r="B127" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -6221,7 +6225,7 @@
       <c r="B128" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -6239,7 +6243,7 @@
       <c r="B129" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -6257,7 +6261,7 @@
       <c r="B130" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -6291,7 +6295,7 @@
       <c r="B132" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -6309,7 +6313,7 @@
       <c r="B133" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -6343,7 +6347,7 @@
       <c r="B135" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="35" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -6361,7 +6365,7 @@
       <c r="B136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -6443,7 +6447,7 @@
       <c r="B141" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="35" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -6461,7 +6465,7 @@
       <c r="B142" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="35" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -6479,7 +6483,7 @@
       <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -8513,14 +8517,14 @@
       <c r="C258" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262"/>
+  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F5864-8EAE-4F54-AA69-3EF62A4A7DD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="16485" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="16485" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -1859,38 +1858,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="30">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="0000000"/>
-    <numFmt numFmtId="176" formatCode="General_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0000000"/>
+    <numFmt numFmtId="178" formatCode="General_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#,##0.0"/>
+    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -2716,20 +2715,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2737,25 +2736,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2763,16 +2762,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2783,30 +2782,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2839,15 +2838,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2859,8 +2858,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2874,8 +2873,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2913,9 +2912,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2937,11 +2936,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2959,25 +2958,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3085,143 +3084,143 @@
     </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
+    <cellStyle name="Calc Currency (0)" xfId="28"/>
+    <cellStyle name="Calc Currency (2)" xfId="29"/>
+    <cellStyle name="Calc Percent (0)" xfId="30"/>
+    <cellStyle name="Calc Percent (1)" xfId="31"/>
+    <cellStyle name="Calc Percent (2)" xfId="32"/>
+    <cellStyle name="Calc Units (0)" xfId="33"/>
+    <cellStyle name="Calc Units (1)" xfId="34"/>
+    <cellStyle name="Calc Units (2)" xfId="35"/>
+    <cellStyle name="category" xfId="36"/>
+    <cellStyle name="Comma [00]" xfId="37"/>
+    <cellStyle name="comma zerodec" xfId="38"/>
+    <cellStyle name="Currency [00]" xfId="39"/>
+    <cellStyle name="Currency1" xfId="40"/>
+    <cellStyle name="Date Short" xfId="41"/>
+    <cellStyle name="DELTA" xfId="42"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44"/>
+    <cellStyle name="Eingabefeld" xfId="45"/>
+    <cellStyle name="Eingaben" xfId="46"/>
+    <cellStyle name="EingabenWr" xfId="47"/>
+    <cellStyle name="Enter Currency (0)" xfId="48"/>
+    <cellStyle name="Enter Currency (2)" xfId="49"/>
+    <cellStyle name="Enter Units (0)" xfId="50"/>
+    <cellStyle name="Enter Units (1)" xfId="51"/>
+    <cellStyle name="Enter Units (2)" xfId="52"/>
+    <cellStyle name="Ergebnisse" xfId="53"/>
+    <cellStyle name="Euro" xfId="54"/>
+    <cellStyle name="Grey" xfId="55"/>
+    <cellStyle name="HEADER" xfId="56"/>
+    <cellStyle name="Header1" xfId="57"/>
+    <cellStyle name="Header2" xfId="58"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
+    <cellStyle name="iles|_x0005_h" xfId="70"/>
+    <cellStyle name="Input [yellow]" xfId="71"/>
+    <cellStyle name="les" xfId="72"/>
+    <cellStyle name="Link Currency (0)" xfId="73"/>
+    <cellStyle name="Link Currency (2)" xfId="74"/>
+    <cellStyle name="Link Units (0)" xfId="75"/>
+    <cellStyle name="Link Units (1)" xfId="76"/>
+    <cellStyle name="Link Units (2)" xfId="77"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79"/>
+    <cellStyle name="Model" xfId="80"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
+    <cellStyle name="Normal - Style1" xfId="83"/>
+    <cellStyle name="Normal 11" xfId="84"/>
+    <cellStyle name="Normal 133" xfId="85"/>
+    <cellStyle name="Normal 2" xfId="86"/>
+    <cellStyle name="Normal 2 2" xfId="87"/>
+    <cellStyle name="Normal 2 2 2" xfId="88"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
+    <cellStyle name="Normal 2 2 3" xfId="91"/>
+    <cellStyle name="Normal 2 3" xfId="92"/>
+    <cellStyle name="Normal 2 3 2" xfId="93"/>
+    <cellStyle name="Normal 2 3 3" xfId="94"/>
+    <cellStyle name="Normal 2 4" xfId="95"/>
+    <cellStyle name="Normal 2 4 2" xfId="96"/>
+    <cellStyle name="Normal 2 5" xfId="97"/>
+    <cellStyle name="Normal 3" xfId="98"/>
+    <cellStyle name="Normal 3 2" xfId="99"/>
+    <cellStyle name="Normal 3 2 2" xfId="100"/>
+    <cellStyle name="Normal 3 3" xfId="101"/>
+    <cellStyle name="Normal 3 3 2" xfId="102"/>
+    <cellStyle name="Normal 3 3 3" xfId="103"/>
+    <cellStyle name="Normal 3 4" xfId="104"/>
+    <cellStyle name="Normal 3 4 2" xfId="105"/>
+    <cellStyle name="Normal 3 4 3" xfId="106"/>
+    <cellStyle name="Normal 4" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 6" xfId="109"/>
+    <cellStyle name="Normal 7" xfId="110"/>
+    <cellStyle name="Normal 7 2" xfId="111"/>
+    <cellStyle name="Normal 8" xfId="112"/>
+    <cellStyle name="Normal 9" xfId="113"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
+    <cellStyle name="ParaBirimi 2" xfId="115"/>
+    <cellStyle name="Percent [0]" xfId="116"/>
+    <cellStyle name="Percent [00]" xfId="117"/>
+    <cellStyle name="Percent [2]" xfId="118"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120"/>
+    <cellStyle name="PrePop Units (0)" xfId="121"/>
+    <cellStyle name="PrePop Units (1)" xfId="122"/>
+    <cellStyle name="PrePop Units (2)" xfId="123"/>
+    <cellStyle name="Prozent 2" xfId="124"/>
+    <cellStyle name="R?" xfId="125"/>
+    <cellStyle name="sche|_x0005_" xfId="126"/>
+    <cellStyle name="Standard 2" xfId="127"/>
+    <cellStyle name="Standard 2 2" xfId="128"/>
+    <cellStyle name="Standard 3" xfId="129"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
+    <cellStyle name="subhead" xfId="131"/>
+    <cellStyle name="Text Indent A" xfId="132"/>
+    <cellStyle name="Text Indent B" xfId="133"/>
+    <cellStyle name="Text Indent C" xfId="134"/>
+    <cellStyle name="Ueberschriften" xfId="135"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
+    <cellStyle name="Yüzde 2" xfId="137"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3231,98 +3230,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Гиперссылка 2" xfId="147"/>
+    <cellStyle name="Денежный 2" xfId="148"/>
+    <cellStyle name="Денежный 3" xfId="149"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Название 2" xfId="156"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Обычный 10" xfId="158"/>
+    <cellStyle name="Обычный 10 2" xfId="159"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160"/>
+    <cellStyle name="Обычный 14" xfId="161"/>
+    <cellStyle name="Обычный 15" xfId="162"/>
+    <cellStyle name="Обычный 2" xfId="163"/>
+    <cellStyle name="Обычный 2 2" xfId="164"/>
+    <cellStyle name="Обычный 2 3" xfId="165"/>
+    <cellStyle name="Обычный 2 4" xfId="166"/>
+    <cellStyle name="Обычный 3" xfId="167"/>
+    <cellStyle name="Обычный 3 2" xfId="168"/>
+    <cellStyle name="Обычный 3 3" xfId="169"/>
+    <cellStyle name="Обычный 4" xfId="170"/>
+    <cellStyle name="Обычный 4 2" xfId="171"/>
+    <cellStyle name="Обычный 4 3" xfId="172"/>
+    <cellStyle name="Обычный 5" xfId="173"/>
+    <cellStyle name="Обычный 5 2" xfId="174"/>
+    <cellStyle name="Обычный_0" xfId="175"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Примечание 2" xfId="179"/>
+    <cellStyle name="Процентный 2" xfId="180"/>
+    <cellStyle name="Процентный 3" xfId="181"/>
+    <cellStyle name="Процентный 3 2" xfId="182"/>
+    <cellStyle name="Процентный 3 3" xfId="183"/>
+    <cellStyle name="Процентный 4" xfId="184"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Финансовый 2" xfId="187"/>
+    <cellStyle name="Финансовый 3" xfId="188"/>
+    <cellStyle name="Финансовый 9" xfId="189"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
+    <cellStyle name="백분율 2" xfId="199"/>
+    <cellStyle name="백분율 3" xfId="200"/>
+    <cellStyle name="백분율 3 2" xfId="201"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
+    <cellStyle name="스타일 1" xfId="207"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
+    <cellStyle name="콤마_0009-1" xfId="210"/>
+    <cellStyle name="표준 2" xfId="211"/>
+    <cellStyle name="표준 2 2" xfId="212"/>
+    <cellStyle name="표준 3" xfId="213"/>
+    <cellStyle name="표준 3 2" xfId="214"/>
+    <cellStyle name="一般_家樂福" xfId="215"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216"/>
+    <cellStyle name="千分位_laroux" xfId="217"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
+    <cellStyle name="常规_Sheet1" xfId="229"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
+    <cellStyle name="貨幣_laroux" xfId="234"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3599,11 +3598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="B135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8517,14 +8516,14 @@
       <c r="C258" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:G262"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD76E8-8FF9-4BE2-8394-8854706ED364}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="16485" windowHeight="13575"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="16485" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -1858,38 +1859,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="30">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0000000"/>
-    <numFmt numFmtId="178" formatCode="General_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#,##0.0"/>
-    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="0000000"/>
+    <numFmt numFmtId="176" formatCode="General_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.0"/>
+    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -2715,20 +2716,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2736,25 +2737,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2762,16 +2763,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2782,30 +2783,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2838,15 +2839,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2858,8 +2859,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2873,8 +2874,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2912,9 +2913,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2936,11 +2937,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2958,25 +2959,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3084,143 +3085,143 @@
     </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
-    <cellStyle name="Calc Currency (0)" xfId="28"/>
-    <cellStyle name="Calc Currency (2)" xfId="29"/>
-    <cellStyle name="Calc Percent (0)" xfId="30"/>
-    <cellStyle name="Calc Percent (1)" xfId="31"/>
-    <cellStyle name="Calc Percent (2)" xfId="32"/>
-    <cellStyle name="Calc Units (0)" xfId="33"/>
-    <cellStyle name="Calc Units (1)" xfId="34"/>
-    <cellStyle name="Calc Units (2)" xfId="35"/>
-    <cellStyle name="category" xfId="36"/>
-    <cellStyle name="Comma [00]" xfId="37"/>
-    <cellStyle name="comma zerodec" xfId="38"/>
-    <cellStyle name="Currency [00]" xfId="39"/>
-    <cellStyle name="Currency1" xfId="40"/>
-    <cellStyle name="Date Short" xfId="41"/>
-    <cellStyle name="DELTA" xfId="42"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44"/>
-    <cellStyle name="Eingabefeld" xfId="45"/>
-    <cellStyle name="Eingaben" xfId="46"/>
-    <cellStyle name="EingabenWr" xfId="47"/>
-    <cellStyle name="Enter Currency (0)" xfId="48"/>
-    <cellStyle name="Enter Currency (2)" xfId="49"/>
-    <cellStyle name="Enter Units (0)" xfId="50"/>
-    <cellStyle name="Enter Units (1)" xfId="51"/>
-    <cellStyle name="Enter Units (2)" xfId="52"/>
-    <cellStyle name="Ergebnisse" xfId="53"/>
-    <cellStyle name="Euro" xfId="54"/>
-    <cellStyle name="Grey" xfId="55"/>
-    <cellStyle name="HEADER" xfId="56"/>
-    <cellStyle name="Header1" xfId="57"/>
-    <cellStyle name="Header2" xfId="58"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
-    <cellStyle name="iles|_x0005_h" xfId="70"/>
-    <cellStyle name="Input [yellow]" xfId="71"/>
-    <cellStyle name="les" xfId="72"/>
-    <cellStyle name="Link Currency (0)" xfId="73"/>
-    <cellStyle name="Link Currency (2)" xfId="74"/>
-    <cellStyle name="Link Units (0)" xfId="75"/>
-    <cellStyle name="Link Units (1)" xfId="76"/>
-    <cellStyle name="Link Units (2)" xfId="77"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79"/>
-    <cellStyle name="Model" xfId="80"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
-    <cellStyle name="Normal - Style1" xfId="83"/>
-    <cellStyle name="Normal 11" xfId="84"/>
-    <cellStyle name="Normal 133" xfId="85"/>
-    <cellStyle name="Normal 2" xfId="86"/>
-    <cellStyle name="Normal 2 2" xfId="87"/>
-    <cellStyle name="Normal 2 2 2" xfId="88"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
-    <cellStyle name="Normal 2 2 3" xfId="91"/>
-    <cellStyle name="Normal 2 3" xfId="92"/>
-    <cellStyle name="Normal 2 3 2" xfId="93"/>
-    <cellStyle name="Normal 2 3 3" xfId="94"/>
-    <cellStyle name="Normal 2 4" xfId="95"/>
-    <cellStyle name="Normal 2 4 2" xfId="96"/>
-    <cellStyle name="Normal 2 5" xfId="97"/>
-    <cellStyle name="Normal 3" xfId="98"/>
-    <cellStyle name="Normal 3 2" xfId="99"/>
-    <cellStyle name="Normal 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 3 3" xfId="101"/>
-    <cellStyle name="Normal 3 3 2" xfId="102"/>
-    <cellStyle name="Normal 3 3 3" xfId="103"/>
-    <cellStyle name="Normal 3 4" xfId="104"/>
-    <cellStyle name="Normal 3 4 2" xfId="105"/>
-    <cellStyle name="Normal 3 4 3" xfId="106"/>
-    <cellStyle name="Normal 4" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 6" xfId="109"/>
-    <cellStyle name="Normal 7" xfId="110"/>
-    <cellStyle name="Normal 7 2" xfId="111"/>
-    <cellStyle name="Normal 8" xfId="112"/>
-    <cellStyle name="Normal 9" xfId="113"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
-    <cellStyle name="ParaBirimi 2" xfId="115"/>
-    <cellStyle name="Percent [0]" xfId="116"/>
-    <cellStyle name="Percent [00]" xfId="117"/>
-    <cellStyle name="Percent [2]" xfId="118"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120"/>
-    <cellStyle name="PrePop Units (0)" xfId="121"/>
-    <cellStyle name="PrePop Units (1)" xfId="122"/>
-    <cellStyle name="PrePop Units (2)" xfId="123"/>
-    <cellStyle name="Prozent 2" xfId="124"/>
-    <cellStyle name="R?" xfId="125"/>
-    <cellStyle name="sche|_x0005_" xfId="126"/>
-    <cellStyle name="Standard 2" xfId="127"/>
-    <cellStyle name="Standard 2 2" xfId="128"/>
-    <cellStyle name="Standard 3" xfId="129"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
-    <cellStyle name="subhead" xfId="131"/>
-    <cellStyle name="Text Indent A" xfId="132"/>
-    <cellStyle name="Text Indent B" xfId="133"/>
-    <cellStyle name="Text Indent C" xfId="134"/>
-    <cellStyle name="Ueberschriften" xfId="135"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
-    <cellStyle name="Yüzde 2" xfId="137"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3230,98 +3231,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147"/>
-    <cellStyle name="Денежный 2" xfId="148"/>
-    <cellStyle name="Денежный 3" xfId="149"/>
+    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156"/>
+    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158"/>
-    <cellStyle name="Обычный 10 2" xfId="159"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160"/>
-    <cellStyle name="Обычный 14" xfId="161"/>
-    <cellStyle name="Обычный 15" xfId="162"/>
-    <cellStyle name="Обычный 2" xfId="163"/>
-    <cellStyle name="Обычный 2 2" xfId="164"/>
-    <cellStyle name="Обычный 2 3" xfId="165"/>
-    <cellStyle name="Обычный 2 4" xfId="166"/>
-    <cellStyle name="Обычный 3" xfId="167"/>
-    <cellStyle name="Обычный 3 2" xfId="168"/>
-    <cellStyle name="Обычный 3 3" xfId="169"/>
-    <cellStyle name="Обычный 4" xfId="170"/>
-    <cellStyle name="Обычный 4 2" xfId="171"/>
-    <cellStyle name="Обычный 4 3" xfId="172"/>
-    <cellStyle name="Обычный 5" xfId="173"/>
-    <cellStyle name="Обычный 5 2" xfId="174"/>
-    <cellStyle name="Обычный_0" xfId="175"/>
+    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179"/>
-    <cellStyle name="Процентный 2" xfId="180"/>
-    <cellStyle name="Процентный 3" xfId="181"/>
-    <cellStyle name="Процентный 3 2" xfId="182"/>
-    <cellStyle name="Процентный 3 3" xfId="183"/>
-    <cellStyle name="Процентный 4" xfId="184"/>
+    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187"/>
-    <cellStyle name="Финансовый 3" xfId="188"/>
-    <cellStyle name="Финансовый 9" xfId="189"/>
+    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
-    <cellStyle name="백분율 2" xfId="199"/>
-    <cellStyle name="백분율 3" xfId="200"/>
-    <cellStyle name="백분율 3 2" xfId="201"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
-    <cellStyle name="스타일 1" xfId="207"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
-    <cellStyle name="콤마_0009-1" xfId="210"/>
-    <cellStyle name="표준 2" xfId="211"/>
-    <cellStyle name="표준 2 2" xfId="212"/>
-    <cellStyle name="표준 3" xfId="213"/>
-    <cellStyle name="표준 3 2" xfId="214"/>
-    <cellStyle name="一般_家樂福" xfId="215"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216"/>
-    <cellStyle name="千分位_laroux" xfId="217"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
-    <cellStyle name="常规_Sheet1" xfId="229"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
-    <cellStyle name="貨幣_laroux" xfId="234"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3598,11 +3599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6548,7 +6549,7 @@
       <c r="B147" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -6654,7 +6655,7 @@
       <c r="B153" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -6674,7 +6675,7 @@
       <c r="B154" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -6694,7 +6695,7 @@
       <c r="B155" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -6712,7 +6713,7 @@
       <c r="B156" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="19" t="s">
         <v>329</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -6730,7 +6731,7 @@
       <c r="B157" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="19" t="s">
         <v>139</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -6748,7 +6749,7 @@
       <c r="B158" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -6766,7 +6767,7 @@
       <c r="B159" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -6784,7 +6785,7 @@
       <c r="B160" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="19" t="s">
         <v>142</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -6802,7 +6803,7 @@
       <c r="B161" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="19" t="s">
         <v>382</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -6820,7 +6821,7 @@
       <c r="B162" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C162" s="25" t="s">
+      <c r="C162" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -6838,7 +6839,7 @@
       <c r="B163" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -6858,7 +6859,7 @@
       <c r="B164" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="19" t="s">
         <v>233</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -6876,7 +6877,7 @@
       <c r="B165" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -6894,7 +6895,7 @@
       <c r="B166" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -6912,7 +6913,7 @@
       <c r="B167" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -6930,7 +6931,7 @@
       <c r="B168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -6948,7 +6949,7 @@
       <c r="B169" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="19" t="s">
         <v>235</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -6966,7 +6967,7 @@
       <c r="B170" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -6986,7 +6987,7 @@
       <c r="B171" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -7006,7 +7007,7 @@
       <c r="B172" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -7024,7 +7025,7 @@
       <c r="B173" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="19" t="s">
         <v>330</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -7042,7 +7043,7 @@
       <c r="B174" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="19" t="s">
         <v>271</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -7060,7 +7061,7 @@
       <c r="B175" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="19" t="s">
         <v>272</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -7078,7 +7079,7 @@
       <c r="B176" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -7098,7 +7099,7 @@
       <c r="B177" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="19" t="s">
         <v>415</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -7116,7 +7117,7 @@
       <c r="B178" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="19" t="s">
         <v>416</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -7158,7 +7159,7 @@
       <c r="D180" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E180" s="15" t="s">
+      <c r="E180" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F180" s="15"/>
@@ -7170,7 +7171,7 @@
       <c r="B181" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="19" t="s">
         <v>241</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -7188,7 +7189,7 @@
       <c r="B182" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="19" t="s">
         <v>406</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -7206,7 +7207,7 @@
       <c r="B183" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C183" s="19" t="s">
         <v>407</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -7224,7 +7225,7 @@
       <c r="B184" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="19" t="s">
         <v>408</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -7250,7 +7251,7 @@
       <c r="D185" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E185" s="15" t="s">
+      <c r="E185" s="22" t="s">
         <v>600</v>
       </c>
       <c r="F185" s="15" t="s">
@@ -7264,7 +7265,7 @@
       <c r="B186" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="19" t="s">
         <v>97</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -7282,7 +7283,7 @@
       <c r="B187" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -7300,7 +7301,7 @@
       <c r="B188" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C188" s="25" t="s">
+      <c r="C188" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -7318,7 +7319,7 @@
       <c r="B189" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -7336,7 +7337,7 @@
       <c r="B190" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -7354,7 +7355,7 @@
       <c r="B191" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C191" s="25" t="s">
+      <c r="C191" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -7372,7 +7373,7 @@
       <c r="B192" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -7390,7 +7391,7 @@
       <c r="B193" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C193" s="25" t="s">
+      <c r="C193" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -7424,7 +7425,7 @@
       <c r="B195" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C195" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -7442,7 +7443,7 @@
       <c r="B196" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -7492,7 +7493,7 @@
       <c r="B199" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -7510,7 +7511,7 @@
       <c r="B200" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -7542,7 +7543,7 @@
       <c r="B202" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="19" t="s">
         <v>518</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -7560,7 +7561,7 @@
       <c r="B203" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="19" t="s">
         <v>460</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -7578,7 +7579,7 @@
       <c r="B204" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="19" t="s">
         <v>249</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -7596,7 +7597,7 @@
       <c r="B205" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="19" t="s">
         <v>545</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -7614,7 +7615,7 @@
       <c r="B206" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -7632,7 +7633,7 @@
       <c r="B207" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="C207" s="19" t="s">
         <v>111</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -7650,7 +7651,7 @@
       <c r="B208" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C208" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -7668,7 +7669,7 @@
       <c r="B209" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C209" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -8516,14 +8517,14 @@
       <c r="C258" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262"/>
+  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD76E8-8FF9-4BE2-8394-8854706ED364}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB3C152-13CE-4C78-9AD7-90AD09665096}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="16485" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="135" windowWidth="16485" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -1861,36 +1861,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="30">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="0000000"/>
-    <numFmt numFmtId="176" formatCode="General_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
-    <numFmt numFmtId="186" formatCode="m&quot;월&quot;"/>
-    <numFmt numFmtId="187" formatCode="#,##0.0"/>
-    <numFmt numFmtId="188" formatCode="#&quot;개&quot;&quot;월&quot;"/>
-    <numFmt numFmtId="189" formatCode="#&quot;월&quot;"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0000000"/>
+    <numFmt numFmtId="178" formatCode="General_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_)&quot;£&quot;_ ;_ * \(#,##0.00\)&quot;£&quot;_ ;_ * &quot;-&quot;??_)&quot;£&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_)_£_ ;_ * \(#,##0.00\)_£_ ;_ * &quot;-&quot;??_)_£_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="187" formatCode="#,##0.00\ &quot;F&quot;;\-#,##0.00\ &quot;F&quot;"/>
+    <numFmt numFmtId="188" formatCode="m&quot;월&quot;"/>
+    <numFmt numFmtId="189" formatCode="#,##0.0"/>
+    <numFmt numFmtId="190" formatCode="#&quot;개&quot;&quot;월&quot;"/>
+    <numFmt numFmtId="191" formatCode="#&quot;월&quot;"/>
+    <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
+    <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -2716,20 +2716,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2737,25 +2737,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="8" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
@@ -2763,16 +2763,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment horizontal="left"/>
@@ -2783,30 +2783,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2839,15 +2839,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2859,8 +2859,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2874,8 +2874,8 @@
     <xf numFmtId="0" fontId="43" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2913,9 +2913,9 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2937,11 +2937,11 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -2959,25 +2959,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3602,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="B193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232:C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7687,7 +7687,7 @@
       <c r="B210" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C210" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -7705,7 +7705,7 @@
       <c r="B211" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="35" t="s">
         <v>123</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -7723,7 +7723,7 @@
       <c r="B212" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C212" s="25" t="s">
+      <c r="C212" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -7741,7 +7741,7 @@
       <c r="B213" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -7759,7 +7759,7 @@
       <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C214" s="26" t="s">
+      <c r="C214" s="35" t="s">
         <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -7777,7 +7777,7 @@
       <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C215" s="26" t="s">
+      <c r="C215" s="35" t="s">
         <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -7795,7 +7795,7 @@
       <c r="B216" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="19" t="s">
         <v>256</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -7813,7 +7813,7 @@
       <c r="B217" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C217" s="25" t="s">
+      <c r="C217" s="19" t="s">
         <v>257</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -7831,7 +7831,7 @@
       <c r="B218" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="C218" s="19" t="s">
         <v>108</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -7849,7 +7849,7 @@
       <c r="B219" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="26" t="s">
+      <c r="C219" s="35" t="s">
         <v>316</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -7867,7 +7867,7 @@
       <c r="B220" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C220" s="25" t="s">
+      <c r="C220" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -7949,7 +7949,7 @@
       <c r="B225" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C225" s="25" t="s">
+      <c r="C225" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -7967,7 +7967,7 @@
       <c r="B226" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="19" t="s">
         <v>116</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -7985,7 +7985,7 @@
       <c r="B227" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C227" s="25" t="s">
+      <c r="C227" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -8003,7 +8003,7 @@
       <c r="B228" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="19" t="s">
         <v>291</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -8021,7 +8021,7 @@
       <c r="B229" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -8039,7 +8039,7 @@
       <c r="B230" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -8057,7 +8057,7 @@
       <c r="B231" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C231" s="25" t="s">
+      <c r="C231" s="19" t="s">
         <v>121</v>
       </c>
       <c r="D231" s="1" t="s">

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB3C152-13CE-4C78-9AD7-90AD09665096}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="135" windowWidth="16485" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="135" windowWidth="16485" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -1859,7 +1858,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="30">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3055,9 +3054,6 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3083,145 +3079,148 @@
     <xf numFmtId="0" fontId="59" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
+    <cellStyle name="Calc Currency (0)" xfId="28"/>
+    <cellStyle name="Calc Currency (2)" xfId="29"/>
+    <cellStyle name="Calc Percent (0)" xfId="30"/>
+    <cellStyle name="Calc Percent (1)" xfId="31"/>
+    <cellStyle name="Calc Percent (2)" xfId="32"/>
+    <cellStyle name="Calc Units (0)" xfId="33"/>
+    <cellStyle name="Calc Units (1)" xfId="34"/>
+    <cellStyle name="Calc Units (2)" xfId="35"/>
+    <cellStyle name="category" xfId="36"/>
+    <cellStyle name="Comma [00]" xfId="37"/>
+    <cellStyle name="comma zerodec" xfId="38"/>
+    <cellStyle name="Currency [00]" xfId="39"/>
+    <cellStyle name="Currency1" xfId="40"/>
+    <cellStyle name="Date Short" xfId="41"/>
+    <cellStyle name="DELTA" xfId="42"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44"/>
+    <cellStyle name="Eingabefeld" xfId="45"/>
+    <cellStyle name="Eingaben" xfId="46"/>
+    <cellStyle name="EingabenWr" xfId="47"/>
+    <cellStyle name="Enter Currency (0)" xfId="48"/>
+    <cellStyle name="Enter Currency (2)" xfId="49"/>
+    <cellStyle name="Enter Units (0)" xfId="50"/>
+    <cellStyle name="Enter Units (1)" xfId="51"/>
+    <cellStyle name="Enter Units (2)" xfId="52"/>
+    <cellStyle name="Ergebnisse" xfId="53"/>
+    <cellStyle name="Euro" xfId="54"/>
+    <cellStyle name="Grey" xfId="55"/>
+    <cellStyle name="HEADER" xfId="56"/>
+    <cellStyle name="Header1" xfId="57"/>
+    <cellStyle name="Header2" xfId="58"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
+    <cellStyle name="iles|_x0005_h" xfId="70"/>
+    <cellStyle name="Input [yellow]" xfId="71"/>
+    <cellStyle name="les" xfId="72"/>
+    <cellStyle name="Link Currency (0)" xfId="73"/>
+    <cellStyle name="Link Currency (2)" xfId="74"/>
+    <cellStyle name="Link Units (0)" xfId="75"/>
+    <cellStyle name="Link Units (1)" xfId="76"/>
+    <cellStyle name="Link Units (2)" xfId="77"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79"/>
+    <cellStyle name="Model" xfId="80"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
+    <cellStyle name="Normal - Style1" xfId="83"/>
+    <cellStyle name="Normal 11" xfId="84"/>
+    <cellStyle name="Normal 133" xfId="85"/>
+    <cellStyle name="Normal 2" xfId="86"/>
+    <cellStyle name="Normal 2 2" xfId="87"/>
+    <cellStyle name="Normal 2 2 2" xfId="88"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
+    <cellStyle name="Normal 2 2 3" xfId="91"/>
+    <cellStyle name="Normal 2 3" xfId="92"/>
+    <cellStyle name="Normal 2 3 2" xfId="93"/>
+    <cellStyle name="Normal 2 3 3" xfId="94"/>
+    <cellStyle name="Normal 2 4" xfId="95"/>
+    <cellStyle name="Normal 2 4 2" xfId="96"/>
+    <cellStyle name="Normal 2 5" xfId="97"/>
+    <cellStyle name="Normal 3" xfId="98"/>
+    <cellStyle name="Normal 3 2" xfId="99"/>
+    <cellStyle name="Normal 3 2 2" xfId="100"/>
+    <cellStyle name="Normal 3 3" xfId="101"/>
+    <cellStyle name="Normal 3 3 2" xfId="102"/>
+    <cellStyle name="Normal 3 3 3" xfId="103"/>
+    <cellStyle name="Normal 3 4" xfId="104"/>
+    <cellStyle name="Normal 3 4 2" xfId="105"/>
+    <cellStyle name="Normal 3 4 3" xfId="106"/>
+    <cellStyle name="Normal 4" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 6" xfId="109"/>
+    <cellStyle name="Normal 7" xfId="110"/>
+    <cellStyle name="Normal 7 2" xfId="111"/>
+    <cellStyle name="Normal 8" xfId="112"/>
+    <cellStyle name="Normal 9" xfId="113"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
+    <cellStyle name="ParaBirimi 2" xfId="115"/>
+    <cellStyle name="Percent [0]" xfId="116"/>
+    <cellStyle name="Percent [00]" xfId="117"/>
+    <cellStyle name="Percent [2]" xfId="118"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120"/>
+    <cellStyle name="PrePop Units (0)" xfId="121"/>
+    <cellStyle name="PrePop Units (1)" xfId="122"/>
+    <cellStyle name="PrePop Units (2)" xfId="123"/>
+    <cellStyle name="Prozent 2" xfId="124"/>
+    <cellStyle name="R?" xfId="125"/>
+    <cellStyle name="sche|_x0005_" xfId="126"/>
+    <cellStyle name="Standard 2" xfId="127"/>
+    <cellStyle name="Standard 2 2" xfId="128"/>
+    <cellStyle name="Standard 3" xfId="129"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
+    <cellStyle name="subhead" xfId="131"/>
+    <cellStyle name="Text Indent A" xfId="132"/>
+    <cellStyle name="Text Indent B" xfId="133"/>
+    <cellStyle name="Text Indent C" xfId="134"/>
+    <cellStyle name="Ueberschriften" xfId="135"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
+    <cellStyle name="Yüzde 2" xfId="137"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3231,98 +3230,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Гиперссылка 2" xfId="147"/>
+    <cellStyle name="Денежный 2" xfId="148"/>
+    <cellStyle name="Денежный 3" xfId="149"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Название 2" xfId="156"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Обычный 10" xfId="158"/>
+    <cellStyle name="Обычный 10 2" xfId="159"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160"/>
+    <cellStyle name="Обычный 14" xfId="161"/>
+    <cellStyle name="Обычный 15" xfId="162"/>
+    <cellStyle name="Обычный 2" xfId="163"/>
+    <cellStyle name="Обычный 2 2" xfId="164"/>
+    <cellStyle name="Обычный 2 3" xfId="165"/>
+    <cellStyle name="Обычный 2 4" xfId="166"/>
+    <cellStyle name="Обычный 3" xfId="167"/>
+    <cellStyle name="Обычный 3 2" xfId="168"/>
+    <cellStyle name="Обычный 3 3" xfId="169"/>
+    <cellStyle name="Обычный 4" xfId="170"/>
+    <cellStyle name="Обычный 4 2" xfId="171"/>
+    <cellStyle name="Обычный 4 3" xfId="172"/>
+    <cellStyle name="Обычный 5" xfId="173"/>
+    <cellStyle name="Обычный 5 2" xfId="174"/>
+    <cellStyle name="Обычный_0" xfId="175"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Примечание 2" xfId="179"/>
+    <cellStyle name="Процентный 2" xfId="180"/>
+    <cellStyle name="Процентный 3" xfId="181"/>
+    <cellStyle name="Процентный 3 2" xfId="182"/>
+    <cellStyle name="Процентный 3 3" xfId="183"/>
+    <cellStyle name="Процентный 4" xfId="184"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Финансовый 2" xfId="187"/>
+    <cellStyle name="Финансовый 3" xfId="188"/>
+    <cellStyle name="Финансовый 9" xfId="189"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
+    <cellStyle name="백분율 2" xfId="199"/>
+    <cellStyle name="백분율 3" xfId="200"/>
+    <cellStyle name="백분율 3 2" xfId="201"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
+    <cellStyle name="스타일 1" xfId="207"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
+    <cellStyle name="콤마_0009-1" xfId="210"/>
+    <cellStyle name="표준 2" xfId="211"/>
+    <cellStyle name="표준 2 2" xfId="212"/>
+    <cellStyle name="표준 3" xfId="213"/>
+    <cellStyle name="표준 3 2" xfId="214"/>
+    <cellStyle name="一般_家樂福" xfId="215"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216"/>
+    <cellStyle name="千分位_laroux" xfId="217"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
+    <cellStyle name="常规_Sheet1" xfId="229"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
+    <cellStyle name="貨幣_laroux" xfId="234"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3599,11 +3598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232:C256"/>
+    <sheetView tabSelected="1" topLeftCell="B243" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3657,7 +3656,7 @@
       <c r="B3" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3684,7 +3683,7 @@
       <c r="B4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3711,7 +3710,7 @@
       <c r="B5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3738,7 +3737,7 @@
       <c r="B6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3765,7 +3764,7 @@
       <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3792,7 +3791,7 @@
       <c r="B8" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>7000</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3821,7 +3820,7 @@
       <c r="B9" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>6007</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3905,7 +3904,7 @@
       <c r="B13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3926,7 +3925,7 @@
       <c r="B14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3947,7 +3946,7 @@
       <c r="B15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3968,7 +3967,7 @@
       <c r="B16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3989,7 +3988,7 @@
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -4012,7 +4011,7 @@
       <c r="B18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -4033,7 +4032,7 @@
       <c r="B19" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -4054,7 +4053,7 @@
       <c r="B20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -4075,7 +4074,7 @@
       <c r="B21" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4096,7 +4095,7 @@
       <c r="B22" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4117,7 +4116,7 @@
       <c r="B23" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4138,7 +4137,7 @@
       <c r="B24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4159,7 +4158,7 @@
       <c r="B25" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4180,7 +4179,7 @@
       <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4201,7 +4200,7 @@
       <c r="B27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4222,7 +4221,7 @@
       <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4243,7 +4242,7 @@
       <c r="B29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4264,7 +4263,7 @@
       <c r="B30" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4285,7 +4284,7 @@
       <c r="B31" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>515</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -4306,7 +4305,7 @@
       <c r="B32" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4327,7 +4326,7 @@
       <c r="B33" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4348,7 +4347,7 @@
       <c r="B34" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4369,7 +4368,7 @@
       <c r="B35" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -4474,7 +4473,7 @@
       <c r="B40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4495,7 +4494,7 @@
       <c r="B41" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4537,7 +4536,7 @@
       <c r="B43" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4558,7 +4557,7 @@
       <c r="B44" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4579,7 +4578,7 @@
       <c r="B45" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4600,7 +4599,7 @@
       <c r="B46" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4684,7 +4683,7 @@
       <c r="B50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4705,7 +4704,7 @@
       <c r="B51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4747,7 +4746,7 @@
       <c r="B53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>412</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4768,7 +4767,7 @@
       <c r="B54" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4831,7 +4830,7 @@
       <c r="B57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="29" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4852,7 +4851,7 @@
       <c r="B58" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4890,7 +4889,7 @@
       <c r="B60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4909,7 +4908,7 @@
       <c r="B61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4970,7 +4969,7 @@
       <c r="B64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4991,7 +4990,7 @@
       <c r="B65" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -5012,7 +5011,7 @@
       <c r="B66" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5033,7 +5032,7 @@
       <c r="B67" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5054,7 +5053,7 @@
       <c r="B68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="33" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5075,7 +5074,7 @@
       <c r="B69" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5117,7 +5116,7 @@
       <c r="B71" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5197,7 +5196,7 @@
       <c r="B75" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5281,7 +5280,7 @@
       <c r="B79" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="33" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5302,7 +5301,7 @@
       <c r="B80" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="33" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5323,7 +5322,7 @@
       <c r="B81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="33" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5344,7 +5343,7 @@
       <c r="B82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="33" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5365,7 +5364,7 @@
       <c r="B83" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="33" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5386,7 +5385,7 @@
       <c r="B84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5407,7 +5406,7 @@
       <c r="B85" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C85" s="33" t="s">
         <v>327</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5428,7 +5427,7 @@
       <c r="B86" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5449,7 +5448,7 @@
       <c r="B87" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5467,7 +5466,7 @@
       <c r="B88" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="33" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5488,7 +5487,7 @@
       <c r="B89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="33" t="s">
         <v>326</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5593,7 +5592,7 @@
       <c r="B94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5614,7 +5613,7 @@
       <c r="B95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5635,7 +5634,7 @@
       <c r="B96" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5656,7 +5655,7 @@
       <c r="B97" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5677,7 +5676,7 @@
       <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5700,7 +5699,7 @@
       <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -6347,7 +6346,7 @@
       <c r="B135" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C135" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -6447,7 +6446,7 @@
       <c r="B141" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C141" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -6465,7 +6464,7 @@
       <c r="B142" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C142" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -6483,7 +6482,7 @@
       <c r="B143" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -6619,7 +6618,7 @@
       <c r="B151" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="26" t="s">
         <v>475</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -7135,7 +7134,7 @@
       <c r="B179" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C179" s="28">
+      <c r="C179" s="27">
         <v>5500</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -7705,7 +7704,7 @@
       <c r="B211" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C211" s="35" t="s">
+      <c r="C211" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -7759,7 +7758,7 @@
       <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C214" s="35" t="s">
+      <c r="C214" s="34" t="s">
         <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -7777,7 +7776,7 @@
       <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -7849,7 +7848,7 @@
       <c r="B219" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C219" s="35" t="s">
+      <c r="C219" s="34" t="s">
         <v>316</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -8093,7 +8092,7 @@
       <c r="B233" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C233" s="27" t="s">
+      <c r="C233" s="35" t="s">
         <v>261</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -8129,7 +8128,7 @@
       <c r="B235" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C235" s="26" t="s">
+      <c r="C235" s="34" t="s">
         <v>135</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -8147,7 +8146,7 @@
       <c r="B236" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C236" s="25" t="s">
+      <c r="C236" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -8165,7 +8164,7 @@
       <c r="B237" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C237" s="26" t="s">
+      <c r="C237" s="34" t="s">
         <v>133</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -8183,7 +8182,7 @@
       <c r="B238" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C238" s="25" t="s">
+      <c r="C238" s="19" t="s">
         <v>409</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -8201,7 +8200,7 @@
       <c r="B239" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C239" s="25" t="s">
+      <c r="C239" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -8219,7 +8218,7 @@
       <c r="B240" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C240" s="26" t="s">
+      <c r="C240" s="34" t="s">
         <v>328</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -8253,7 +8252,7 @@
       <c r="B242" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C242" s="26" t="s">
+      <c r="C242" s="34" t="s">
         <v>110</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -8289,7 +8288,7 @@
       <c r="B244" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C244" s="25" t="s">
+      <c r="C244" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -8307,7 +8306,7 @@
       <c r="B245" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C245" s="25" t="s">
+      <c r="C245" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -8343,7 +8342,7 @@
       <c r="B247" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C247" s="25" t="s">
+      <c r="C247" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -8361,7 +8360,7 @@
       <c r="B248" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C248" s="25" t="s">
+      <c r="C248" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -8379,7 +8378,7 @@
       <c r="B249" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C249" s="25" t="s">
+      <c r="C249" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -8413,7 +8412,7 @@
       <c r="B251" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C251" s="25" t="s">
+      <c r="C251" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -8447,7 +8446,7 @@
       <c r="B253" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C253" s="25" t="s">
+      <c r="C253" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -8465,7 +8464,7 @@
       <c r="B254" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C254" s="25" t="s">
+      <c r="C254" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -8483,7 +8482,7 @@
       <c r="B255" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C255" s="25" t="s">
+      <c r="C255" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -8501,7 +8500,7 @@
       <c r="B256" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C256" s="25" t="s">
+      <c r="C256" s="19" t="s">
         <v>321</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -8511,20 +8510,20 @@
       <c r="F256" s="15"/>
     </row>
     <row r="257" spans="3:3">
-      <c r="C257" s="29"/>
+      <c r="C257" s="28"/>
     </row>
     <row r="258" spans="3:3">
-      <c r="C258" s="29"/>
+      <c r="C258" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:G262"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CB9568-50E4-48F3-ACCA-3591B410CE6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="135" windowWidth="16485" windowHeight="14400"/>
+    <workbookView xWindow="7695" yWindow="525" windowWidth="19605" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -18,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$A$2:$G$262</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="610">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -1858,7 +1859,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="30">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3084,143 +3085,143 @@
     </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1"/>
-    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2"/>
-    <cellStyle name="_01년01월하이마트매출" xfId="3"/>
-    <cellStyle name="_01년01월하이마트사입" xfId="4"/>
-    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5"/>
-    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6"/>
-    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7"/>
-    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9"/>
-    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10"/>
-    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11"/>
-    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12"/>
-    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13"/>
-    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14"/>
-    <cellStyle name="AeE­_AO¼RCN±U " xfId="15"/>
-    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16"/>
-    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17"/>
-    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18"/>
-    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19"/>
-    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20"/>
-    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21"/>
-    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22"/>
-    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23"/>
-    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24"/>
-    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25"/>
-    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26"/>
-    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27"/>
-    <cellStyle name="Calc Currency (0)" xfId="28"/>
-    <cellStyle name="Calc Currency (2)" xfId="29"/>
-    <cellStyle name="Calc Percent (0)" xfId="30"/>
-    <cellStyle name="Calc Percent (1)" xfId="31"/>
-    <cellStyle name="Calc Percent (2)" xfId="32"/>
-    <cellStyle name="Calc Units (0)" xfId="33"/>
-    <cellStyle name="Calc Units (1)" xfId="34"/>
-    <cellStyle name="Calc Units (2)" xfId="35"/>
-    <cellStyle name="category" xfId="36"/>
-    <cellStyle name="Comma [00]" xfId="37"/>
-    <cellStyle name="comma zerodec" xfId="38"/>
-    <cellStyle name="Currency [00]" xfId="39"/>
-    <cellStyle name="Currency1" xfId="40"/>
-    <cellStyle name="Date Short" xfId="41"/>
-    <cellStyle name="DELTA" xfId="42"/>
-    <cellStyle name="Dezimal [0] 2" xfId="43"/>
-    <cellStyle name="Dollar (zero dec)" xfId="44"/>
-    <cellStyle name="Eingabefeld" xfId="45"/>
-    <cellStyle name="Eingaben" xfId="46"/>
-    <cellStyle name="EingabenWr" xfId="47"/>
-    <cellStyle name="Enter Currency (0)" xfId="48"/>
-    <cellStyle name="Enter Currency (2)" xfId="49"/>
-    <cellStyle name="Enter Units (0)" xfId="50"/>
-    <cellStyle name="Enter Units (1)" xfId="51"/>
-    <cellStyle name="Enter Units (2)" xfId="52"/>
-    <cellStyle name="Ergebnisse" xfId="53"/>
-    <cellStyle name="Euro" xfId="54"/>
-    <cellStyle name="Grey" xfId="55"/>
-    <cellStyle name="HEADER" xfId="56"/>
-    <cellStyle name="Header1" xfId="57"/>
-    <cellStyle name="Header2" xfId="58"/>
-    <cellStyle name="Îáû÷íû?INCOM1" xfId="59"/>
-    <cellStyle name="Îáû÷íû?INCOM10" xfId="60"/>
-    <cellStyle name="Îáû÷íû?INCOM2" xfId="61"/>
-    <cellStyle name="Îáû÷íû?INCOM3" xfId="62"/>
-    <cellStyle name="Îáû÷íû?INCOM4" xfId="63"/>
-    <cellStyle name="Îáû÷íû?INCOM5" xfId="64"/>
-    <cellStyle name="Îáû÷íû?INCOM6" xfId="65"/>
-    <cellStyle name="Îáû÷íû?INCOM7" xfId="66"/>
-    <cellStyle name="Îáû÷íû?INCOM8" xfId="67"/>
-    <cellStyle name="Îáû÷íû?INCOM9" xfId="68"/>
-    <cellStyle name="Îáû÷íû?PRIB11" xfId="69"/>
-    <cellStyle name="iles|_x0005_h" xfId="70"/>
-    <cellStyle name="Input [yellow]" xfId="71"/>
-    <cellStyle name="les" xfId="72"/>
-    <cellStyle name="Link Currency (0)" xfId="73"/>
-    <cellStyle name="Link Currency (2)" xfId="74"/>
-    <cellStyle name="Link Units (0)" xfId="75"/>
-    <cellStyle name="Link Units (1)" xfId="76"/>
-    <cellStyle name="Link Units (2)" xfId="77"/>
-    <cellStyle name="Millares [0]_PERSONAL" xfId="78"/>
-    <cellStyle name="Millares_PERSONAL" xfId="79"/>
-    <cellStyle name="Model" xfId="80"/>
-    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81"/>
-    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82"/>
-    <cellStyle name="Normal - Style1" xfId="83"/>
-    <cellStyle name="Normal 11" xfId="84"/>
-    <cellStyle name="Normal 133" xfId="85"/>
-    <cellStyle name="Normal 2" xfId="86"/>
-    <cellStyle name="Normal 2 2" xfId="87"/>
-    <cellStyle name="Normal 2 2 2" xfId="88"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="89"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="90"/>
-    <cellStyle name="Normal 2 2 3" xfId="91"/>
-    <cellStyle name="Normal 2 3" xfId="92"/>
-    <cellStyle name="Normal 2 3 2" xfId="93"/>
-    <cellStyle name="Normal 2 3 3" xfId="94"/>
-    <cellStyle name="Normal 2 4" xfId="95"/>
-    <cellStyle name="Normal 2 4 2" xfId="96"/>
-    <cellStyle name="Normal 2 5" xfId="97"/>
-    <cellStyle name="Normal 3" xfId="98"/>
-    <cellStyle name="Normal 3 2" xfId="99"/>
-    <cellStyle name="Normal 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 3 3" xfId="101"/>
-    <cellStyle name="Normal 3 3 2" xfId="102"/>
-    <cellStyle name="Normal 3 3 3" xfId="103"/>
-    <cellStyle name="Normal 3 4" xfId="104"/>
-    <cellStyle name="Normal 3 4 2" xfId="105"/>
-    <cellStyle name="Normal 3 4 3" xfId="106"/>
-    <cellStyle name="Normal 4" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 6" xfId="109"/>
-    <cellStyle name="Normal 7" xfId="110"/>
-    <cellStyle name="Normal 7 2" xfId="111"/>
-    <cellStyle name="Normal 8" xfId="112"/>
-    <cellStyle name="Normal 9" xfId="113"/>
-    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114"/>
-    <cellStyle name="ParaBirimi 2" xfId="115"/>
-    <cellStyle name="Percent [0]" xfId="116"/>
-    <cellStyle name="Percent [00]" xfId="117"/>
-    <cellStyle name="Percent [2]" xfId="118"/>
-    <cellStyle name="PrePop Currency (0)" xfId="119"/>
-    <cellStyle name="PrePop Currency (2)" xfId="120"/>
-    <cellStyle name="PrePop Units (0)" xfId="121"/>
-    <cellStyle name="PrePop Units (1)" xfId="122"/>
-    <cellStyle name="PrePop Units (2)" xfId="123"/>
-    <cellStyle name="Prozent 2" xfId="124"/>
-    <cellStyle name="R?" xfId="125"/>
-    <cellStyle name="sche|_x0005_" xfId="126"/>
-    <cellStyle name="Standard 2" xfId="127"/>
-    <cellStyle name="Standard 2 2" xfId="128"/>
-    <cellStyle name="Standard 3" xfId="129"/>
-    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130"/>
-    <cellStyle name="subhead" xfId="131"/>
-    <cellStyle name="Text Indent A" xfId="132"/>
-    <cellStyle name="Text Indent B" xfId="133"/>
-    <cellStyle name="Text Indent C" xfId="134"/>
-    <cellStyle name="Ueberschriften" xfId="135"/>
-    <cellStyle name="XLS'|_x0005_t" xfId="136"/>
-    <cellStyle name="Yüzde 2" xfId="137"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_01년01월대리점매출_직매출포함" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_01년01월하이마트매출" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_01년01월하이마트사입" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_01년02월ac관련남광원대리에게송부자료" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_09년_고효율콤프_단가_090409" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_2nd_C600모델_재료비및 손익분석" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_월별-모델별제조원가-2902(송부)" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO [0]_AO¡§uRCN￠R¨uU " xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="A¡§¡ⓒ¡E¡þ¡EO_AO¡§uRCN￠R¨uU " xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="AeE­ [0]_AO¼RCN±U " xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="ÅëÈ­ [0]_ÁöºÐÀ²2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="ÅëÈ­_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="AeE­_AO¼RCN±U " xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="ÅëÈ­_ÁöºÐÀ²2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="AeE￠R¨I [0]_AO¡§uRCN￠R¨uU " xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="AeE￠R¨I_AO¡§uRCN￠R¨uU " xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="AÞ¸¶ [0]_AO¼RCN±U " xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_ÁöºÐÀ²2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="ÄÞ¸¶_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="AÞ¸¶_AO¼RCN±U " xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="ÄÞ¸¶_ÁöºÐÀ²2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="C￠RIA¡§¨￡_AO¡§uRCN￠R¨uU " xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ç¥ÁØ_´ë¿ìÀÚµ¿Â÷°ü·Ã~~~" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="C￥AØ_AO¼RCN±U " xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="category" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma [00]" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="comma zerodec" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency [00]" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency1" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Date Short" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="DELTA" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Eingabefeld" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Eingaben" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="EingabenWr" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Ergebnisse" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Euro" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Grey" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="HEADER" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header1" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM1" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM10" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM5" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM6" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM7" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM8" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Îáû÷íû?INCOM9" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Îáû÷íû?PRIB11" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="iles|_x0005_h" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input [yellow]" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="les" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Link Units (0)" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Link Units (1)" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Link Units (2)" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Millares [0]_PERSONAL" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares_PERSONAL" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Model" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Moneda [0]_CONTENCION CONDELL 25.051" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Moneda_CONTENCION CONDELL 25.051" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal - Style1" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 11" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 133" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 3 4" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 3 4 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 6" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 7" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 7 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal_Opsiyon Fiyat Listesi" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="ParaBirimi 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent [0]" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent [00]" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent [2]" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Prozent 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="R?" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="sche|_x0005_" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Standard 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Standard 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Standard 3" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Standard_Price Comparison 07.2002" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="subhead" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Text Indent A" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Text Indent B" xfId="133" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Text Indent C" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Ueberschriften" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="XLS'|_x0005_t" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Yüzde 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Акцент1" xfId="138" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="139" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="140" builtinId="37" customBuiltin="1"/>
@@ -3230,98 +3231,98 @@
     <cellStyle name="Ввод " xfId="144" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="145" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="146" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка 2" xfId="147"/>
-    <cellStyle name="Денежный 2" xfId="148"/>
-    <cellStyle name="Денежный 3" xfId="149"/>
+    <cellStyle name="Гиперссылка 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Денежный 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Денежный 3" xfId="149" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
     <cellStyle name="Заголовок 1" xfId="150" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="151" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="152" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Заголовок 4" xfId="153" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Итог" xfId="154" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="155" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название 2" xfId="156"/>
+    <cellStyle name="Название 2" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
     <cellStyle name="Нейтральный" xfId="157" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="158"/>
-    <cellStyle name="Обычный 10 2" xfId="159"/>
-    <cellStyle name="Обычный 10 2 2" xfId="160"/>
-    <cellStyle name="Обычный 14" xfId="161"/>
-    <cellStyle name="Обычный 15" xfId="162"/>
-    <cellStyle name="Обычный 2" xfId="163"/>
-    <cellStyle name="Обычный 2 2" xfId="164"/>
-    <cellStyle name="Обычный 2 3" xfId="165"/>
-    <cellStyle name="Обычный 2 4" xfId="166"/>
-    <cellStyle name="Обычный 3" xfId="167"/>
-    <cellStyle name="Обычный 3 2" xfId="168"/>
-    <cellStyle name="Обычный 3 3" xfId="169"/>
-    <cellStyle name="Обычный 4" xfId="170"/>
-    <cellStyle name="Обычный 4 2" xfId="171"/>
-    <cellStyle name="Обычный 4 3" xfId="172"/>
-    <cellStyle name="Обычный 5" xfId="173"/>
-    <cellStyle name="Обычный 5 2" xfId="174"/>
-    <cellStyle name="Обычный_0" xfId="175"/>
+    <cellStyle name="Обычный 10" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Обычный 10 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Обычный 10 2 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Обычный 14" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Обычный 15" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Обычный 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Обычный 3" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Обычный 4" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Обычный 4 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Обычный 5" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Обычный_0" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
     <cellStyle name="Плохой" xfId="176" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="177" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="178" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="179"/>
-    <cellStyle name="Процентный 2" xfId="180"/>
-    <cellStyle name="Процентный 3" xfId="181"/>
-    <cellStyle name="Процентный 3 2" xfId="182"/>
-    <cellStyle name="Процентный 3 3" xfId="183"/>
-    <cellStyle name="Процентный 4" xfId="184"/>
+    <cellStyle name="Примечание 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Процентный 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Процентный 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Процентный 3 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Процентный 3 3" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Процентный 4" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="Связанная ячейка" xfId="185" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="186" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Финансовый 2" xfId="187"/>
-    <cellStyle name="Финансовый 3" xfId="188"/>
-    <cellStyle name="Финансовый 9" xfId="189"/>
+    <cellStyle name="Финансовый 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Финансовый 3" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Финансовый 9" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Хороший" xfId="190" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191"/>
-    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192"/>
-    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193"/>
-    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194"/>
-    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198"/>
-    <cellStyle name="백분율 2" xfId="199"/>
-    <cellStyle name="백분율 3" xfId="200"/>
-    <cellStyle name="백분율 3 2" xfId="201"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="202"/>
-    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203"/>
-    <cellStyle name="쉼표 [0] 2" xfId="204"/>
-    <cellStyle name="쉼표 [0] 3" xfId="205"/>
-    <cellStyle name="쉼표 [0] 3 2" xfId="206"/>
-    <cellStyle name="스타일 1" xfId="207"/>
-    <cellStyle name="콤마 [0]_0009-1" xfId="208"/>
-    <cellStyle name="콤마,_x0005__x0014_" xfId="209"/>
-    <cellStyle name="콤마_0009-1" xfId="210"/>
-    <cellStyle name="표준 2" xfId="211"/>
-    <cellStyle name="표준 2 2" xfId="212"/>
-    <cellStyle name="표준 3" xfId="213"/>
-    <cellStyle name="표준 3 2" xfId="214"/>
-    <cellStyle name="一般_家樂福" xfId="215"/>
-    <cellStyle name="千分位[0]_laroux" xfId="216"/>
-    <cellStyle name="千分位_laroux" xfId="217"/>
-    <cellStyle name="咬訌裝?INCOM1" xfId="218"/>
-    <cellStyle name="咬訌裝?INCOM10" xfId="219"/>
-    <cellStyle name="咬訌裝?INCOM2" xfId="220"/>
-    <cellStyle name="咬訌裝?INCOM3" xfId="221"/>
-    <cellStyle name="咬訌裝?INCOM4" xfId="222"/>
-    <cellStyle name="咬訌裝?INCOM5" xfId="223"/>
-    <cellStyle name="咬訌裝?INCOM6" xfId="224"/>
-    <cellStyle name="咬訌裝?INCOM7" xfId="225"/>
-    <cellStyle name="咬訌裝?INCOM8" xfId="226"/>
-    <cellStyle name="咬訌裝?INCOM9" xfId="227"/>
-    <cellStyle name="咬訌裝?PRIB11" xfId="228"/>
-    <cellStyle name="常规_Sheet1" xfId="229"/>
-    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230"/>
-    <cellStyle name="烹拳_林籍茄臂 " xfId="231"/>
-    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232"/>
-    <cellStyle name="貨幣[0]_laroux" xfId="233"/>
-    <cellStyle name="貨幣_laroux" xfId="234"/>
-    <cellStyle name="钎霖_林籍茄臂 " xfId="235"/>
-    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236"/>
-    <cellStyle name="霓付_林籍茄臂 " xfId="237"/>
+    <cellStyle name="ﾄﾞｸｶ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="191" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="ﾄﾞｸｶ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="192" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="ﾅ・ｭ [0]_ﾁﾖｼｮﾇﾑｱﾛ " xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="ﾅ・ｭ_ﾁﾖｼｮﾇﾑｱﾛ " xfId="194" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="뒤에 오는 하이퍼링크_0103" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="197" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="백분율 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="백분율 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="백분율 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="202" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="셈迷?XLS!check_filesche|_x0005_" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="쉼표 [0] 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="스타일 1" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="콤마 [0]_0009-1" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="콤마,_x0005__x0014_" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="콤마_0009-1" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="표준 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="표준 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="표준 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="표준 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="一般_家樂福" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="千分位[0]_laroux" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="千分位_laroux" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="咬訌裝?INCOM1" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="咬訌裝?INCOM10" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="咬訌裝?INCOM2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="咬訌裝?INCOM3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="咬訌裝?INCOM4" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="咬訌裝?INCOM5" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="咬訌裝?INCOM6" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="咬訌裝?INCOM7" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="咬訌裝?INCOM8" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="咬訌裝?INCOM9" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="咬訌裝?PRIB11" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="常规_Sheet1" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="烹拳 [0]_林籍茄臂 " xfId="230" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="烹拳_林籍茄臂 " xfId="231" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="貨幣 [0]_PERSONAL" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="貨幣[0]_laroux" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="貨幣_laroux" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="钎霖_林籍茄臂 " xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="霓付 [0]_林籍茄臂 " xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="霓付_林籍茄臂 " xfId="237" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3598,11 +3599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3862,7 +3863,7 @@
       <c r="B11" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3916,6 +3917,9 @@
       <c r="F13" s="15"/>
       <c r="G13" s="9" t="s">
         <v>551</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
@@ -8516,14 +8520,14 @@
       <c r="C258" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G262"/>
+  <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer-мой.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Kitchengoods\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CB9568-50E4-48F3-ACCA-3591B410CE6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA28B9-046F-46E3-BC6C-596A9B5DE355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="525" windowWidth="19605" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="330" windowWidth="23730" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="603">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -458,33 +458,15 @@
     <t>8662SM</t>
   </si>
   <si>
-    <t>8663SM</t>
-  </si>
-  <si>
     <t>8664SM</t>
   </si>
   <si>
-    <t>8667SM</t>
-  </si>
-  <si>
-    <t>8665SM</t>
-  </si>
-  <si>
     <t>8630SM</t>
   </si>
   <si>
     <t>8658SM</t>
   </si>
   <si>
-    <t>8668SM</t>
-  </si>
-  <si>
-    <t>8689SM</t>
-  </si>
-  <si>
-    <t>8690SM</t>
-  </si>
-  <si>
     <t>6001W</t>
   </si>
   <si>
@@ -731,9 +713,6 @@
     <t>8674 SM Воздухоочиститель кухонный настенный</t>
   </si>
   <si>
-    <t>8674SM</t>
-  </si>
-  <si>
     <t>8670SM</t>
   </si>
   <si>
@@ -839,15 +818,6 @@
     <t>M 4557 Духовка электрическая</t>
   </si>
   <si>
-    <t>GT0540W</t>
-  </si>
-  <si>
-    <t>GT0541W</t>
-  </si>
-  <si>
-    <t>KT1531W</t>
-  </si>
-  <si>
     <t>F55GS42015</t>
   </si>
   <si>
@@ -1016,9 +986,6 @@
     <t>8631SM</t>
   </si>
   <si>
-    <t>8632SM</t>
-  </si>
-  <si>
     <t>Новинка</t>
   </si>
   <si>
@@ -1271,12 +1238,6 @@
     <t>M4200</t>
   </si>
   <si>
-    <t>S 4150 KVC</t>
-  </si>
-  <si>
-    <t>S 4200 KVC</t>
-  </si>
-  <si>
     <t>6007 Воздухоочиститель кухонный встраиваемый ПРОМО</t>
   </si>
   <si>
@@ -1814,9 +1775,6 @@
     <t>B6ES66001</t>
   </si>
   <si>
-    <t>надо добавить</t>
-  </si>
-  <si>
     <t>картинки</t>
   </si>
   <si>
@@ -1854,6 +1812,27 @@
   </si>
   <si>
     <t>Уточнить какая духовка</t>
+  </si>
+  <si>
+    <t>мои пометки</t>
+  </si>
+  <si>
+    <t>нет цены мрц, мало свойств нашел</t>
+  </si>
+  <si>
+    <t>он почему-то не доступен</t>
+  </si>
+  <si>
+    <t>не указана цена мрц</t>
+  </si>
+  <si>
+    <t>ваще никакой информации</t>
+  </si>
+  <si>
+    <t>штрихкод не знаю какай</t>
+  </si>
+  <si>
+    <t>нет штрикхода не знаю цены</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1871,7 @@
     <numFmt numFmtId="192" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="193" formatCode="_-* #,##0.00\ &quot;TL&quot;_-;\-* #,##0.00\ &quot;TL&quot;_-;_-* &quot;-&quot;??\ &quot;TL&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2340,6 +2319,33 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -2457,12 +2463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2470,6 +2470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2984,7 +2990,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="175" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3004,25 +3010,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" xfId="175" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="175" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="175" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3055,10 +3044,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="22" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3071,16 +3057,35 @@
     <xf numFmtId="1" fontId="63" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="22" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="21" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="66" fillId="0" borderId="7" xfId="175" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="7" xfId="175" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="7" xfId="175" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3600,17 +3605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N258"/>
+  <dimension ref="A1:M358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
     <col min="6" max="6" width="46.140625" customWidth="1"/>
@@ -3621,3054 +3626,2750 @@
     <col min="14" max="14" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" customHeight="1">
+    <row r="1" spans="1:13" ht="38.25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
+        <v>456</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="6">
         <v>8699272054327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>156</v>
+        <v>269</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="N3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
       <c r="A4" s="6">
         <v>8699272054334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9">
-        <v>6006</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="E4" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="6">
         <v>8699272058349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="N5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="E5" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="6">
         <v>8699272058356</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="N6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="E6" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="6">
         <v>8699272058363</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="N7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="E7" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="6">
         <v>8699272059001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C8" s="31">
+        <v>518</v>
+      </c>
+      <c r="C8" s="26">
         <v>7000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="N8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.45" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1">
       <c r="A9" s="6">
         <v>8699272059445</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C9" s="31">
+        <v>404</v>
+      </c>
+      <c r="C9" s="23">
         <v>6007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="13">
-        <v>7000</v>
-      </c>
-      <c r="N9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1">
+        <v>519</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="8"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="6">
         <v>8699272056550</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>166</v>
+        <v>441</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="6">
         <v>8699272056635</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>513</v>
+        <v>499</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>500</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="9" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="K12" t="s">
+        <v>601</v>
+      </c>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="6">
         <v>8699272058622</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1">
+      <c r="E13" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="6">
         <v>8699272058639</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1">
+      <c r="E14" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="6">
         <v>8699272058646</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="6">
         <v>8699272058653</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="E16" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1">
       <c r="A17" s="6">
         <v>8699272058684</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="E17" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="6">
         <v>8699272058691</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C18" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="E18" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="6">
         <v>8699272058714</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
+      <c r="E19" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
       <c r="A20" s="6">
         <v>8699272058721</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1">
       <c r="A21" s="6">
         <v>8699272058745</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C21" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1">
       <c r="A22" s="6">
         <v>8699272058752</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
+      <c r="E22" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1">
       <c r="A23" s="6">
         <v>8699272058790</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="E23" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="6">
         <v>8699272058813</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="9" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
       <c r="A25" s="6">
         <v>8699272058820</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
       <c r="A26" s="6">
         <v>8699272058837</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="E26" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1">
       <c r="A27" s="6">
         <v>8699272058943</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
+      <c r="E27" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="A28" s="6">
         <v>8699272059315</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="E28" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="6">
         <v>8699272059469</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="9" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="E29" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1">
       <c r="A30" s="6">
         <v>8699272059476</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C30" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="9" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="E30" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1">
       <c r="A31" s="6">
         <v>8699272059490</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>515</v>
+        <v>501</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>502</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="6">
         <v>8699272060069</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C32" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="6">
         <v>8699272060090</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C33" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="E33" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="6">
         <v>8699272060168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="E34" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="6">
         <v>8699272060175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="E35" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" customHeight="1">
       <c r="A36" s="6">
         <v>8699272060274</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
+        <v>426</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" customHeight="1">
       <c r="A37" s="6">
         <v>8699272060281</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="9" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
+        <v>428</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" ht="30" customHeight="1">
       <c r="A38" s="6">
         <v>8699272060298</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
+        <v>419</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1">
       <c r="A39" s="6">
         <v>8699272060304</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
+        <v>421</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1">
       <c r="A40" s="6">
         <v>8699272060427</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C40" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="9" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="E40" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
       <c r="A41" s="6">
         <v>8699272060496</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C41" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="E41" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="6">
         <v>8699272060663</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
+        <v>174</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="6">
         <v>8699272060939</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C43" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="E43" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="6">
         <v>8699272061202</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C44" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="E44" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="6">
         <v>8699272061219</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C45" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="E45" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
       <c r="A46" s="6">
         <v>8699272061226</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C46" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="E46" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="H46">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1">
       <c r="A47" s="6">
         <v>8699272061240</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>373</v>
+        <v>484</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="E47" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="6">
         <v>8699272061257</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>374</v>
+        <v>485</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
+      <c r="E48" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1">
       <c r="A49" s="6">
         <v>8699272061271</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>419</v>
+        <v>486</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>406</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1">
+      <c r="E49" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" customHeight="1">
       <c r="A50" s="6">
         <v>8699272061288</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1">
+      <c r="E50" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1">
       <c r="A51" s="6">
         <v>8699272061295</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C51" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1">
+      <c r="E51" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1">
       <c r="A52" s="6">
         <v>8699272061790</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1">
+        <v>376</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1">
       <c r="A53" s="6">
         <v>8699272061868</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="9" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1">
+      <c r="E53" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" customHeight="1">
       <c r="A54" s="6">
         <v>8699272061912</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C54" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="9" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1">
+      <c r="E54" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" customHeight="1">
       <c r="A55" s="6">
         <v>8699272061974</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>538</v>
+        <v>524</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>525</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.45" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.45" customHeight="1">
       <c r="A56" s="6">
         <v>8699272061981</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1">
+        <v>466</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" customHeight="1">
       <c r="A57" s="6">
         <v>8699272058608</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1">
+      <c r="E57" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" customHeight="1">
       <c r="A58" s="6">
         <v>8699272061073</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C58" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>137</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1">
+      <c r="E58" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="30" customHeight="1">
       <c r="A59" s="6">
         <v>8699272055409</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" customHeight="1">
       <c r="A60" s="6">
         <v>8699272057007</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C60" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.45" customHeight="1">
+      <c r="E60" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.45" customHeight="1">
       <c r="A61" s="6">
         <v>8699272057014</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1">
+      <c r="E61" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" ht="30" customHeight="1">
       <c r="A62" s="6">
         <v>8699272057458</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>188</v>
+        <v>326</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>189</v>
+        <v>328</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" customHeight="1">
       <c r="A64" s="6">
         <v>8699272059988</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1">
+      <c r="E64" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" ht="30" customHeight="1">
       <c r="A65" s="6">
         <v>8699272060045</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C65" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1">
+      <c r="E65" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" customHeight="1">
       <c r="A66" s="6">
         <v>8699272060526</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1">
+      <c r="E66" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" customHeight="1">
       <c r="A67" s="6">
         <v>8699272060540</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C67" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1">
+      <c r="E67" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" ht="30" customHeight="1">
       <c r="A68" s="6">
         <v>8699272060588</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C68" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="9" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1">
       <c r="A69" s="6">
         <v>8699272060656</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="9" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1">
       <c r="A70" s="6">
         <v>8699272060717</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1">
+        <v>509</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" customHeight="1">
       <c r="A71" s="6">
         <v>8699272060946</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1">
+      <c r="E71" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" customHeight="1">
       <c r="A72" s="6">
         <v>8699272061608</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1">
+        <v>510</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
       <c r="A73" s="6">
         <v>8699272061615</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1">
+        <v>511</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
       <c r="A74" s="6">
         <v>8699272061639</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>298</v>
+        <v>512</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1">
       <c r="A75" s="6">
         <v>8699272061752</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C75" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="E75" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" s="6">
         <v>8699272053221</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>456</v>
+        <v>442</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>443</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1">
       <c r="A77" s="6">
         <v>8699272053276</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>458</v>
+        <v>444</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>445</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
       <c r="A78" s="6">
         <v>8699272057632</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>239</v>
+        <v>231</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="E78" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1">
       <c r="A79" s="6">
         <v>8699272060397</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C79" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1">
+      <c r="E79" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="A80" s="6">
         <v>8699272061523</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C80" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" s="6">
         <v>8699272061936</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C81" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1">
       <c r="A82" s="6">
         <v>8699272058868</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1">
+      <c r="E82" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="6">
         <v>8699272059353</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>93</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1">
+      <c r="E83" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="6">
         <v>8699272060151</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="9" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1">
+      <c r="E84" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="A85" s="6">
         <v>8699272061301</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>327</v>
+        <v>423</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>317</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="A86" s="6">
         <v>8699272061318</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C86" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1">
+      <c r="E86" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1">
       <c r="A87" s="6">
         <v>8699272061714</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C87" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>92</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="6">
         <v>8699272061721</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C88" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1">
+      <c r="E88" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="A89" s="6">
         <v>8699272061929</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>326</v>
+        <v>503</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1">
+        <v>320</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="A90" s="6">
         <v>8699272055782</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>378</v>
+        <v>366</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1">
       <c r="A91" s="6">
         <v>8699272055942</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>511</v>
+        <v>497</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>498</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F91" s="15"/>
-      <c r="G91" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.45" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.45" customHeight="1">
       <c r="A92" s="6">
         <v>8699272056901</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>198</v>
+        <v>331</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="14.45" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.45" customHeight="1">
       <c r="A93" s="6">
         <v>8699272056963</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>194</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F93" s="15"/>
-      <c r="G93" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="A94" s="6">
         <v>8699272059919</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1">
+      <c r="E94" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="A95" s="6">
         <v>8699272059926</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C95" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F95" s="15"/>
-      <c r="G95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.45" customHeight="1">
+      <c r="E95" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.45" customHeight="1">
       <c r="A96" s="6">
         <v>8699272060007</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C96" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C96" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.45" customHeight="1">
+      <c r="E96" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="14.45" customHeight="1">
       <c r="A97" s="6">
         <v>8699272060373</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C97" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E97" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F97" s="15"/>
-      <c r="G97" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
+      <c r="E97" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1">
       <c r="A98" s="6">
         <v>8699272060564</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F98" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1">
       <c r="A99" s="6">
         <v>8699272060571</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
+      <c r="E99" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="A100" s="6">
         <v>8699272060595</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E100" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F100" s="15"/>
-      <c r="G100" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1">
+      <c r="E100" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1">
       <c r="A101" s="6">
         <v>8699272060618</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.45" customHeight="1">
+      <c r="E101" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6" ht="14.45" customHeight="1">
       <c r="A102" s="6">
         <v>8699272060625</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="78.75" customHeight="1">
+      <c r="E102" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" ht="78.75" customHeight="1">
       <c r="A103" s="6">
         <v>8699272060953</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.45" customHeight="1">
+      <c r="E103" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6" ht="14.45" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F104" s="15"/>
-    </row>
-    <row r="105" spans="1:7" ht="30" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1">
       <c r="A105" s="6">
         <v>8699272061592</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-    </row>
-    <row r="106" spans="1:7" ht="78.75" customHeight="1">
+        <v>298</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6" ht="78.75" customHeight="1">
       <c r="A106" s="6">
         <v>8699272061622</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-    </row>
-    <row r="107" spans="1:7" ht="78.75" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6" ht="78.75" customHeight="1">
       <c r="A107" s="6">
         <v>8699272061646</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>322</v>
+        <v>513</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F107" s="15"/>
-    </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1">
       <c r="A108" s="6">
         <v>8699272061769</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C108" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F108" s="15"/>
-    </row>
-    <row r="109" spans="1:7" ht="30" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1">
       <c r="A109" s="6">
         <v>8699272061776</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C109" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F109" s="15"/>
-    </row>
-    <row r="110" spans="1:7" ht="78.75" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" ht="78.75" customHeight="1">
       <c r="A110" s="6">
         <v>8699272854507</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C110" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>138</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F110" s="15"/>
-    </row>
-    <row r="111" spans="1:7" ht="90" customHeight="1">
+      <c r="E110" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" ht="90" customHeight="1">
       <c r="A111" s="6">
         <v>8699272862342</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F111" s="15"/>
-    </row>
-    <row r="112" spans="1:7" ht="56.25" customHeight="1">
+        <v>161</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6" ht="56.25" customHeight="1">
       <c r="A112" s="6">
         <v>8699272053900</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>504</v>
+        <v>589</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>491</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F112" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6" ht="67.5" customHeight="1">
       <c r="A113" s="6">
         <v>8699272054389</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>294</v>
+        <v>478</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>284</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F113" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6" ht="67.5" customHeight="1">
       <c r="A114" s="6">
         <v>8699272055263</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>414</v>
+        <v>402</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>403</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F114" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" ht="67.5" customHeight="1">
       <c r="A115" s="6">
         <v>8699272057489</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>212</v>
+        <v>479</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F115" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6" ht="67.5" customHeight="1">
       <c r="A116" s="6">
         <v>8699272057496</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>380</v>
+        <v>368</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>369</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F116" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6" ht="67.5" customHeight="1">
       <c r="A117" s="6">
         <v>8699272057540</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
+        <v>379</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" ht="67.5" customHeight="1">
       <c r="A118" s="6">
         <v>8699272057953</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
+        <v>388</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" ht="67.5" customHeight="1">
       <c r="A119" s="6">
         <v>8699272059124</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C119" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F119" s="15"/>
+      <c r="E119" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6" ht="56.25" customHeight="1">
       <c r="A120" s="6">
         <v>8699272059223</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
+        <v>515</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" ht="56.25" customHeight="1">
       <c r="A121" s="6">
         <v>8699272059230</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C121" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E121" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F121" s="15"/>
+      <c r="E121" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6" ht="30" customHeight="1">
       <c r="A122" s="6">
         <v>8699272059254</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C122" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E122" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F122" s="15"/>
+      <c r="E122" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1">
       <c r="A123" s="6">
         <v>8699272059308</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C123" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F123" s="15"/>
+      <c r="E123" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" ht="67.5" customHeight="1">
       <c r="A124" s="6">
         <v>8699272059629</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F124" s="15"/>
+      <c r="E124" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" ht="67.5" customHeight="1">
       <c r="A125" s="6">
         <v>8699272059681</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C125" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F125" s="15"/>
+      <c r="E125" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" ht="14.45" customHeight="1">
       <c r="A126" s="6">
         <v>8699272059698</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
+        <v>439</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1">
       <c r="A127" s="6">
         <v>8699272059704</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C127" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127" s="21" t="s">
         <v>38</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E127" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F127" s="15"/>
+      <c r="E127" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" ht="14.45" customHeight="1">
       <c r="A128" s="6">
         <v>8699272059711</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C128" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C128" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E128" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F128" s="15"/>
+      <c r="E128" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1">
       <c r="A129" s="6">
         <v>8699272059742</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C129" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F129" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1">
       <c r="A130" s="6">
         <v>8699272059759</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C130" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F130" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1">
       <c r="A131" s="6">
         <v>8699272059766</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
+        <v>440</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" ht="45" customHeight="1">
       <c r="A132" s="6">
         <v>8699272059780</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C132" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C132" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E132" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F132" s="15"/>
+      <c r="E132" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1">
       <c r="A133" s="6">
         <v>8699272059865</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C133" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C133" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E133" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F133" s="15"/>
+      <c r="E133" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:6" ht="45" customHeight="1">
       <c r="A134" s="6">
         <v>8699272059902</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
+        <v>342</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1">
       <c r="A135" s="6">
         <v>8699272061103</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C135" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C135" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E135" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F135" s="15"/>
+      <c r="E135" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F135" s="8"/>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1">
       <c r="A136" s="6">
         <v>8699272061110</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C136" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F136" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1">
       <c r="A137" s="6">
         <v>8699272061332</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
+        <v>389</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1">
       <c r="A138" s="6">
         <v>8699272061424</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
+        <v>215</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1">
       <c r="A139" s="6">
         <v>8699272061431</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C139" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
+        <v>290</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1">
       <c r="A140" s="6">
         <v>8699272061448</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
+        <v>263</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1">
       <c r="A141" s="6">
         <v>8699272061455</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C141" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E141" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F141" s="15"/>
+      <c r="E141" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F141" s="8"/>
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1">
       <c r="A142" s="6">
         <v>8699272061479</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C142" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F142" s="15"/>
+      <c r="E142" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:6" ht="30" customHeight="1">
       <c r="A143" s="6">
         <v>8699272061493</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F143" s="15"/>
+      <c r="E143" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F143" s="8"/>
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1">
       <c r="A144" s="6">
         <v>8699272061530</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C144" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D144" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
+      <c r="D144" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:6" ht="30" customHeight="1">
       <c r="A145" s="6">
         <v>8699272061547</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C145" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="C145" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D145" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
+      <c r="D145" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:6" ht="30" customHeight="1">
       <c r="A146" s="6">
         <v>8699272061585</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C146" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="D146" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
+        <v>276</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
     </row>
     <row r="147" spans="1:6" ht="30" customHeight="1">
       <c r="A147" s="6">
         <v>8699272061691</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C147" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C147" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F147" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F147" s="8"/>
     </row>
     <row r="148" spans="1:6" ht="30" customHeight="1">
       <c r="A148" s="6">
         <v>8699272061851</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
+        <v>387</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
     </row>
     <row r="149" spans="1:6" ht="30" customHeight="1">
       <c r="A149" s="6">
         <v>8699272054006</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>471</v>
+        <v>457</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E149" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F149" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F149" s="15"/>
     </row>
     <row r="150" spans="1:6" ht="30" customHeight="1">
       <c r="A150" s="6">
         <v>8699272054044</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>473</v>
+        <v>459</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>460</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F150" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F150" s="8"/>
     </row>
     <row r="151" spans="1:6" ht="30" customHeight="1">
       <c r="A151" s="6">
         <v>8699272054136</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>475</v>
+        <v>461</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F151" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F151" s="8"/>
     </row>
     <row r="152" spans="1:6" ht="30" customHeight="1">
       <c r="A152" s="6">
         <v>8699272054150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>477</v>
+        <v>463</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F152" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F152" s="8"/>
     </row>
     <row r="153" spans="1:6" ht="30" customHeight="1">
       <c r="A153" s="6">
         <v>8699272054266</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C153" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C153" s="21" t="s">
         <v>143</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>605</v>
+        <v>154</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1">
@@ -6676,19 +6377,19 @@
         <v>8699272054280</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>145</v>
+        <v>372</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>605</v>
+        <v>154</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1">
@@ -6696,163 +6397,163 @@
         <v>8699272054297</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>148</v>
+        <v>217</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F155" s="15"/>
+      <c r="E155" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F155" s="8"/>
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1">
       <c r="A156" s="6">
         <v>8699272054303</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>329</v>
+        <v>373</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E156" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F156" s="15"/>
+      <c r="E156" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F156" s="8"/>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1">
       <c r="A157" s="6">
         <v>8699272055805</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C157" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E157" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F157" s="15"/>
+      <c r="E157" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F157" s="8"/>
     </row>
     <row r="158" spans="1:6" ht="30" customHeight="1">
       <c r="A158" s="6">
         <v>8699272055829</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C158" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C158" s="21" t="s">
         <v>140</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E158" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F158" s="15"/>
+      <c r="E158" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F158" s="8"/>
     </row>
     <row r="159" spans="1:6" ht="30" customHeight="1">
       <c r="A159" s="6">
         <v>8699272055836</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C159" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" s="21" t="s">
         <v>141</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F159" s="15"/>
+      <c r="E159" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F159" s="8"/>
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1">
       <c r="A160" s="6">
         <v>8699272055843</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C160" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" s="21" t="s">
         <v>142</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E160" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F160" s="15"/>
+      <c r="E160" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F160" s="8"/>
     </row>
     <row r="161" spans="1:6" ht="30" customHeight="1">
       <c r="A161" s="6">
         <v>8699272056307</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>382</v>
+        <v>370</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E161" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F161" s="15"/>
+      <c r="E161" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F161" s="8"/>
     </row>
     <row r="162" spans="1:6" ht="30" customHeight="1">
       <c r="A162" s="6">
         <v>8699272056314</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>464</v>
+        <v>450</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>451</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E162" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F162" s="15"/>
+      <c r="E162" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F162" s="8"/>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
       <c r="A163" s="6">
         <v>8699272056598</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C163" s="19" t="s">
-        <v>228</v>
+        <v>292</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F163" s="15" t="s">
-        <v>606</v>
+        <v>159</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" customHeight="1">
@@ -6860,127 +6561,127 @@
         <v>8699272057359</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>233</v>
+        <v>226</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F164" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F164" s="8"/>
     </row>
     <row r="165" spans="1:6" ht="30" customHeight="1">
       <c r="A165" s="6">
         <v>8699272058189</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>149</v>
+        <v>384</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E165" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F165" s="15"/>
+      <c r="E165" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F165" s="8"/>
     </row>
     <row r="166" spans="1:6" ht="14.45" customHeight="1">
       <c r="A166" s="6">
         <v>8699272058196</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>150</v>
+        <v>223</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E166" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F166" s="15"/>
+      <c r="E166" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F166" s="8"/>
     </row>
     <row r="167" spans="1:6" ht="30" customHeight="1">
       <c r="A167" s="6">
         <v>8699272058325</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>146</v>
+        <v>225</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F167" s="15"/>
+      <c r="E167" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6" ht="14.45" customHeight="1">
       <c r="A168" s="6">
         <v>8699272058974</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>144</v>
+        <v>383</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F168" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F168" s="8"/>
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1">
       <c r="A169" s="6">
         <v>8699272059209</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F169" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F169" s="8"/>
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1">
       <c r="A170" s="6">
         <v>8699272061400</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>152</v>
+        <v>433</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>606</v>
+        <v>483</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1">
@@ -6988,19 +6689,19 @@
         <v>8699272061417</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>151</v>
+        <v>416</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F171" s="15" t="s">
-        <v>606</v>
+        <v>483</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1">
@@ -7008,91 +6709,91 @@
         <v>8699272061820</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>147</v>
+        <v>224</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E172" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F172" s="15"/>
+      <c r="E172" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6" ht="30" customHeight="1">
       <c r="A173" s="6">
         <v>8699272061844</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>330</v>
+        <v>374</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F173" s="15"/>
+      <c r="E173" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F173" s="8"/>
     </row>
     <row r="174" spans="1:6" ht="30" customHeight="1">
       <c r="A174" s="6">
         <v>8699272061554</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>271</v>
+        <v>313</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F174" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F174" s="8"/>
     </row>
     <row r="175" spans="1:6" ht="30" customHeight="1">
       <c r="A175" s="6">
         <v>8699272061561</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>272</v>
+        <v>314</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>451</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E175" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F175" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F175" s="8"/>
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1">
       <c r="A176" s="6">
         <v>8699272061578</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>273</v>
+        <v>315</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F176" s="15" t="s">
-        <v>606</v>
+        <v>154</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1">
@@ -7100,145 +6801,145 @@
         <v>8699272061943</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>415</v>
+        <v>417</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F177" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F177" s="8"/>
     </row>
     <row r="178" spans="1:6" ht="30" customHeight="1">
       <c r="A178" s="6">
         <v>8699272061950</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="C178" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F178" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F178" s="8"/>
     </row>
     <row r="179" spans="1:6" ht="30" customHeight="1">
       <c r="A179" s="6">
         <v>8699272059032</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C179" s="27">
-        <v>5500</v>
+        <v>271</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F179" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F179" s="8"/>
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1">
       <c r="A180" s="6">
         <v>8699272059407</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>314</v>
+        <v>303</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>304</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E180" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F180" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F180" s="8"/>
     </row>
     <row r="181" spans="1:6" ht="30" customHeight="1">
       <c r="A181" s="6">
         <v>8699272059544</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F181" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F181" s="8"/>
     </row>
     <row r="182" spans="1:6" ht="30" customHeight="1">
       <c r="A182" s="6">
         <v>8699272059803</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>406</v>
+        <v>235</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E182" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F182" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F182" s="8"/>
     </row>
     <row r="183" spans="1:6" ht="30" customHeight="1">
       <c r="A183" s="6">
         <v>8699272059810</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>407</v>
+        <v>236</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>396</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E183" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F183" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F183" s="8"/>
     </row>
     <row r="184" spans="1:6" ht="30" customHeight="1">
       <c r="A184" s="6">
         <v>8699272059834</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>408</v>
+        <v>237</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E184" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F184" s="15" t="s">
-        <v>606</v>
+        <v>159</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" customHeight="1">
@@ -7246,19 +6947,19 @@
         <v>8699272059858</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C185" s="25" t="s">
-        <v>507</v>
+        <v>493</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>494</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E185" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F185" s="15" t="s">
-        <v>606</v>
+        <v>159</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" customHeight="1">
@@ -7266,1258 +6967,1760 @@
         <v>8699272056659</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C186" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C186" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E186" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F186" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F186" s="8"/>
     </row>
     <row r="187" spans="1:6" ht="15" customHeight="1">
       <c r="A187" s="6">
         <v>8699272057311</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C187" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C187" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F187" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F187" s="8"/>
     </row>
     <row r="188" spans="1:6" ht="30" customHeight="1">
       <c r="A188" s="6">
         <v>8699272058851</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C188" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C188" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E188" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F188" s="15"/>
+      <c r="E188" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F188" s="8"/>
     </row>
     <row r="189" spans="1:6" ht="15" customHeight="1">
       <c r="A189" s="6">
         <v>8699272058950</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C189" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C189" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F189" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F189" s="8"/>
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1">
       <c r="A190" s="6">
         <v>8699272058967</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C190" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C190" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E190" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F190" s="15"/>
+      <c r="E190" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F190" s="8"/>
     </row>
     <row r="191" spans="1:6" ht="30" customHeight="1">
       <c r="A191" s="6">
         <v>8699272059131</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C191" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C191" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F191" s="15"/>
+      <c r="E191" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F191" s="8"/>
     </row>
     <row r="192" spans="1:6" ht="30" customHeight="1">
       <c r="A192" s="6">
         <v>8699272059148</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C192" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C192" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E192" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F192" s="15"/>
+      <c r="E192" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F192" s="8"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1">
       <c r="A193" s="6">
         <v>8699272059155</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C193" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C193" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E193" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F193" s="15"/>
+      <c r="E193" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F193" s="8"/>
     </row>
     <row r="194" spans="1:6" ht="14.45" customHeight="1">
       <c r="A194" s="6">
         <v>8699272060328</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C194" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
+        <v>448</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1">
       <c r="A195" s="6">
         <v>8699272060403</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C195" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C195" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F195" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F195" s="8"/>
     </row>
     <row r="196" spans="1:6" ht="14.45" customHeight="1">
       <c r="A196" s="6">
         <v>8699272060502</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C196" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C196" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E196" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F196" s="15"/>
+      <c r="E196" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F196" s="8"/>
     </row>
     <row r="197" spans="1:6" ht="14.45" customHeight="1">
       <c r="A197" s="6">
         <v>8699272060670</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C197" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D197" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
+        <v>409</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1">
       <c r="A198" s="6">
         <v>8699272060687</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C198" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
+        <v>476</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
     </row>
     <row r="199" spans="1:6" ht="14.45" customHeight="1">
       <c r="A199" s="6">
         <v>8699272061783</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C199" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C199" s="21" t="s">
         <v>101</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E199" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F199" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F199" s="8"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1">
       <c r="A200" s="6">
         <v>8699272090554</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C200" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C200" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E200" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F200" s="15"/>
+      <c r="E200" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F200" s="8"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C201" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="D201" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
+        <v>526</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1">
       <c r="A202" s="6">
         <v>8699272056215</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>518</v>
+        <v>504</v>
+      </c>
+      <c r="C202" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F202" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F202" s="8"/>
     </row>
     <row r="203" spans="1:6" ht="14.45" customHeight="1">
       <c r="A203" s="6">
         <v>8699272057021</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>460</v>
+        <v>446</v>
+      </c>
+      <c r="C203" s="21" t="s">
+        <v>447</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E203" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F203" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F203" s="8"/>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1">
       <c r="A204" s="6">
         <v>8699272057038</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>249</v>
+        <v>347</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>242</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E204" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F204" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F204" s="8"/>
     </row>
     <row r="205" spans="1:6" ht="14.45" customHeight="1">
       <c r="A205" s="6">
         <v>8699272057076</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>545</v>
+        <v>531</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>532</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E205" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F205" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F205" s="8"/>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1">
       <c r="A206" s="6">
         <v>8699272058462</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C206" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C206" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E206" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F206" s="15"/>
+      <c r="E206" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F206" s="8"/>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1">
       <c r="A207" s="6">
         <v>8699272058479</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C207" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E207" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F207" s="15"/>
+      <c r="E207" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F207" s="8"/>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1">
       <c r="A208" s="6">
         <v>8699272058486</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C208" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C208" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E208" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F208" s="15"/>
+      <c r="E208" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F208" s="8"/>
     </row>
     <row r="209" spans="1:6" ht="30" customHeight="1">
       <c r="A209" s="6">
         <v>8699272058509</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C209" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C209" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E209" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F209" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F209" s="8"/>
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1">
       <c r="A210" s="6">
         <v>8699272058523</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C210" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="C210" s="21" t="s">
         <v>119</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E210" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F210" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F210" s="8"/>
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1">
       <c r="A211" s="6">
         <v>8699272058547</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C211" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C211" s="22" t="s">
         <v>123</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E211" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F211" s="15"/>
+      <c r="E211" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F211" s="8"/>
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1">
       <c r="A212" s="6">
         <v>8699272058592</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C212" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C212" s="21" t="s">
         <v>126</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E212" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F212" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F212" s="8"/>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1">
       <c r="A213" s="6">
         <v>8699272058882</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C213" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C213" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E213" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F213" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F213" s="8"/>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1">
       <c r="A214" s="6">
         <v>8699272058905</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C214" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="C214" s="22" t="s">
         <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E214" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F214" s="15"/>
+      <c r="E214" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F214" s="8"/>
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1">
       <c r="A215" s="6">
         <v>8699272059056</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C215" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="C215" s="22" t="s">
         <v>127</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E215" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F215" s="15"/>
+      <c r="E215" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F215" s="8"/>
     </row>
     <row r="216" spans="1:6" ht="14.45" customHeight="1">
       <c r="A216" s="6">
         <v>8699272059582</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C216" s="19" t="s">
-        <v>256</v>
+        <v>350</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E216" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F216" s="15"/>
+        <v>483</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F216" s="8"/>
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1">
       <c r="A217" s="6">
         <v>8699272059599</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C217" s="19" t="s">
-        <v>257</v>
+        <v>351</v>
+      </c>
+      <c r="C217" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E217" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F217" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F217" s="8"/>
     </row>
     <row r="218" spans="1:6" ht="14.45" customHeight="1">
       <c r="A218" s="6">
         <v>8699272059605</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C218" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C218" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E218" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F218" s="15"/>
+      <c r="E218" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F218" s="8"/>
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1">
       <c r="A219" s="6">
         <v>8699272060076</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C219" s="34" t="s">
-        <v>316</v>
+        <v>412</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E219" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F219" s="15"/>
+      <c r="E219" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F219" s="8"/>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1">
       <c r="A220" s="6">
         <v>8699272060267</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C220" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C220" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E220" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F220" s="15"/>
+      <c r="E220" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F220" s="8"/>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1">
       <c r="A221" s="6">
         <v>8699272060335</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C221" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="D221" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
+        <v>528</v>
+      </c>
+      <c r="C221" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1">
       <c r="A222" s="6">
         <v>8699272060342</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C222" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="D222" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
+        <v>480</v>
+      </c>
+      <c r="C222" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
     </row>
     <row r="223" spans="1:6" ht="15" customHeight="1">
       <c r="A223" s="6">
         <v>8699272060694</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C223" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
+        <v>434</v>
+      </c>
+      <c r="C223" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1">
       <c r="A224" s="6">
         <v>8699272060700</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C224" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
+        <v>436</v>
+      </c>
+      <c r="C224" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E224" s="8"/>
+      <c r="F224" s="8"/>
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1">
       <c r="A225" s="6">
         <v>8699272060908</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C225" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C225" s="21" t="s">
         <v>132</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E225" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F225" s="15"/>
+      <c r="E225" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F225" s="8"/>
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1">
       <c r="A226" s="6">
         <v>8699272060915</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C226" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C226" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E226" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F226" s="15"/>
+      <c r="E226" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F226" s="8"/>
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1">
       <c r="A227" s="6">
         <v>8699272061035</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C227" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C227" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E227" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F227" s="15"/>
+      <c r="E227" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F227" s="8"/>
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1">
       <c r="A228" s="6">
         <v>8699272061127</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C228" s="19" t="s">
-        <v>291</v>
+        <v>280</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E228" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F228" s="15"/>
+      <c r="E228" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F228" s="8"/>
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1">
       <c r="A229" s="6">
         <v>8699272061134</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C229" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C229" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E229" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F229" s="15"/>
+      <c r="E229" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F229" s="8"/>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1">
       <c r="A230" s="6">
         <v>8699272061158</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C230" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="C230" s="21" t="s">
         <v>120</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E230" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F230" s="15"/>
+      <c r="E230" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F230" s="8"/>
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1">
       <c r="A231" s="6">
         <v>8699272061165</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C231" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C231" s="21" t="s">
         <v>121</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E231" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F231" s="15"/>
+      <c r="E231" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F231" s="8"/>
     </row>
     <row r="232" spans="1:6" ht="15" customHeight="1">
       <c r="A232" s="6">
         <v>8699272061172</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C232" s="25" t="s">
-        <v>260</v>
+        <v>487</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>253</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E232" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F232" s="15"/>
+      <c r="E232" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F232" s="8"/>
     </row>
     <row r="233" spans="1:6" ht="14.45" customHeight="1">
       <c r="A233" s="6">
         <v>8699272061189</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C233" s="35" t="s">
-        <v>261</v>
+        <v>488</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E233" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F233" s="15"/>
+      <c r="E233" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F233" s="8"/>
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1">
       <c r="A234" s="6">
         <v>8699272061196</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C234" s="25" t="s">
-        <v>262</v>
+        <v>489</v>
+      </c>
+      <c r="C234" s="28" t="s">
+        <v>255</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E234" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="F234" s="15"/>
+      <c r="E234" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="F234" s="8"/>
     </row>
     <row r="235" spans="1:6" ht="14.45" customHeight="1">
       <c r="A235" s="6">
         <v>8699272061356</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C235" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C235" s="22" t="s">
         <v>135</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E235" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F235" s="15"/>
+      <c r="E235" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F235" s="8"/>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C236" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E236" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F236" s="15"/>
+      <c r="E236" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F236" s="8"/>
     </row>
     <row r="237" spans="1:6" ht="30" customHeight="1">
       <c r="A237" s="6">
         <v>8699272061363</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C237" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C237" s="22" t="s">
         <v>133</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E237" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F237" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F237" s="8"/>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1">
       <c r="A238" s="6">
         <v>8699272061875</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C238" s="19" t="s">
-        <v>409</v>
+        <v>424</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>398</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E238" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F238" s="15"/>
+      <c r="E238" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F238" s="8"/>
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1">
       <c r="A239" s="6">
         <v>8699272061882</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C239" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C239" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E239" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F239" s="15"/>
+      <c r="E239" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F239" s="8"/>
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1">
       <c r="A240" s="6">
         <v>8699272061899</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C240" s="34" t="s">
-        <v>328</v>
+        <v>425</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E240" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F240" s="15"/>
+        <v>320</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F240" s="8"/>
     </row>
     <row r="241" spans="1:6" ht="30" customHeight="1">
       <c r="A241" s="6">
         <v>8699272074295</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C241" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D241" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
+        <v>309</v>
+      </c>
+      <c r="C241" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
     </row>
     <row r="242" spans="1:6" ht="30" customHeight="1">
       <c r="A242" s="6">
         <v>8699272090585</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C242" s="34" t="s">
+      <c r="B242" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C242" s="22" t="s">
         <v>110</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E242" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F242" s="15"/>
+      <c r="E242" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F242" s="8"/>
     </row>
     <row r="243" spans="1:6" ht="30" customHeight="1">
       <c r="A243" s="6">
         <v>8699272056994</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C243" s="25" t="s">
-        <v>263</v>
+        <v>482</v>
+      </c>
+      <c r="C243" s="28" t="s">
+        <v>256</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E243" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F243" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F243" s="8"/>
     </row>
     <row r="244" spans="1:6" ht="30" customHeight="1">
       <c r="A244" s="6">
         <v>8699272058271</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C244" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C244" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E244" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F244" s="15"/>
+      <c r="E244" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F244" s="8"/>
     </row>
     <row r="245" spans="1:6" ht="30" customHeight="1">
       <c r="A245" s="6">
         <v>8699272058769</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C245" s="19" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E245" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F245" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F245" s="8"/>
     </row>
     <row r="246" spans="1:6" ht="30" customHeight="1">
       <c r="A246" s="6">
         <v>8699272058776</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C246" s="25" t="s">
-        <v>266</v>
+        <v>355</v>
+      </c>
+      <c r="C246" s="18" t="s">
+        <v>259</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E246" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F246" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="E246" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F246" s="8"/>
     </row>
     <row r="247" spans="1:6" ht="30" customHeight="1">
       <c r="A247" s="6">
         <v>8699272060014</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C247" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C247" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E247" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F247" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F247" s="8"/>
     </row>
     <row r="248" spans="1:6" ht="30" customHeight="1">
       <c r="A248" s="6">
         <v>8699272060021</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C248" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C248" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E248" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F248" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F248" s="8"/>
     </row>
     <row r="249" spans="1:6" ht="30" customHeight="1">
       <c r="A249" s="6">
         <v>8699272060038</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C249" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C249" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E249" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F249" s="15"/>
+      <c r="E249" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F249" s="8"/>
     </row>
     <row r="250" spans="1:6" ht="30" customHeight="1">
       <c r="A250" s="6">
         <v>8699272060236</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C250" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="D250" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
+        <v>260</v>
+      </c>
+      <c r="C250" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
     </row>
     <row r="251" spans="1:6" ht="30" customHeight="1">
       <c r="A251" s="6">
         <v>8699272060380</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C251" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C251" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E251" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F251" s="15"/>
+      <c r="E251" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F251" s="8"/>
     </row>
     <row r="252" spans="1:6" ht="30" customHeight="1">
       <c r="A252" s="6">
         <v>8699272060724</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D252" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
+        <v>414</v>
+      </c>
+      <c r="C252" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
     </row>
     <row r="253" spans="1:6" ht="30" customHeight="1">
       <c r="A253" s="6">
         <v>8699272061028</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C253" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C253" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E253" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F253" s="15"/>
+      <c r="E253" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F253" s="8"/>
     </row>
     <row r="254" spans="1:6" ht="30" customHeight="1">
       <c r="A254" s="6">
         <v>8699272061097</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C254" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C254" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E254" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F254" s="15"/>
+      <c r="E254" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F254" s="8"/>
     </row>
     <row r="255" spans="1:6" ht="30" customHeight="1">
       <c r="A255" s="6">
         <v>8699272061325</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C255" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C255" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E255" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F255" s="15"/>
+      <c r="E255" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="F255" s="8"/>
     </row>
     <row r="256" spans="1:6" ht="30" customHeight="1">
       <c r="A256" s="6">
         <v>8699272061707</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C256" s="19" t="s">
-        <v>321</v>
+        <v>357</v>
+      </c>
+      <c r="C256" s="21" t="s">
+        <v>311</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-    </row>
-    <row r="257" spans="3:3">
-      <c r="C257" s="28"/>
-    </row>
-    <row r="258" spans="3:3">
-      <c r="C258" s="28"/>
+        <v>483</v>
+      </c>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="C257" s="20"/>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C258" s="20"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="29">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="C262" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C263" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="29" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="29" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="C267" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="29" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" s="29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="29" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="29" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="29" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="29" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="29" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="29" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="33" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="29" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="29" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="29" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="29"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="29"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="29"/>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="29"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="32" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="29" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="29" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="29" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="29" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="29" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="29" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="29" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="30"/>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="30" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:G262" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
